--- a/src/attributions/attributions_saliency_traj_387.xlsx
+++ b/src/attributions/attributions_saliency_traj_387.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.4126198816532e-09</v>
+        <v>4.783263284480199e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>7.351053099569071e-10</v>
+        <v>0.0003013904206454754</v>
       </c>
       <c r="C4" t="n">
-        <v>1.698815133011067e-08</v>
+        <v>3.337506132083945e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>1.996848730811962e-08</v>
+        <v>5.803856038255617e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>3.164693396229268e-09</v>
+        <v>4.665785309043713e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>3.565639161706713e-08</v>
+        <v>0.0003216079494450241</v>
       </c>
       <c r="G4" t="n">
-        <v>2.347099226085447e-08</v>
+        <v>5.256240910966881e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>1.38592914922242e-08</v>
+        <v>1.55099496623734e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>8.535812945353882e-09</v>
+        <v>1.930983489728533e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>1.544171723821819e-08</v>
+        <v>0.0001189033791888505</v>
       </c>
       <c r="K4" t="n">
-        <v>3.287575722765723e-08</v>
+        <v>0.0002241553156636655</v>
       </c>
       <c r="L4" t="n">
-        <v>2.899481543749971e-08</v>
+        <v>2.645874155859929e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>1.167157126502616e-08</v>
+        <v>4.474024171940982e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.913005031108696e-08</v>
+        <v>2.101423888234422e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>5.409456438343341e-09</v>
+        <v>0.0002204964403063059</v>
       </c>
       <c r="P4" t="n">
-        <v>1.054194243010897e-08</v>
+        <v>2.484696051396895e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.142566703701505e-09</v>
+        <v>6.544609641423449e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>8.95859120220166e-09</v>
+        <v>6.612673314521089e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.40945264348602e-08</v>
+        <v>1.751326453813817e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>7.391920853194733e-09</v>
+        <v>3.271242894697934e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>2.994580805548708e-09</v>
+        <v>1.785259883035906e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>6.54265619459693e-09</v>
+        <v>2.227242475782987e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.305416657577553e-08</v>
+        <v>8.67368362378329e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>1.579054931255541e-08</v>
+        <v>2.714062793529592e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.173152211630395e-09</v>
+        <v>2.607743590488099e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.892609594189025e-09</v>
+        <v>2.242097070848104e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.063593990657807e-09</v>
+        <v>1.656432505114935e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.688930215796972e-09</v>
+        <v>3.547438245732337e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.910363283703532e-09</v>
+        <v>3.234367341065081e-06</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.043593034211199e-08</v>
+        <v>2.714380389079452e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.32537489053675e-09</v>
+        <v>4.924331733491272e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.278017247585694e-08</v>
+        <v>7.58032692829147e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.932307291951929e-08</v>
+        <v>4.326479393057525e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.565569504208725e-09</v>
+        <v>2.110848072334193e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.695810820886663e-10</v>
+        <v>1.210052505484782e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.607880578153754e-09</v>
+        <v>4.018106665171217e-06</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.820494670099151e-09</v>
+        <v>4.408783297549235e-06</v>
       </c>
       <c r="AL4" t="n">
-        <v>6.58281873455735e-10</v>
+        <v>1.084752329916228e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.67682419061066e-08</v>
+        <v>3.75229210476391e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.18173781263431e-08</v>
+        <v>3.121751797152683e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.126893907307476e-09</v>
+        <v>6.381984348990954e-06</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.156079841915016e-09</v>
+        <v>6.321325054159388e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.623738002531354e-09</v>
+        <v>4.606229776982218e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>9.02967478566552e-09</v>
+        <v>3.46562264894601e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.286488053395487e-09</v>
+        <v>7.904923404566944e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.361515789000123e-08</v>
+        <v>1.572396286064759e-06</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.810129906549719e-08</v>
+        <v>0.000105309096397832</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.033820762330606e-08</v>
+        <v>8.101454295683652e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.366943701621494e-08</v>
+        <v>1.743091706885025e-05</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.800046416950863e-08</v>
+        <v>3.417679545236751e-05</v>
       </c>
       <c r="AY4" t="n">
-        <v>2.134054000180186e-08</v>
+        <v>0.0001206065571750514</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6.501455485086183e-10</v>
+        <v>7.989822188392282e-05</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.532543514315421e-08</v>
+        <v>4.559520311886445e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>5.668598479502407e-09</v>
+        <v>0.0001298816059716046</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.736251853401427e-08</v>
+        <v>9.191040589939803e-05</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.890100875812095e-08</v>
+        <v>6.865853356430307e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.285173922838112e-08</v>
+        <v>3.210126669728197e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>8.22766921260154e-09</v>
+        <v>3.22854975820519e-05</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.405991850196187e-09</v>
+        <v>6.723095430061221e-05</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.490741835003973e-09</v>
+        <v>0.0001358523586532101</v>
       </c>
       <c r="BI4" t="n">
-        <v>8.081263658255011e-09</v>
+        <v>7.529082358814776e-05</v>
       </c>
       <c r="BJ4" t="n">
-        <v>7.215662733983663e-09</v>
+        <v>3.731324250111356e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.193199399869172e-09</v>
+        <v>8.377833000849932e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.67699596431703e-08</v>
+        <v>3.589336301956791e-06</v>
       </c>
       <c r="BM4" t="n">
-        <v>3.637637968623153e-10</v>
+        <v>1.170458290289389e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>6.864272705797703e-09</v>
+        <v>4.147060280956794e-06</v>
       </c>
       <c r="BO4" t="n">
-        <v>9.097050224227132e-09</v>
+        <v>1.949706893356051e-05</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.573539958916626e-08</v>
+        <v>7.723486487520859e-05</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.753684169576331e-09</v>
+        <v>1.189382601296529e-05</v>
       </c>
       <c r="BR4" t="n">
-        <v>1.570500618441883e-09</v>
+        <v>3.728979572770186e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>3.286547700653841e-09</v>
+        <v>8.816401532385498e-06</v>
       </c>
       <c r="BT4" t="n">
-        <v>8.424735575829345e-09</v>
+        <v>3.841110446956009e-05</v>
       </c>
       <c r="BU4" t="n">
-        <v>6.490806114811676e-09</v>
+        <v>1.956441519723739e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>2.241650864931444e-09</v>
+        <v>7.26262733223848e-05</v>
       </c>
       <c r="BW4" t="n">
-        <v>6.981376809989115e-09</v>
+        <v>5.198699000175111e-05</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.489438883339744e-08</v>
+        <v>1.388076270814054e-05</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.570364638325827e-08</v>
+        <v>7.12407345417887e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.464053323019243e-08</v>
+        <v>4.029545380035415e-06</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.833548506941952e-09</v>
+        <v>9.305018465965986e-06</v>
       </c>
       <c r="CB4" t="n">
-        <v>3.622427247051974e-09</v>
+        <v>3.096183263551211e-06</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.026595519704188e-08</v>
+        <v>4.426740269991569e-05</v>
       </c>
       <c r="CD4" t="n">
-        <v>3.649499369373643e-09</v>
+        <v>5.958437213848811e-06</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.035183583297794e-08</v>
+        <v>3.779242979362607e-05</v>
       </c>
       <c r="CF4" t="n">
-        <v>8.906251292017942e-10</v>
+        <v>2.604165820230264e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>5.291211913061034e-09</v>
+        <v>1.175471516035032e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>2.057400694255307e-09</v>
+        <v>2.465526813466568e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>6.394761165040563e-09</v>
+        <v>5.457310544443317e-05</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3.274497117899955e-09</v>
+        <v>1.886308564280625e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>6.051519729766142e-09</v>
+        <v>3.141713023069315e-07</v>
       </c>
       <c r="CL4" t="n">
-        <v>6.838336563674829e-10</v>
+        <v>3.463184475549497e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>5.380270007293575e-09</v>
+        <v>2.970506648125593e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>1.711567598761121e-08</v>
+        <v>6.258926441660151e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>7.197639373401898e-09</v>
+        <v>5.994903040118515e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.395507709389676e-08</v>
+        <v>3.870198997901753e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.609250688261454e-08</v>
+        <v>9.740233508637175e-06</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.061849541628135e-08</v>
+        <v>1.561657518323045e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.370064151018369e-08</v>
+        <v>2.656654578458983e-05</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.33789254622252e-09</v>
+        <v>9.894110917230137e-06</v>
       </c>
       <c r="CU4" t="n">
-        <v>5.601256791720743e-09</v>
+        <v>5.754737503593788e-05</v>
       </c>
       <c r="CV4" t="n">
-        <v>3.452056862585096e-09</v>
+        <v>3.912771262548631e-07</v>
       </c>
       <c r="CW4" t="n">
-        <v>8.655458572093266e-09</v>
+        <v>4.920769788441248e-05</v>
       </c>
       <c r="CX4" t="n">
-        <v>4.36150360272336e-09</v>
+        <v>2.128356391040143e-05</v>
       </c>
       <c r="CY4" t="n">
-        <v>4.26106838702367e-09</v>
+        <v>1.701498877082486e-05</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2.381391195349636e-10</v>
+        <v>3.140464468742721e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>5.626315413564953e-09</v>
+        <v>5.314914960763417e-05</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.865496646047404e-09</v>
+        <v>2.000565473281313e-06</v>
       </c>
       <c r="DC4" t="n">
-        <v>7.367784160550173e-09</v>
+        <v>4.372151124698576e-06</v>
       </c>
       <c r="DD4" t="n">
-        <v>7.270640756118496e-10</v>
+        <v>3.80753081117291e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.301762520000693e-08</v>
+        <v>4.076477853232063e-05</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.786715841944897e-08</v>
+        <v>1.323569267697167e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>3.647279811502813e-09</v>
+        <v>3.107984230155125e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>2.526866005325701e-08</v>
+        <v>8.49352145451121e-05</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.361410273403862e-08</v>
+        <v>4.414016802911647e-05</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2.239875840359673e-08</v>
+        <v>0.0001634937798371539</v>
       </c>
       <c r="DK4" t="n">
-        <v>2.992103453891559e-09</v>
+        <v>6.181229400681332e-05</v>
       </c>
       <c r="DL4" t="n">
-        <v>1.846722419429625e-08</v>
+        <v>3.616264075390063e-05</v>
       </c>
       <c r="DM4" t="n">
-        <v>8.206163748525341e-09</v>
+        <v>0.0001409475516993552</v>
       </c>
       <c r="DN4" t="n">
-        <v>7.481593122804497e-10</v>
+        <v>2.17803826672025e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>2.081760364092133e-08</v>
+        <v>1.350498951069312e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.264712334858586e-09</v>
+        <v>2.118437623721547e-05</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1.674565819342888e-09</v>
+        <v>2.352312367293052e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>7.045235506097924e-09</v>
+        <v>3.431368895689957e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>2.553558076101581e-08</v>
+        <v>1.3158248293621e-05</v>
       </c>
       <c r="DT4" t="n">
-        <v>2.145206456916071e-09</v>
+        <v>5.172490637050942e-05</v>
       </c>
       <c r="DU4" t="n">
-        <v>6.436637445261795e-09</v>
+        <v>1.473525662731845e-05</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.298166729668537e-08</v>
+        <v>2.485318327671848e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>3.134556614270423e-09</v>
+        <v>2.234165913250763e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>3.47686324175811e-11</v>
+        <v>3.319253301015124e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>5.152995363744139e-09</v>
+        <v>1.594076638866682e-05</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.052011278090959e-08</v>
+        <v>3.988412208855152e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>4.129723230050786e-09</v>
+        <v>1.953401078935713e-05</v>
       </c>
       <c r="EB4" t="n">
-        <v>5.643659761744857e-09</v>
+        <v>8.893726771930233e-06</v>
       </c>
       <c r="EC4" t="n">
-        <v>5.821515491888363e-10</v>
+        <v>2.290338125021663e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>4.326772273799406e-10</v>
+        <v>2.934088479378261e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>6.338071401046363e-09</v>
+        <v>3.874692629324272e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>4.032751466098716e-09</v>
+        <v>1.71335123013705e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>3.272827342470919e-09</v>
+        <v>4.413039641804062e-05</v>
       </c>
       <c r="EH4" t="n">
-        <v>2.944076538113904e-09</v>
+        <v>1.054679796652636e-05</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.015672879134399e-08</v>
+        <v>5.46220107935369e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.034760277462965e-08</v>
+        <v>3.956961154472083e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>1.074126210198756e-08</v>
+        <v>2.036838668573182e-05</v>
       </c>
       <c r="EL4" t="n">
-        <v>1.026233675816002e-08</v>
+        <v>3.768701208173297e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>9.398168465679646e-09</v>
+        <v>1.712098537609563e-06</v>
       </c>
       <c r="EN4" t="n">
-        <v>8.17462364466337e-09</v>
+        <v>6.265314368647523e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>1.584476905236443e-08</v>
+        <v>2.278438296343666e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>2.387374298251643e-09</v>
+        <v>9.031200534082018e-06</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.165787821832964e-08</v>
+        <v>1.07637642940972e-05</v>
       </c>
       <c r="ER4" t="n">
-        <v>1.352383183217398e-08</v>
+        <v>2.272506571898703e-05</v>
       </c>
       <c r="ES4" t="n">
-        <v>5.063448327291553e-09</v>
+        <v>8.468591840937734e-05</v>
       </c>
       <c r="ET4" t="n">
-        <v>1.519290471208024e-08</v>
+        <v>9.761824912857264e-05</v>
       </c>
       <c r="EU4" t="n">
-        <v>6.474516922594376e-09</v>
+        <v>3.987116360804066e-05</v>
       </c>
       <c r="EV4" t="n">
-        <v>3.355167033092243e-09</v>
+        <v>3.009875581483357e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>8.193861589234075e-09</v>
+        <v>6.883895548526198e-05</v>
       </c>
       <c r="EX4" t="n">
-        <v>4.274577580787309e-09</v>
+        <v>1.055741336131177e-06</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.079204636766917e-08</v>
+        <v>5.012193651054986e-05</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2.850477631710646e-09</v>
+        <v>7.794744306011125e-06</v>
       </c>
       <c r="FA4" t="n">
-        <v>5.689675841580311e-09</v>
+        <v>7.195412763394415e-07</v>
       </c>
       <c r="FB4" t="n">
-        <v>5.892047294508984e-09</v>
+        <v>3.712218676810153e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>2.167816592901772e-09</v>
+        <v>4.071461444254965e-05</v>
       </c>
       <c r="FD4" t="n">
-        <v>9.221582941698614e-10</v>
+        <v>2.742684773693327e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>5.218344423241206e-09</v>
+        <v>1.081804475688841e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.239262581442802e-09</v>
+        <v>5.367449921322986e-05</v>
       </c>
       <c r="FG4" t="n">
-        <v>1.167542063029714e-09</v>
+        <v>2.968246189993806e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>5.080273979274352e-09</v>
+        <v>2.343119740544353e-05</v>
       </c>
       <c r="FI4" t="n">
-        <v>1.966990126334167e-08</v>
+        <v>2.407890315225814e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>8.755287606021511e-10</v>
+        <v>6.735137139912695e-05</v>
       </c>
       <c r="FK4" t="n">
-        <v>4.091257999050413e-09</v>
+        <v>2.420019154669717e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>1.884020717213275e-09</v>
+        <v>6.273262260947376e-05</v>
       </c>
       <c r="FM4" t="n">
-        <v>7.953520619885524e-10</v>
+        <v>1.473131123930216e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.685850570254388e-09</v>
+        <v>2.611989839351736e-05</v>
       </c>
       <c r="FO4" t="n">
-        <v>2.904869234043872e-09</v>
+        <v>3.579492477001622e-05</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.107554936652377e-09</v>
+        <v>1.782404069672339e-05</v>
       </c>
       <c r="FQ4" t="n">
-        <v>8.472161638906073e-09</v>
+        <v>7.02094694133848e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>9.272810075344751e-09</v>
+        <v>3.369572004885413e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>1.321788367647514e-08</v>
+        <v>2.411187961115502e-05</v>
       </c>
       <c r="FT4" t="n">
-        <v>3.750276200698011e-10</v>
+        <v>5.679839887307025e-05</v>
       </c>
       <c r="FU4" t="n">
-        <v>7.498869969424504e-09</v>
+        <v>0.0001056386536220089</v>
       </c>
       <c r="FV4" t="n">
-        <v>3.777364643298142e-09</v>
+        <v>2.075474185403436e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>7.659468614917841e-09</v>
+        <v>3.315735375508666e-05</v>
       </c>
       <c r="FX4" t="n">
-        <v>3.236943157958194e-09</v>
+        <v>3.552248381311074e-05</v>
       </c>
       <c r="FY4" t="n">
-        <v>6.6012697530482e-09</v>
+        <v>5.399086148827337e-05</v>
       </c>
       <c r="FZ4" t="n">
-        <v>8.977455223657671e-09</v>
+        <v>2.85000915027922e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>6.175737699010142e-09</v>
+        <v>1.313822281190369e-06</v>
       </c>
       <c r="GB4" t="n">
-        <v>7.79971465192375e-09</v>
+        <v>4.056000761920586e-05</v>
       </c>
       <c r="GC4" t="n">
-        <v>6.093590521061287e-09</v>
+        <v>7.514865137636662e-05</v>
       </c>
       <c r="GD4" t="n">
-        <v>5.474415587514159e-09</v>
+        <v>3.902548087353352e-06</v>
       </c>
       <c r="GE4" t="n">
-        <v>1.932318749453543e-09</v>
+        <v>1.850879561970942e-05</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.484724565514739e-09</v>
+        <v>2.17070228245575e-05</v>
       </c>
       <c r="GG4" t="n">
-        <v>8.149257268996735e-09</v>
+        <v>3.383791045052931e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.216321265928855e-09</v>
+        <v>0.0009007810149341822</v>
       </c>
       <c r="B5" t="n">
-        <v>1.029433316368511e-09</v>
+        <v>0.01470008585602045</v>
       </c>
       <c r="C5" t="n">
-        <v>6.123700435622936e-10</v>
+        <v>0.002069704467430711</v>
       </c>
       <c r="D5" t="n">
-        <v>3.200354870003252e-09</v>
+        <v>0.008650004863739014</v>
       </c>
       <c r="E5" t="n">
-        <v>3.947819404714892e-09</v>
+        <v>0.009849358350038528</v>
       </c>
       <c r="F5" t="n">
-        <v>4.994837876637348e-12</v>
+        <v>0.00311117572709918</v>
       </c>
       <c r="G5" t="n">
-        <v>3.479483090540469e-10</v>
+        <v>0.001983196008950472</v>
       </c>
       <c r="H5" t="n">
-        <v>8.104231175032339e-10</v>
+        <v>0.001446641981601715</v>
       </c>
       <c r="I5" t="n">
-        <v>7.727738449148092e-10</v>
+        <v>0.0006927022477611899</v>
       </c>
       <c r="J5" t="n">
-        <v>4.450704249592263e-10</v>
+        <v>8.027395233511925e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.355491995371551e-10</v>
+        <v>0.01125502586364746</v>
       </c>
       <c r="L5" t="n">
-        <v>6.252493522929115e-10</v>
+        <v>0.001124465954490006</v>
       </c>
       <c r="M5" t="n">
-        <v>4.024923505596689e-09</v>
+        <v>0.008549354039132595</v>
       </c>
       <c r="N5" t="n">
-        <v>4.301055067656989e-09</v>
+        <v>0.01353269349783659</v>
       </c>
       <c r="O5" t="n">
-        <v>3.569818052273632e-11</v>
+        <v>0.004274997860193253</v>
       </c>
       <c r="P5" t="n">
-        <v>5.780611544992098e-10</v>
+        <v>0.0002195632550865412</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.692931847103068e-10</v>
+        <v>0.0005382809322327375</v>
       </c>
       <c r="R5" t="n">
-        <v>1.74970171684663e-09</v>
+        <v>0.0016158806392923</v>
       </c>
       <c r="S5" t="n">
-        <v>3.626095534947638e-10</v>
+        <v>0.0004880429769400507</v>
       </c>
       <c r="T5" t="n">
-        <v>1.420727979706271e-10</v>
+        <v>0.002981214551255107</v>
       </c>
       <c r="U5" t="n">
-        <v>5.553196791296955e-11</v>
+        <v>0.001981705892831087</v>
       </c>
       <c r="V5" t="n">
-        <v>8.142518326259562e-10</v>
+        <v>0.0006533947307616472</v>
       </c>
       <c r="W5" t="n">
-        <v>1.621137224461222e-09</v>
+        <v>0.001395495957694948</v>
       </c>
       <c r="X5" t="n">
-        <v>4.729107105916341e-10</v>
+        <v>0.002820124616846442</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.071422062182137e-09</v>
+        <v>0.002141237491741776</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.189746575875233e-10</v>
+        <v>0.001983990892767906</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.570121668936224e-10</v>
+        <v>0.0003809787740465254</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.821697875354801e-10</v>
+        <v>0.002978332806378603</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.414236476346645e-10</v>
+        <v>0.001569935237057507</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.363024799924347e-10</v>
+        <v>0.001869030063971877</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.576410557646568e-09</v>
+        <v>0.001553225214593112</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.479714129004606e-09</v>
+        <v>0.003333067055791616</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.22725604520835e-10</v>
+        <v>0.0008228570222854614</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.809339675977299e-10</v>
+        <v>5.469191819429398e-06</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.54789678139278e-10</v>
+        <v>0.0005325538222678006</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.716674438855819e-10</v>
+        <v>0.002425298793241382</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.298391087509401e-10</v>
+        <v>0.0004544680123217404</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.90220506013361e-10</v>
+        <v>0.0006263306131586432</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.189222054165384e-10</v>
+        <v>0.0005383002571761608</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.36809518847781e-11</v>
+        <v>0.0004946771077811718</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.802858193959537e-10</v>
+        <v>0.004708372987806797</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.660712566411206e-10</v>
+        <v>0.00308259017765522</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.038309715983843e-11</v>
+        <v>0.0001760607701726258</v>
       </c>
       <c r="AR5" t="n">
-        <v>3.578999319131526e-10</v>
+        <v>0.0001686079776845872</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.177171386565703e-10</v>
+        <v>0.0002440353273414075</v>
       </c>
       <c r="AT5" t="n">
-        <v>9.140871393142902e-10</v>
+        <v>0.0008214347180910408</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.207306699058108e-09</v>
+        <v>0.01037997286766768</v>
       </c>
       <c r="AV5" t="n">
-        <v>5.633525868020683e-10</v>
+        <v>0.0003060526796616614</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.144959960175385e-10</v>
+        <v>0.001317886053584516</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.127394926887405e-09</v>
+        <v>0.001973162870854139</v>
       </c>
       <c r="AY5" t="n">
-        <v>9.614078422259809e-10</v>
+        <v>0.001395543455146253</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4.653980534286006e-10</v>
+        <v>0.0009384443983435631</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.52295798194757e-09</v>
+        <v>0.001086775097064674</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.199117583006171e-09</v>
+        <v>0.004567433148622513</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.523095122246687e-10</v>
+        <v>0.001745308749377728</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.738748199921815e-11</v>
+        <v>0.005232703872025013</v>
       </c>
       <c r="BE5" t="n">
-        <v>5.563510763195723e-11</v>
+        <v>0.003936220426112413</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.823953293429327e-09</v>
+        <v>0.003013695357367396</v>
       </c>
       <c r="BG5" t="n">
-        <v>6.611345360063581e-10</v>
+        <v>0.00865531899034977</v>
       </c>
       <c r="BH5" t="n">
-        <v>5.129566771344685e-10</v>
+        <v>0.006345944944769144</v>
       </c>
       <c r="BI5" t="n">
-        <v>8.998597700315969e-11</v>
+        <v>0.002976445015519857</v>
       </c>
       <c r="BJ5" t="n">
-        <v>5.607984077116157e-10</v>
+        <v>0.0006967965746298432</v>
       </c>
       <c r="BK5" t="n">
-        <v>3.03455094385896e-10</v>
+        <v>0.002762299263849854</v>
       </c>
       <c r="BL5" t="n">
-        <v>3.238281864881287e-10</v>
+        <v>0.002352879149839282</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.240166191962544e-09</v>
+        <v>0.004606841132044792</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.3995272435684e-10</v>
+        <v>0.002251408295705914</v>
       </c>
       <c r="BO5" t="n">
-        <v>6.64232224778516e-10</v>
+        <v>0.001639579189941287</v>
       </c>
       <c r="BP5" t="n">
-        <v>8.90245099860465e-10</v>
+        <v>0.005511459894478321</v>
       </c>
       <c r="BQ5" t="n">
-        <v>4.355543703482567e-10</v>
+        <v>0.003820175770670176</v>
       </c>
       <c r="BR5" t="n">
-        <v>2.878013799501034e-11</v>
+        <v>0.0009224466630257666</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.082198664015266e-09</v>
+        <v>0.002013663295656443</v>
       </c>
       <c r="BT5" t="n">
-        <v>3.172453411082188e-10</v>
+        <v>0.001804908271878958</v>
       </c>
       <c r="BU5" t="n">
-        <v>6.313102263177939e-10</v>
+        <v>0.000802439171820879</v>
       </c>
       <c r="BV5" t="n">
-        <v>9.146054746889121e-11</v>
+        <v>0.004181783646345139</v>
       </c>
       <c r="BW5" t="n">
-        <v>4.842552470130101e-10</v>
+        <v>0.00165310618467629</v>
       </c>
       <c r="BX5" t="n">
-        <v>6.841590627360006e-10</v>
+        <v>0.0008479709504172206</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.057911536150868e-09</v>
+        <v>0.001391685334965587</v>
       </c>
       <c r="BZ5" t="n">
-        <v>3.458334452144385e-10</v>
+        <v>0.002644429448992014</v>
       </c>
       <c r="CA5" t="n">
-        <v>2.846108904108746e-10</v>
+        <v>0.0004020835040137172</v>
       </c>
       <c r="CB5" t="n">
-        <v>3.774186241312094e-10</v>
+        <v>0.001269559375941753</v>
       </c>
       <c r="CC5" t="n">
-        <v>5.582737605536181e-10</v>
+        <v>0.001696776365861297</v>
       </c>
       <c r="CD5" t="n">
-        <v>4.513489582080865e-11</v>
+        <v>0.0001715835533104837</v>
       </c>
       <c r="CE5" t="n">
-        <v>2.622681238850788e-10</v>
+        <v>0.00248416792601347</v>
       </c>
       <c r="CF5" t="n">
-        <v>3.22713383793527e-12</v>
+        <v>0.000361586338840425</v>
       </c>
       <c r="CG5" t="n">
-        <v>5.378251177745597e-10</v>
+        <v>0.0009162100614048541</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.081627232224491e-09</v>
+        <v>0.0006764373974874616</v>
       </c>
       <c r="CI5" t="n">
-        <v>3.253102995315338e-11</v>
+        <v>0.0005304520018398762</v>
       </c>
       <c r="CJ5" t="n">
-        <v>2.918938146745376e-10</v>
+        <v>0.0006207788246683776</v>
       </c>
       <c r="CK5" t="n">
-        <v>2.616237504415864e-10</v>
+        <v>0.0002913218340836465</v>
       </c>
       <c r="CL5" t="n">
-        <v>4.547167919977113e-10</v>
+        <v>0.001518339151516557</v>
       </c>
       <c r="CM5" t="n">
-        <v>1.596911075596452e-10</v>
+        <v>0.003446074202656746</v>
       </c>
       <c r="CN5" t="n">
-        <v>2.81034140403591e-10</v>
+        <v>0.002978118136525154</v>
       </c>
       <c r="CO5" t="n">
-        <v>6.450368572608056e-10</v>
+        <v>0.0003153849102091044</v>
       </c>
       <c r="CP5" t="n">
-        <v>9.620816365796259e-10</v>
+        <v>0.002932007191702724</v>
       </c>
       <c r="CQ5" t="n">
-        <v>5.399403146810755e-11</v>
+        <v>0.003893605200573802</v>
       </c>
       <c r="CR5" t="n">
-        <v>1.235537006039067e-09</v>
+        <v>0.0003688517026603222</v>
       </c>
       <c r="CS5" t="n">
-        <v>2.748754557302391e-10</v>
+        <v>0.0001709436764940619</v>
       </c>
       <c r="CT5" t="n">
-        <v>6.443649502863025e-10</v>
+        <v>0.002985089784488082</v>
       </c>
       <c r="CU5" t="n">
-        <v>4.851539656125503e-11</v>
+        <v>0.001094103790819645</v>
       </c>
       <c r="CV5" t="n">
-        <v>3.204198018025295e-11</v>
+        <v>1.332930696662515e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>5.476234465895402e-10</v>
+        <v>0.001729618757963181</v>
       </c>
       <c r="CX5" t="n">
-        <v>1.112765643518365e-10</v>
+        <v>0.00102032907307148</v>
       </c>
       <c r="CY5" t="n">
-        <v>4.179472601339995e-10</v>
+        <v>0.001032370375469327</v>
       </c>
       <c r="CZ5" t="n">
-        <v>8.305116594442552e-10</v>
+        <v>0.000637228018604219</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.578532166091051e-10</v>
+        <v>0.0001161027539637871</v>
       </c>
       <c r="DB5" t="n">
-        <v>1.319950815314996e-10</v>
+        <v>0.0003715311468113214</v>
       </c>
       <c r="DC5" t="n">
-        <v>5.643836786806133e-11</v>
+        <v>0.0004002772620879114</v>
       </c>
       <c r="DD5" t="n">
-        <v>2.965931111820197e-10</v>
+        <v>0.000723477394785732</v>
       </c>
       <c r="DE5" t="n">
-        <v>8.132803874794092e-10</v>
+        <v>0.002463998040184379</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.376636582506308e-09</v>
+        <v>0.003657924709841609</v>
       </c>
       <c r="DG5" t="n">
-        <v>2.150904454545355e-11</v>
+        <v>0.00365153537131846</v>
       </c>
       <c r="DH5" t="n">
-        <v>7.105859234357581e-10</v>
+        <v>0.00611812062561512</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.132613863807919e-10</v>
+        <v>0.002229071455076337</v>
       </c>
       <c r="DJ5" t="n">
-        <v>5.669803515573335e-11</v>
+        <v>0.001599354087375104</v>
       </c>
       <c r="DK5" t="n">
-        <v>3.960802796854068e-10</v>
+        <v>0.0001223614235641435</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.228802171127086e-09</v>
+        <v>0.002167371334508061</v>
       </c>
       <c r="DM5" t="n">
-        <v>8.655695604709024e-11</v>
+        <v>0.0005149170756340027</v>
       </c>
       <c r="DN5" t="n">
-        <v>7.307116717258921e-12</v>
+        <v>0.000913401716388762</v>
       </c>
       <c r="DO5" t="n">
-        <v>5.619299470183137e-11</v>
+        <v>0.001358648063614964</v>
       </c>
       <c r="DP5" t="n">
-        <v>1.948333161472249e-10</v>
+        <v>0.001379560213536024</v>
       </c>
       <c r="DQ5" t="n">
-        <v>8.018713471003025e-10</v>
+        <v>0.0003223490784876049</v>
       </c>
       <c r="DR5" t="n">
-        <v>5.335638042502922e-10</v>
+        <v>0.0008622559253126383</v>
       </c>
       <c r="DS5" t="n">
-        <v>7.38693883839403e-10</v>
+        <v>0.0002375000040046871</v>
       </c>
       <c r="DT5" t="n">
-        <v>2.93993440703133e-10</v>
+        <v>0.001766669447533786</v>
       </c>
       <c r="DU5" t="n">
-        <v>4.055283331361181e-10</v>
+        <v>0.0009056612616404891</v>
       </c>
       <c r="DV5" t="n">
-        <v>3.420234651052567e-10</v>
+        <v>0.002765995915979147</v>
       </c>
       <c r="DW5" t="n">
-        <v>1.350100864438986e-10</v>
+        <v>0.0008421476231887937</v>
       </c>
       <c r="DX5" t="n">
-        <v>7.531354428991222e-10</v>
+        <v>0.001750281313434243</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.71470296295162e-10</v>
+        <v>0.0008198491996154189</v>
       </c>
       <c r="DZ5" t="n">
-        <v>4.2757358764689e-10</v>
+        <v>0.0008081539417617023</v>
       </c>
       <c r="EA5" t="n">
-        <v>3.081745136856995e-10</v>
+        <v>0.001292648143135011</v>
       </c>
       <c r="EB5" t="n">
-        <v>3.645912183269928e-10</v>
+        <v>0.003848082851618528</v>
       </c>
       <c r="EC5" t="n">
-        <v>2.430370626971268e-10</v>
+        <v>0.0008952261996455491</v>
       </c>
       <c r="ED5" t="n">
-        <v>2.620225147964561e-10</v>
+        <v>0.001004228834062815</v>
       </c>
       <c r="EE5" t="n">
-        <v>5.060604713058581e-10</v>
+        <v>0.0006303080590441823</v>
       </c>
       <c r="EF5" t="n">
-        <v>8.626255265653526e-11</v>
+        <v>0.0005673182313330472</v>
       </c>
       <c r="EG5" t="n">
-        <v>1.352174067159595e-10</v>
+        <v>0.001859434531070292</v>
       </c>
       <c r="EH5" t="n">
-        <v>4.324364755170507e-10</v>
+        <v>0.000207370292628184</v>
       </c>
       <c r="EI5" t="n">
-        <v>7.327533024792388e-10</v>
+        <v>0.00203683041036129</v>
       </c>
       <c r="EJ5" t="n">
-        <v>5.371242339791138e-10</v>
+        <v>0.003047154750674963</v>
       </c>
       <c r="EK5" t="n">
-        <v>4.072296388990537e-10</v>
+        <v>0.0003053740656469017</v>
       </c>
       <c r="EL5" t="n">
-        <v>3.146311544632852e-10</v>
+        <v>0.001948703546077013</v>
       </c>
       <c r="EM5" t="n">
-        <v>3.793421132769481e-10</v>
+        <v>0.0003858442651107907</v>
       </c>
       <c r="EN5" t="n">
-        <v>1.490254586400397e-10</v>
+        <v>0.00104134320281446</v>
       </c>
       <c r="EO5" t="n">
-        <v>1.022924522864344e-10</v>
+        <v>0.001349687343463302</v>
       </c>
       <c r="EP5" t="n">
-        <v>5.338891551076586e-10</v>
+        <v>0.002053637988865376</v>
       </c>
       <c r="EQ5" t="n">
-        <v>7.758411690872435e-10</v>
+        <v>0.0004723909078165889</v>
       </c>
       <c r="ER5" t="n">
-        <v>3.344893251266967e-10</v>
+        <v>0.0001690963108558208</v>
       </c>
       <c r="ES5" t="n">
-        <v>9.047158577857317e-10</v>
+        <v>0.001099471235647798</v>
       </c>
       <c r="ET5" t="n">
-        <v>3.35909106086163e-10</v>
+        <v>0.001403457019478083</v>
       </c>
       <c r="EU5" t="n">
-        <v>2.420220135412876e-10</v>
+        <v>0.0005950310733169317</v>
       </c>
       <c r="EV5" t="n">
-        <v>3.352316479965367e-10</v>
+        <v>0.001500114100053906</v>
       </c>
       <c r="EW5" t="n">
-        <v>2.333918613928176e-10</v>
+        <v>0.001325045945122838</v>
       </c>
       <c r="EX5" t="n">
-        <v>4.413644449918763e-11</v>
+        <v>0.0007635201909579337</v>
       </c>
       <c r="EY5" t="n">
-        <v>4.497923422608352e-10</v>
+        <v>0.002118631731718779</v>
       </c>
       <c r="EZ5" t="n">
-        <v>1.447000297361001e-10</v>
+        <v>8.812844316707924e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>2.945008958921136e-10</v>
+        <v>0.001078611705452204</v>
       </c>
       <c r="FB5" t="n">
-        <v>1.069366151185136e-09</v>
+        <v>0.001517763826996088</v>
       </c>
       <c r="FC5" t="n">
-        <v>8.763040293402469e-11</v>
+        <v>0.00106108165346086</v>
       </c>
       <c r="FD5" t="n">
-        <v>1.750985884063638e-10</v>
+        <v>0.0001929823192767799</v>
       </c>
       <c r="FE5" t="n">
-        <v>1.208067257341128e-10</v>
+        <v>0.0003446317568887025</v>
       </c>
       <c r="FF5" t="n">
-        <v>2.933508991276312e-10</v>
+        <v>0.0004733547102659941</v>
       </c>
       <c r="FG5" t="n">
-        <v>3.21333515351796e-11</v>
+        <v>0.000704795413184911</v>
       </c>
       <c r="FH5" t="n">
-        <v>1.193681264943791e-10</v>
+        <v>0.002034848323091865</v>
       </c>
       <c r="FI5" t="n">
-        <v>7.416452452169153e-10</v>
+        <v>0.001144673093222082</v>
       </c>
       <c r="FJ5" t="n">
-        <v>2.161603951389424e-10</v>
+        <v>0.002063495339825749</v>
       </c>
       <c r="FK5" t="n">
-        <v>6.767032489918279e-10</v>
+        <v>0.001523434184491634</v>
       </c>
       <c r="FL5" t="n">
-        <v>1.064915045034809e-09</v>
+        <v>0.002523576142266393</v>
       </c>
       <c r="FM5" t="n">
-        <v>1.242958513891779e-11</v>
+        <v>0.000820942223072052</v>
       </c>
       <c r="FN5" t="n">
-        <v>2.473656002255353e-10</v>
+        <v>0.0007007318781688809</v>
       </c>
       <c r="FO5" t="n">
-        <v>7.852310468514645e-10</v>
+        <v>0.0001551180030219257</v>
       </c>
       <c r="FP5" t="n">
-        <v>7.949991776001752e-10</v>
+        <v>0.001483755884692073</v>
       </c>
       <c r="FQ5" t="n">
-        <v>1.560052975690951e-09</v>
+        <v>0.0002119400160154328</v>
       </c>
       <c r="FR5" t="n">
-        <v>1.51317319785349e-10</v>
+        <v>0.00104222958907485</v>
       </c>
       <c r="FS5" t="n">
-        <v>9.214674578927884e-10</v>
+        <v>0.001335764187388122</v>
       </c>
       <c r="FT5" t="n">
-        <v>1.862557108545104e-09</v>
+        <v>0.004274301696568727</v>
       </c>
       <c r="FU5" t="n">
-        <v>4.505915363051116e-10</v>
+        <v>0.001979234395548701</v>
       </c>
       <c r="FV5" t="n">
-        <v>4.656721674933806e-10</v>
+        <v>0.0002081764978356659</v>
       </c>
       <c r="FW5" t="n">
-        <v>4.696224520372994e-10</v>
+        <v>0.002946480643004179</v>
       </c>
       <c r="FX5" t="n">
-        <v>8.505166571026734e-10</v>
+        <v>9.610271081328392e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>2.195704174035029e-10</v>
+        <v>0.002069700043648481</v>
       </c>
       <c r="FZ5" t="n">
-        <v>4.443476697701954e-10</v>
+        <v>0.001482149236835539</v>
       </c>
       <c r="GA5" t="n">
-        <v>3.363458955796261e-10</v>
+        <v>0.001964528812095523</v>
       </c>
       <c r="GB5" t="n">
-        <v>8.351583313803701e-10</v>
+        <v>0.001004108693450689</v>
       </c>
       <c r="GC5" t="n">
-        <v>1.155442852507349e-09</v>
+        <v>0.003177136415615678</v>
       </c>
       <c r="GD5" t="n">
-        <v>4.914793572119436e-11</v>
+        <v>0.002272561891004443</v>
       </c>
       <c r="GE5" t="n">
-        <v>5.734943631097167e-10</v>
+        <v>0.0004042161162942648</v>
       </c>
       <c r="GF5" t="n">
-        <v>4.55271459420814e-10</v>
+        <v>0.002636933699250221</v>
       </c>
       <c r="GG5" t="n">
-        <v>4.761846472689513e-10</v>
+        <v>0.002345209009945393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.684499504402311e-15</v>
+        <v>0.0005293999565765262</v>
       </c>
       <c r="B6" t="n">
-        <v>1.102247531800399e-14</v>
+        <v>0.000398086936911568</v>
       </c>
       <c r="C6" t="n">
-        <v>6.817218468067095e-15</v>
+        <v>0.0001731958182062954</v>
       </c>
       <c r="D6" t="n">
-        <v>4.546579787461334e-15</v>
+        <v>0.0004634725337382406</v>
       </c>
       <c r="E6" t="n">
-        <v>2.062958738026626e-14</v>
+        <v>0.001605380792170763</v>
       </c>
       <c r="F6" t="n">
-        <v>3.938133151558994e-15</v>
+        <v>0.001245042076334357</v>
       </c>
       <c r="G6" t="n">
-        <v>1.181717179351335e-14</v>
+        <v>0.0006591996643692255</v>
       </c>
       <c r="H6" t="n">
-        <v>1.080667292238375e-15</v>
+        <v>0.0004074975149706006</v>
       </c>
       <c r="I6" t="n">
-        <v>5.56331070350035e-15</v>
+        <v>0.00129890046082437</v>
       </c>
       <c r="J6" t="n">
-        <v>4.086840796877801e-16</v>
+        <v>0.0007029160624369979</v>
       </c>
       <c r="K6" t="n">
-        <v>1.475909848437824e-14</v>
+        <v>0.0007418290479108691</v>
       </c>
       <c r="L6" t="n">
-        <v>9.083295029218945e-15</v>
+        <v>0.0001016066380543634</v>
       </c>
       <c r="M6" t="n">
-        <v>9.557665666933349e-17</v>
+        <v>0.0001834926515584812</v>
       </c>
       <c r="N6" t="n">
-        <v>6.78961281728313e-15</v>
+        <v>0.001767693087458611</v>
       </c>
       <c r="O6" t="n">
-        <v>9.482078140786269e-15</v>
+        <v>0.000965864397585392</v>
       </c>
       <c r="P6" t="n">
-        <v>5.115139641877469e-15</v>
+        <v>0.0001914761960506439</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.144168378206141e-14</v>
+        <v>4.179219831712544e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.595157518444537e-14</v>
+        <v>0.000356469361577183</v>
       </c>
       <c r="S6" t="n">
-        <v>1.613604752541257e-15</v>
+        <v>0.0003240795049350709</v>
       </c>
       <c r="T6" t="n">
-        <v>2.280900061245273e-15</v>
+        <v>0.0003888136416207999</v>
       </c>
       <c r="U6" t="n">
-        <v>7.57387045875052e-15</v>
+        <v>0.000124496640637517</v>
       </c>
       <c r="V6" t="n">
-        <v>9.191514499658996e-17</v>
+        <v>5.160628279554658e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>9.96301751900663e-15</v>
+        <v>0.0006179744959808886</v>
       </c>
       <c r="X6" t="n">
-        <v>9.082769233516937e-16</v>
+        <v>0.0004434675793163478</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.230970345878298e-15</v>
+        <v>0.0003125718503724784</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.707622043319658e-15</v>
+        <v>0.0001055962347891182</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.086784892703282e-15</v>
+        <v>0.0005863952683284879</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.222156530035668e-15</v>
+        <v>4.377670848043635e-07</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.496640411702128e-15</v>
+        <v>0.0007372626569122076</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.093970813472914e-16</v>
+        <v>0.0005034292116761208</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.65750192102285e-15</v>
+        <v>0.0003445998299866915</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.596086541142731e-15</v>
+        <v>0.001464566215872765</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.65383521764581e-15</v>
+        <v>0.001276039867661893</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.20517968219705e-15</v>
+        <v>0.0009715516353026032</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.623725123960014e-15</v>
+        <v>0.0004812878032680601</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.076726697719487e-15</v>
+        <v>0.0008103792788460851</v>
       </c>
       <c r="AK6" t="n">
-        <v>5.853610493864554e-15</v>
+        <v>0.0002111538924509659</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.345906875331726e-15</v>
+        <v>0.0003692401805892587</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.32367003337732e-15</v>
+        <v>9.454902465222403e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.128269739192767e-14</v>
+        <v>0.0008157185511663556</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.890381143389435e-15</v>
+        <v>0.0005343618104234338</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.106945868662205e-15</v>
+        <v>0.0001632998755667359</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.331125405620815e-15</v>
+        <v>0.0005918409442529082</v>
       </c>
       <c r="AR6" t="n">
-        <v>8.724768640777539e-16</v>
+        <v>0.0004339795559644699</v>
       </c>
       <c r="AS6" t="n">
-        <v>6.711093392468249e-16</v>
+        <v>0.0001862973149400204</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.092098298323104e-14</v>
+        <v>0.0002289886469952762</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.889826558860563e-14</v>
+        <v>0.000298178696539253</v>
       </c>
       <c r="AV6" t="n">
-        <v>9.220665138538753e-15</v>
+        <v>0.00032394117442891</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.720771149269634e-14</v>
+        <v>0.0004494090680964291</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.916998172414025e-14</v>
+        <v>0.001145584508776665</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.006146985253189e-14</v>
+        <v>0.0006595330778509378</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8.501478050387096e-16</v>
+        <v>0.001694071106612682</v>
       </c>
       <c r="BA6" t="n">
-        <v>3.148146390994614e-15</v>
+        <v>0.0007440962363034487</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.631981453596788e-15</v>
+        <v>0.000514619518071413</v>
       </c>
       <c r="BC6" t="n">
-        <v>8.081040753281452e-15</v>
+        <v>0.0007036030292510986</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.659143047358155e-15</v>
+        <v>0.0006429825443774462</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.515936665646034e-15</v>
+        <v>1.36501039378345e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>3.736186944406413e-15</v>
+        <v>4.531687591224909e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>3.102401953161671e-15</v>
+        <v>0.001525216037407517</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.242366940660405e-14</v>
+        <v>0.00118052086327225</v>
       </c>
       <c r="BI6" t="n">
-        <v>3.87988311929279e-15</v>
+        <v>0.0004618936509359628</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.270348674072951e-14</v>
+        <v>0.0004906263784505427</v>
       </c>
       <c r="BK6" t="n">
-        <v>4.693975802261318e-15</v>
+        <v>0.0008074201177805662</v>
       </c>
       <c r="BL6" t="n">
-        <v>6.261558078404696e-15</v>
+        <v>0.0001324747281614691</v>
       </c>
       <c r="BM6" t="n">
-        <v>4.222502864259471e-15</v>
+        <v>0.0006270219455473125</v>
       </c>
       <c r="BN6" t="n">
-        <v>5.430489161107298e-15</v>
+        <v>0.0003901207237504423</v>
       </c>
       <c r="BO6" t="n">
-        <v>8.471805850970068e-15</v>
+        <v>0.000847859017085284</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.854680281966961e-15</v>
+        <v>0.0001217899844050407</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.148208961926098e-16</v>
+        <v>0.0003139699692837894</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.824320613061611e-15</v>
+        <v>0.0008199093863368034</v>
       </c>
       <c r="BS6" t="n">
-        <v>7.029613250140532e-15</v>
+        <v>6.686939013889059e-05</v>
       </c>
       <c r="BT6" t="n">
-        <v>2.291251439135431e-15</v>
+        <v>0.0005851269816048443</v>
       </c>
       <c r="BU6" t="n">
-        <v>7.934992791417024e-15</v>
+        <v>0.0001427643001079559</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.448245074754141e-15</v>
+        <v>0.0001001892378553748</v>
       </c>
       <c r="BW6" t="n">
-        <v>4.997410956055067e-15</v>
+        <v>0.0003410639183130115</v>
       </c>
       <c r="BX6" t="n">
-        <v>9.438122213021455e-15</v>
+        <v>0.0003175312594976276</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.434592597710296e-14</v>
+        <v>0.0006483718752861023</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.031017058430702e-14</v>
+        <v>2.308400871697813e-05</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.311200437844316e-15</v>
+        <v>0.0004055015160702169</v>
       </c>
       <c r="CB6" t="n">
-        <v>2.666620865974753e-15</v>
+        <v>0.0003747314331121743</v>
       </c>
       <c r="CC6" t="n">
-        <v>2.721557728867772e-15</v>
+        <v>0.0003742468834389001</v>
       </c>
       <c r="CD6" t="n">
-        <v>3.819881422891663e-15</v>
+        <v>4.300691580283456e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.66367234428536e-15</v>
+        <v>0.00011648017243715</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.45242327652471e-15</v>
+        <v>0.0001812341943150386</v>
       </c>
       <c r="CG6" t="n">
-        <v>3.591567927124003e-16</v>
+        <v>0.0002993194793816656</v>
       </c>
       <c r="CH6" t="n">
-        <v>4.486562844467157e-15</v>
+        <v>3.665780241135508e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>3.192281360348654e-16</v>
+        <v>3.72734029951971e-05</v>
       </c>
       <c r="CJ6" t="n">
-        <v>2.191431359158591e-15</v>
+        <v>0.0002113741356879473</v>
       </c>
       <c r="CK6" t="n">
-        <v>3.280657866389412e-17</v>
+        <v>0.0001548451837152243</v>
       </c>
       <c r="CL6" t="n">
-        <v>8.406454717990557e-16</v>
+        <v>0.0003192401200067252</v>
       </c>
       <c r="CM6" t="n">
-        <v>4.947914162265789e-15</v>
+        <v>7.410580292344093e-05</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.053640546122211e-14</v>
+        <v>0.0003671599843073636</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.149219998000271e-14</v>
+        <v>0.0002032947959378362</v>
       </c>
       <c r="CP6" t="n">
-        <v>5.849218204516567e-15</v>
+        <v>0.0007228553877212107</v>
       </c>
       <c r="CQ6" t="n">
-        <v>8.195510479839293e-15</v>
+        <v>0.0007921906653791666</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.854956097070411e-16</v>
+        <v>5.698059248970821e-05</v>
       </c>
       <c r="CS6" t="n">
-        <v>8.011800892041097e-15</v>
+        <v>0.0003876141854561865</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.604040861182161e-14</v>
+        <v>0.0002820142544806004</v>
       </c>
       <c r="CU6" t="n">
-        <v>3.741359774615295e-15</v>
+        <v>0.001583496225066483</v>
       </c>
       <c r="CV6" t="n">
-        <v>3.275768209882709e-15</v>
+        <v>1.253852678928524e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.765269287627304e-15</v>
+        <v>0.0001671565696597099</v>
       </c>
       <c r="CX6" t="n">
-        <v>2.56171901183086e-15</v>
+        <v>2.792099257931113e-05</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.453211228923893e-15</v>
+        <v>0.0002642968902364373</v>
       </c>
       <c r="CZ6" t="n">
-        <v>3.540904768966355e-15</v>
+        <v>0.0001106971394619904</v>
       </c>
       <c r="DA6" t="n">
-        <v>2.257637360140118e-15</v>
+        <v>0.0001511088339611888</v>
       </c>
       <c r="DB6" t="n">
-        <v>4.275036959378926e-16</v>
+        <v>4.542234819382429e-05</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.767835582071754e-15</v>
+        <v>8.858388173393905e-05</v>
       </c>
       <c r="DD6" t="n">
-        <v>1.85523058868488e-16</v>
+        <v>0.0002692528651095927</v>
       </c>
       <c r="DE6" t="n">
-        <v>6.732969183001394e-15</v>
+        <v>0.0003235990589018911</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.209378564903229e-14</v>
+        <v>0.0008022315450944006</v>
       </c>
       <c r="DG6" t="n">
-        <v>8.576866735549808e-15</v>
+        <v>0.0001572357723489404</v>
       </c>
       <c r="DH6" t="n">
-        <v>2.088489115738171e-15</v>
+        <v>0.0008247144287452102</v>
       </c>
       <c r="DI6" t="n">
-        <v>6.382533865030397e-15</v>
+        <v>1.11766712507233e-05</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.691263803639965e-16</v>
+        <v>0.001653499552048743</v>
       </c>
       <c r="DK6" t="n">
-        <v>8.034309098548485e-15</v>
+        <v>0.0007203507702797651</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.078174791911961e-15</v>
+        <v>0.0002522511640563607</v>
       </c>
       <c r="DM6" t="n">
-        <v>7.196962820078985e-15</v>
+        <v>0.001282910350710154</v>
       </c>
       <c r="DN6" t="n">
-        <v>3.862804817493775e-15</v>
+        <v>0.0002409092849120498</v>
       </c>
       <c r="DO6" t="n">
-        <v>7.838979912779855e-15</v>
+        <v>0.0001486122782807797</v>
       </c>
       <c r="DP6" t="n">
-        <v>7.326496180570796e-15</v>
+        <v>7.303715392481536e-05</v>
       </c>
       <c r="DQ6" t="n">
-        <v>6.083609161680777e-15</v>
+        <v>5.442084511741996e-05</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.367085427066844e-14</v>
+        <v>0.001160636893473566</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.03581143431875e-14</v>
+        <v>0.000654912437312305</v>
       </c>
       <c r="DT6" t="n">
-        <v>4.307494997219915e-16</v>
+        <v>0.001002896227873862</v>
       </c>
       <c r="DU6" t="n">
-        <v>5.458256595184188e-15</v>
+        <v>3.914582703146152e-05</v>
       </c>
       <c r="DV6" t="n">
-        <v>3.906746345698486e-15</v>
+        <v>0.001221415586769581</v>
       </c>
       <c r="DW6" t="n">
-        <v>2.536938639442462e-15</v>
+        <v>0.000315928045893088</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.6128163766256e-15</v>
+        <v>0.0002254386054119095</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.792177720789066e-16</v>
+        <v>0.0001312085369136184</v>
       </c>
       <c r="DZ6" t="n">
-        <v>6.875915310212977e-15</v>
+        <v>0.000648590677883476</v>
       </c>
       <c r="EA6" t="n">
-        <v>2.241115135470976e-15</v>
+        <v>0.000491645245347172</v>
       </c>
       <c r="EB6" t="n">
-        <v>8.396971125354861e-16</v>
+        <v>0.0001777610887074843</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.696429010552322e-15</v>
+        <v>4.85284035676159e-05</v>
       </c>
       <c r="ED6" t="n">
-        <v>8.074710029033674e-15</v>
+        <v>0.000477244146168232</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.652965950083691e-15</v>
+        <v>0.0001507937122369185</v>
       </c>
       <c r="EF6" t="n">
-        <v>6.587146108384461e-15</v>
+        <v>0.0001613052154425532</v>
       </c>
       <c r="EG6" t="n">
-        <v>7.065690500946461e-16</v>
+        <v>0.0002478705137036741</v>
       </c>
       <c r="EH6" t="n">
-        <v>6.04706191346824e-16</v>
+        <v>0.0001094253893825226</v>
       </c>
       <c r="EI6" t="n">
-        <v>9.125416283620007e-16</v>
+        <v>0.001389714423567057</v>
       </c>
       <c r="EJ6" t="n">
-        <v>5.323729975468313e-15</v>
+        <v>0.0002502040879335254</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.570870775681975e-16</v>
+        <v>0.00106725946534425</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.513376088673978e-15</v>
+        <v>0.0007820866303518414</v>
       </c>
       <c r="EM6" t="n">
-        <v>2.948676696421567e-15</v>
+        <v>0.0002402255777269602</v>
       </c>
       <c r="EN6" t="n">
-        <v>3.894482579171665e-15</v>
+        <v>0.0002318871847819537</v>
       </c>
       <c r="EO6" t="n">
-        <v>2.08418872946496e-15</v>
+        <v>0.0003084428899455816</v>
       </c>
       <c r="EP6" t="n">
-        <v>3.949595624917713e-15</v>
+        <v>0.0001787241490092129</v>
       </c>
       <c r="EQ6" t="n">
-        <v>4.882414375004035e-15</v>
+        <v>0.0002049374452326447</v>
       </c>
       <c r="ER6" t="n">
-        <v>3.832559812046166e-15</v>
+        <v>7.543539686594158e-05</v>
       </c>
       <c r="ES6" t="n">
-        <v>2.25581369820468e-15</v>
+        <v>0.0001772303803591058</v>
       </c>
       <c r="ET6" t="n">
-        <v>2.805273171418467e-15</v>
+        <v>0.000578399864025414</v>
       </c>
       <c r="EU6" t="n">
-        <v>4.397915340822837e-15</v>
+        <v>0.0005957223474979401</v>
       </c>
       <c r="EV6" t="n">
-        <v>6.41229817928044e-15</v>
+        <v>7.524570537498221e-05</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.123703977497182e-15</v>
+        <v>0.0003141557681374252</v>
       </c>
       <c r="EX6" t="n">
-        <v>2.514662519962621e-15</v>
+        <v>3.621992073021829e-05</v>
       </c>
       <c r="EY6" t="n">
-        <v>1.628880038832923e-15</v>
+        <v>0.0001247169566340744</v>
       </c>
       <c r="EZ6" t="n">
-        <v>2.545862978574733e-15</v>
+        <v>0.0001808291999623179</v>
       </c>
       <c r="FA6" t="n">
-        <v>1.221956411246892e-15</v>
+        <v>0.0004398262244649231</v>
       </c>
       <c r="FB6" t="n">
-        <v>4.734789237791819e-15</v>
+        <v>0.0001006373131531291</v>
       </c>
       <c r="FC6" t="n">
-        <v>2.33805276232831e-15</v>
+        <v>7.209382602013648e-08</v>
       </c>
       <c r="FD6" t="n">
-        <v>3.228223615278614e-16</v>
+        <v>0.0001784641208359972</v>
       </c>
       <c r="FE6" t="n">
-        <v>6.135224808387612e-16</v>
+        <v>9.292978938901797e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.699858223439281e-15</v>
+        <v>7.535023905802518e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>4.482583060164483e-15</v>
+        <v>6.754083733540028e-05</v>
       </c>
       <c r="FH6" t="n">
-        <v>4.156228888883926e-15</v>
+        <v>0.0002410751767456532</v>
       </c>
       <c r="FI6" t="n">
-        <v>3.910333530230108e-15</v>
+        <v>0.0002782277588266879</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.321888723089244e-15</v>
+        <v>0.0008697997545823455</v>
       </c>
       <c r="FK6" t="n">
-        <v>4.682290559237471e-15</v>
+        <v>0.0004861041088588536</v>
       </c>
       <c r="FL6" t="n">
-        <v>9.839613288921151e-15</v>
+        <v>0.000439841765910387</v>
       </c>
       <c r="FM6" t="n">
-        <v>9.984686739379764e-17</v>
+        <v>0.0003395529929548502</v>
       </c>
       <c r="FN6" t="n">
-        <v>2.022017908740858e-14</v>
+        <v>0.0002449314924888313</v>
       </c>
       <c r="FO6" t="n">
-        <v>5.973611345567965e-15</v>
+        <v>0.0006966203218325973</v>
       </c>
       <c r="FP6" t="n">
-        <v>4.948749760268255e-16</v>
+        <v>0.0005343629163689911</v>
       </c>
       <c r="FQ6" t="n">
-        <v>6.303880926647205e-15</v>
+        <v>0.0002244195202365518</v>
       </c>
       <c r="FR6" t="n">
-        <v>5.667213694041193e-15</v>
+        <v>0.0006024481263011694</v>
       </c>
       <c r="FS6" t="n">
-        <v>3.630389988195509e-15</v>
+        <v>0.0001151774922618642</v>
       </c>
       <c r="FT6" t="n">
-        <v>2.5366168516258e-14</v>
+        <v>0.001005558064207435</v>
       </c>
       <c r="FU6" t="n">
-        <v>8.214522981373363e-15</v>
+        <v>0.001562131219543517</v>
       </c>
       <c r="FV6" t="n">
-        <v>4.440931485532673e-15</v>
+        <v>0.0004155562492087483</v>
       </c>
       <c r="FW6" t="n">
-        <v>9.864856564815224e-15</v>
+        <v>0.0005597424460574985</v>
       </c>
       <c r="FX6" t="n">
-        <v>3.272771407315323e-15</v>
+        <v>0.0002159449795726687</v>
       </c>
       <c r="FY6" t="n">
-        <v>3.387132290139441e-15</v>
+        <v>0.0002838139189407229</v>
       </c>
       <c r="FZ6" t="n">
-        <v>1.071322189489556e-14</v>
+        <v>0.000397080642869696</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.073345962958783e-15</v>
+        <v>0.0004025679081678391</v>
       </c>
       <c r="GB6" t="n">
-        <v>6.880477429666888e-15</v>
+        <v>0.0003910134546458721</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.999449859355746e-15</v>
+        <v>0.0006113670533522964</v>
       </c>
       <c r="GD6" t="n">
-        <v>2.985858054674242e-15</v>
+        <v>0.0003220264334231615</v>
       </c>
       <c r="GE6" t="n">
-        <v>4.561568035462999e-15</v>
+        <v>0.001177636673673987</v>
       </c>
       <c r="GF6" t="n">
-        <v>5.384619362398162e-15</v>
+        <v>0.000742347096092999</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.402624303731498e-15</v>
+        <v>0.001630572718568146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.3103436193378e-08</v>
+        <v>1.060442622602409e-09</v>
       </c>
       <c r="B7" t="n">
-        <v>2.047318758968686e-07</v>
+        <v>1.400553006902783e-09</v>
       </c>
       <c r="C7" t="n">
-        <v>2.160939231998782e-07</v>
+        <v>2.693759215688374e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>1.506402668383089e-06</v>
+        <v>7.660875822601554e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>3.15534038008991e-07</v>
+        <v>3.640997059406459e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>5.710032269234944e-07</v>
+        <v>2.880035099295242e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.943730865150428e-08</v>
+        <v>5.291937554829929e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.669529012815474e-07</v>
+        <v>1.012847361536728e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>1.876898636510305e-08</v>
+        <v>8.013933960882014e-10</v>
       </c>
       <c r="J7" t="n">
-        <v>3.537766986028146e-07</v>
+        <v>4.014468757418399e-10</v>
       </c>
       <c r="K7" t="n">
-        <v>6.273820929436624e-08</v>
+        <v>2.79440026673683e-09</v>
       </c>
       <c r="L7" t="n">
-        <v>2.912176739755523e-07</v>
+        <v>3.251479974153426e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>1.23592644740711e-06</v>
+        <v>2.871891835454221e-09</v>
       </c>
       <c r="N7" t="n">
-        <v>1.060736849467503e-06</v>
+        <v>1.226356260985995e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>3.923109943571035e-07</v>
+        <v>4.052413959954038e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>2.665828162662365e-07</v>
+        <v>1.7724862688695e-09</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.089095000381349e-07</v>
+        <v>3.683790161801426e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>9.853680182914104e-08</v>
+        <v>3.690610039797093e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>9.241986731467478e-08</v>
+        <v>5.87206727686862e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>1.287969837449054e-07</v>
+        <v>9.381434518118681e-10</v>
       </c>
       <c r="U7" t="n">
-        <v>2.473003632985638e-07</v>
+        <v>6.980935829403734e-10</v>
       </c>
       <c r="V7" t="n">
-        <v>6.415842790374882e-08</v>
+        <v>7.76798070312168e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.132297825279238e-06</v>
+        <v>1.846529373850103e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>9.262333122705968e-09</v>
+        <v>4.261303310215681e-09</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.347683350644729e-09</v>
+        <v>2.069101778801041e-09</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.178697459636169e-07</v>
+        <v>1.479607880661149e-09</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.38322841648187e-09</v>
+        <v>3.689587524391413e-10</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.276136055774259e-07</v>
+        <v>3.773881207536078e-10</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.591268699030479e-07</v>
+        <v>4.627012106794837e-10</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.782390993161243e-07</v>
+        <v>2.752112315818067e-09</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.153425372990569e-07</v>
+        <v>5.158518057157835e-09</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.152940226096689e-07</v>
+        <v>2.556083789073682e-09</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.657371283021348e-07</v>
+        <v>1.056277065814015e-09</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.198005688569538e-08</v>
+        <v>1.382343350897486e-09</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.658720117982739e-07</v>
+        <v>2.003295751507039e-09</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.576035550485358e-08</v>
+        <v>2.219298522732061e-09</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.877349570302613e-07</v>
+        <v>1.420633943816085e-09</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.694831439635891e-07</v>
+        <v>3.904950529598494e-10</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.094301762184841e-08</v>
+        <v>5.249691792386102e-10</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.404076202670694e-07</v>
+        <v>1.167435592641652e-09</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.343029320035384e-08</v>
+        <v>3.936373005331006e-09</v>
       </c>
       <c r="AP7" t="n">
-        <v>5.088803050057322e-07</v>
+        <v>1.586435094402816e-09</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8.46966514700398e-08</v>
+        <v>1.008677030789329e-09</v>
       </c>
       <c r="AR7" t="n">
-        <v>5.134313596499851e-08</v>
+        <v>1.52450618795541e-09</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.08560955172743e-08</v>
+        <v>2.514978780787658e-10</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.580555135660688e-07</v>
+        <v>2.29639685045413e-09</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.871717358881142e-08</v>
+        <v>4.29577928784397e-09</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.744775772749563e-07</v>
+        <v>2.609211180448767e-10</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.932903139997507e-07</v>
+        <v>4.140470188929157e-10</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.32946524900035e-07</v>
+        <v>8.526357397897755e-10</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.271744167752331e-07</v>
+        <v>4.382586293871782e-09</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.617043813937016e-08</v>
+        <v>1.28716748371005e-09</v>
       </c>
       <c r="BA7" t="n">
-        <v>2.461628980654496e-07</v>
+        <v>1.088571011109707e-09</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.021471973672305e-08</v>
+        <v>3.274181814560961e-09</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.263771878257103e-07</v>
+        <v>1.056935206023013e-09</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.377241005684482e-07</v>
+        <v>1.488392187276588e-09</v>
       </c>
       <c r="BE7" t="n">
-        <v>3.153738248329319e-08</v>
+        <v>1.790549708502454e-09</v>
       </c>
       <c r="BF7" t="n">
-        <v>7.312631851164042e-07</v>
+        <v>6.834874888284048e-10</v>
       </c>
       <c r="BG7" t="n">
-        <v>2.248957287065423e-07</v>
+        <v>1.991489639863175e-09</v>
       </c>
       <c r="BH7" t="n">
-        <v>3.423146779368835e-07</v>
+        <v>1.12995279799577e-10</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.455711580751085e-07</v>
+        <v>3.497361289461764e-10</v>
       </c>
       <c r="BJ7" t="n">
-        <v>6.88294043982296e-09</v>
+        <v>1.041120523126438e-10</v>
       </c>
       <c r="BK7" t="n">
-        <v>3.542504245501732e-08</v>
+        <v>3.702892881207731e-09</v>
       </c>
       <c r="BL7" t="n">
-        <v>4.140011640174635e-07</v>
+        <v>2.45858305936153e-10</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.860867229197538e-07</v>
+        <v>3.242054624763568e-09</v>
       </c>
       <c r="BN7" t="n">
-        <v>4.403974429578739e-08</v>
+        <v>2.605276272493739e-10</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.835795160332054e-08</v>
+        <v>8.164906528662641e-10</v>
       </c>
       <c r="BP7" t="n">
-        <v>6.310325488811941e-07</v>
+        <v>1.012566652747182e-08</v>
       </c>
       <c r="BQ7" t="n">
-        <v>7.898547949025669e-08</v>
+        <v>1.655935832900468e-09</v>
       </c>
       <c r="BR7" t="n">
-        <v>8.714427224276733e-08</v>
+        <v>3.006680016071073e-09</v>
       </c>
       <c r="BS7" t="n">
-        <v>1.153158422084744e-07</v>
+        <v>4.906684836214481e-09</v>
       </c>
       <c r="BT7" t="n">
-        <v>7.163102822005385e-08</v>
+        <v>2.586472147569907e-10</v>
       </c>
       <c r="BU7" t="n">
-        <v>4.125367354390619e-07</v>
+        <v>1.108033553798293e-09</v>
       </c>
       <c r="BV7" t="n">
-        <v>1.331696175554953e-08</v>
+        <v>2.137630072951424e-09</v>
       </c>
       <c r="BW7" t="n">
-        <v>6.822298814768146e-08</v>
+        <v>7.788114597673257e-10</v>
       </c>
       <c r="BX7" t="n">
-        <v>8.876305059857259e-07</v>
+        <v>1.223349532786244e-09</v>
       </c>
       <c r="BY7" t="n">
-        <v>7.322825723576898e-08</v>
+        <v>1.952678907457539e-09</v>
       </c>
       <c r="BZ7" t="n">
-        <v>5.195601033847197e-07</v>
+        <v>9.270986200959896e-10</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.519180727882485e-07</v>
+        <v>1.973204266647599e-09</v>
       </c>
       <c r="CB7" t="n">
-        <v>9.335485628980678e-08</v>
+        <v>4.699487465842367e-10</v>
       </c>
       <c r="CC7" t="n">
-        <v>3.33897759219326e-07</v>
+        <v>2.165810863985485e-09</v>
       </c>
       <c r="CD7" t="n">
-        <v>2.772966070097027e-07</v>
+        <v>7.423314046794971e-11</v>
       </c>
       <c r="CE7" t="n">
-        <v>7.626689324524705e-08</v>
+        <v>6.205811420301188e-10</v>
       </c>
       <c r="CF7" t="n">
-        <v>2.408197730119355e-08</v>
+        <v>3.957008609667412e-10</v>
       </c>
       <c r="CG7" t="n">
-        <v>3.814459148543392e-07</v>
+        <v>2.861330061776357e-10</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.561137565886384e-07</v>
+        <v>4.647640605703884e-10</v>
       </c>
       <c r="CI7" t="n">
-        <v>8.478665591837853e-08</v>
+        <v>3.506422097121487e-10</v>
       </c>
       <c r="CJ7" t="n">
-        <v>3.631646094959251e-08</v>
+        <v>1.211537870027257e-09</v>
       </c>
       <c r="CK7" t="n">
-        <v>4.12627443324709e-09</v>
+        <v>7.393596845872707e-10</v>
       </c>
       <c r="CL7" t="n">
-        <v>1.003957947887102e-07</v>
+        <v>7.9075329617595e-10</v>
       </c>
       <c r="CM7" t="n">
-        <v>2.202344262514089e-08</v>
+        <v>2.583455671612001e-09</v>
       </c>
       <c r="CN7" t="n">
-        <v>3.285502430117049e-07</v>
+        <v>3.77017439490146e-09</v>
       </c>
       <c r="CO7" t="n">
-        <v>7.068287999345557e-08</v>
+        <v>6.662002616231177e-10</v>
       </c>
       <c r="CP7" t="n">
-        <v>7.459427138201136e-07</v>
+        <v>8.490956826534557e-10</v>
       </c>
       <c r="CQ7" t="n">
-        <v>2.080419960748259e-07</v>
+        <v>6.764079074628171e-09</v>
       </c>
       <c r="CR7" t="n">
-        <v>7.36931610845204e-07</v>
+        <v>1.593100096286548e-10</v>
       </c>
       <c r="CS7" t="n">
-        <v>8.732633460795114e-08</v>
+        <v>1.947476846453355e-09</v>
       </c>
       <c r="CT7" t="n">
-        <v>6.378066785828196e-08</v>
+        <v>2.816525235260769e-09</v>
       </c>
       <c r="CU7" t="n">
-        <v>4.714374313152803e-08</v>
+        <v>1.6254688706141e-09</v>
       </c>
       <c r="CV7" t="n">
-        <v>2.564507042279729e-07</v>
+        <v>2.294886225495674e-10</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.614847633391037e-07</v>
+        <v>5.266163616290953e-10</v>
       </c>
       <c r="CX7" t="n">
-        <v>2.120444264619437e-09</v>
+        <v>3.742949006291241e-10</v>
       </c>
       <c r="CY7" t="n">
-        <v>3.391401151020546e-07</v>
+        <v>2.295021395148922e-10</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.37182766479782e-07</v>
+        <v>6.22308982123343e-10</v>
       </c>
       <c r="DA7" t="n">
-        <v>6.311999811714486e-08</v>
+        <v>1.312526476393572e-10</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.84175794007524e-09</v>
+        <v>1.380550007645809e-09</v>
       </c>
       <c r="DC7" t="n">
-        <v>5.901677369024583e-09</v>
+        <v>6.974442134932701e-10</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.202205908157339e-07</v>
+        <v>1.558363993403589e-10</v>
       </c>
       <c r="DE7" t="n">
-        <v>5.376246008381713e-07</v>
+        <v>4.385741991796976e-09</v>
       </c>
       <c r="DF7" t="n">
-        <v>3.838003976852633e-07</v>
+        <v>4.311946355528562e-09</v>
       </c>
       <c r="DG7" t="n">
-        <v>3.1374125342154e-07</v>
+        <v>1.327650211990772e-09</v>
       </c>
       <c r="DH7" t="n">
-        <v>4.250867391419888e-07</v>
+        <v>4.180723767177597e-09</v>
       </c>
       <c r="DI7" t="n">
-        <v>7.338745717788697e-07</v>
+        <v>6.496661875132759e-09</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2.287291209768227e-07</v>
+        <v>3.289108541082442e-09</v>
       </c>
       <c r="DK7" t="n">
-        <v>8.791067074298553e-08</v>
+        <v>5.159268567922481e-09</v>
       </c>
       <c r="DL7" t="n">
-        <v>3.776840173941309e-07</v>
+        <v>4.536806930133253e-09</v>
       </c>
       <c r="DM7" t="n">
-        <v>5.619354226382711e-08</v>
+        <v>1.265645033221574e-09</v>
       </c>
       <c r="DN7" t="n">
-        <v>2.775973229063311e-08</v>
+        <v>1.053327203237586e-09</v>
       </c>
       <c r="DO7" t="n">
-        <v>1.03147506536061e-07</v>
+        <v>6.196104740396891e-11</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.294443023880376e-07</v>
+        <v>1.469854793434422e-09</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.4365838296726e-07</v>
+        <v>1.339156341373382e-09</v>
       </c>
       <c r="DR7" t="n">
-        <v>2.551962552388432e-07</v>
+        <v>2.104506569011733e-09</v>
       </c>
       <c r="DS7" t="n">
-        <v>2.000783041467002e-07</v>
+        <v>3.388561098383036e-10</v>
       </c>
       <c r="DT7" t="n">
-        <v>9.601033923445357e-08</v>
+        <v>3.3603453353237e-09</v>
       </c>
       <c r="DU7" t="n">
-        <v>2.929688776021067e-07</v>
+        <v>2.123103692852624e-09</v>
       </c>
       <c r="DV7" t="n">
-        <v>1.937701910037504e-07</v>
+        <v>3.854205565811952e-10</v>
       </c>
       <c r="DW7" t="n">
-        <v>3.828263928085107e-08</v>
+        <v>3.409978965862592e-10</v>
       </c>
       <c r="DX7" t="n">
-        <v>2.618684789013059e-07</v>
+        <v>1.688034600988431e-09</v>
       </c>
       <c r="DY7" t="n">
-        <v>5.717200224353292e-08</v>
+        <v>2.378003904901504e-10</v>
       </c>
       <c r="DZ7" t="n">
-        <v>3.636418739461078e-07</v>
+        <v>2.034725277155758e-09</v>
       </c>
       <c r="EA7" t="n">
-        <v>8.009174479184367e-08</v>
+        <v>1.003327865234382e-09</v>
       </c>
       <c r="EB7" t="n">
-        <v>2.217533818793527e-07</v>
+        <v>1.22619869813434e-09</v>
       </c>
       <c r="EC7" t="n">
-        <v>1.985271325111171e-08</v>
+        <v>1.354634182604286e-09</v>
       </c>
       <c r="ED7" t="n">
-        <v>1.536124756285062e-07</v>
+        <v>3.392681247049723e-09</v>
       </c>
       <c r="EE7" t="n">
-        <v>2.361367279490878e-07</v>
+        <v>1.142361316652796e-09</v>
       </c>
       <c r="EF7" t="n">
-        <v>2.830968810485501e-07</v>
+        <v>8.831658182550939e-10</v>
       </c>
       <c r="EG7" t="n">
-        <v>2.745313167906716e-07</v>
+        <v>2.540974319842348e-09</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.127273918655192e-08</v>
+        <v>9.554682600665387e-10</v>
       </c>
       <c r="EI7" t="n">
-        <v>1.689205078037048e-07</v>
+        <v>2.697566836573628e-09</v>
       </c>
       <c r="EJ7" t="n">
-        <v>2.360158504188803e-07</v>
+        <v>5.208695696978793e-10</v>
       </c>
       <c r="EK7" t="n">
-        <v>2.199088413590289e-07</v>
+        <v>8.112034932672429e-10</v>
       </c>
       <c r="EL7" t="n">
-        <v>1.911936564624739e-08</v>
+        <v>3.072651577618046e-10</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.887894190450879e-08</v>
+        <v>2.437149648759629e-10</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.463145622437878e-07</v>
+        <v>6.21960927205123e-10</v>
       </c>
       <c r="EO7" t="n">
-        <v>5.137940775057359e-07</v>
+        <v>7.903261378672255e-10</v>
       </c>
       <c r="EP7" t="n">
-        <v>3.50371038848607e-08</v>
+        <v>1.282200456920179e-09</v>
       </c>
       <c r="EQ7" t="n">
-        <v>1.198041275074502e-07</v>
+        <v>3.484618704696629e-10</v>
       </c>
       <c r="ER7" t="n">
-        <v>1.028744449627084e-07</v>
+        <v>2.496888029668298e-09</v>
       </c>
       <c r="ES7" t="n">
-        <v>1.610827951026295e-07</v>
+        <v>1.454850684368125e-09</v>
       </c>
       <c r="ET7" t="n">
-        <v>5.190358365325665e-08</v>
+        <v>4.237885042890355e-10</v>
       </c>
       <c r="EU7" t="n">
-        <v>4.157365296464377e-08</v>
+        <v>3.25131560563463e-10</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.173957500100187e-07</v>
+        <v>1.000171501175373e-09</v>
       </c>
       <c r="EW7" t="n">
-        <v>9.087344210456649e-08</v>
+        <v>1.505370605947576e-09</v>
       </c>
       <c r="EX7" t="n">
-        <v>2.223681150326229e-07</v>
+        <v>1.182175191072332e-10</v>
       </c>
       <c r="EY7" t="n">
-        <v>9.787336807676184e-08</v>
+        <v>3.638931378446841e-10</v>
       </c>
       <c r="EZ7" t="n">
-        <v>2.866492820885469e-09</v>
+        <v>7.265591461802501e-10</v>
       </c>
       <c r="FA7" t="n">
-        <v>2.455676053614297e-07</v>
+        <v>8.463779677114758e-11</v>
       </c>
       <c r="FB7" t="n">
-        <v>2.119845703418832e-07</v>
+        <v>6.381731809668167e-10</v>
       </c>
       <c r="FC7" t="n">
-        <v>1.001075844442312e-07</v>
+        <v>8.675186680129343e-10</v>
       </c>
       <c r="FD7" t="n">
-        <v>3.159475880920581e-08</v>
+        <v>1.462833743026692e-09</v>
       </c>
       <c r="FE7" t="n">
-        <v>2.864124049040129e-08</v>
+        <v>1.193428800227991e-09</v>
       </c>
       <c r="FF7" t="n">
-        <v>3.340632659387666e-08</v>
+        <v>2.233663809469988e-10</v>
       </c>
       <c r="FG7" t="n">
-        <v>1.216096467970829e-08</v>
+        <v>1.216870937348347e-09</v>
       </c>
       <c r="FH7" t="n">
-        <v>8.300239784375663e-08</v>
+        <v>9.704447245795222e-10</v>
       </c>
       <c r="FI7" t="n">
-        <v>1.441846961824922e-07</v>
+        <v>8.873503043460573e-10</v>
       </c>
       <c r="FJ7" t="n">
-        <v>2.716709843753051e-07</v>
+        <v>1.555378714712674e-09</v>
       </c>
       <c r="FK7" t="n">
-        <v>3.295062640518154e-07</v>
+        <v>1.294145457464424e-09</v>
       </c>
       <c r="FL7" t="n">
-        <v>1.138943090950306e-07</v>
+        <v>7.234182142212831e-10</v>
       </c>
       <c r="FM7" t="n">
-        <v>1.254710824127869e-08</v>
+        <v>5.580293449547469e-10</v>
       </c>
       <c r="FN7" t="n">
-        <v>1.36777842385527e-08</v>
+        <v>1.334217625270639e-09</v>
       </c>
       <c r="FO7" t="n">
-        <v>4.217984610477288e-07</v>
+        <v>1.721050857383943e-09</v>
       </c>
       <c r="FP7" t="n">
-        <v>1.258300414974656e-07</v>
+        <v>3.129879133645375e-10</v>
       </c>
       <c r="FQ7" t="n">
-        <v>7.435641435904472e-08</v>
+        <v>3.283668448261778e-09</v>
       </c>
       <c r="FR7" t="n">
-        <v>1.813269818740082e-07</v>
+        <v>8.585734345700757e-10</v>
       </c>
       <c r="FS7" t="n">
-        <v>1.426061544407276e-07</v>
+        <v>7.840799121083819e-10</v>
       </c>
       <c r="FT7" t="n">
-        <v>7.106848443072522e-08</v>
+        <v>7.376140254145014e-10</v>
       </c>
       <c r="FU7" t="n">
-        <v>2.780795114176726e-07</v>
+        <v>3.85464682395309e-09</v>
       </c>
       <c r="FV7" t="n">
-        <v>8.007629048734088e-08</v>
+        <v>8.238868476340144e-10</v>
       </c>
       <c r="FW7" t="n">
-        <v>2.105782783701216e-07</v>
+        <v>8.201481715985892e-10</v>
       </c>
       <c r="FX7" t="n">
-        <v>1.890362142376034e-07</v>
+        <v>1.268576355073492e-09</v>
       </c>
       <c r="FY7" t="n">
-        <v>2.859102323782281e-07</v>
+        <v>3.879468413181542e-10</v>
       </c>
       <c r="FZ7" t="n">
-        <v>5.209884790247088e-08</v>
+        <v>1.982811026479681e-09</v>
       </c>
       <c r="GA7" t="n">
-        <v>6.898804372212908e-08</v>
+        <v>1.911365732354398e-09</v>
       </c>
       <c r="GB7" t="n">
-        <v>5.514009444596013e-07</v>
+        <v>9.705687364913729e-10</v>
       </c>
       <c r="GC7" t="n">
-        <v>3.037268925254466e-07</v>
+        <v>5.122643642607727e-09</v>
       </c>
       <c r="GD7" t="n">
-        <v>2.313301337153462e-07</v>
+        <v>2.660160980383353e-09</v>
       </c>
       <c r="GE7" t="n">
-        <v>4.303382894477181e-08</v>
+        <v>1.823797446398601e-09</v>
       </c>
       <c r="GF7" t="n">
-        <v>1.787535808261964e-07</v>
+        <v>2.2360042706282e-09</v>
       </c>
       <c r="GG7" t="n">
-        <v>3.12380336708884e-07</v>
+        <v>9.748399865117108e-10</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3985 +4987,3985 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.01342231775925e-09</v>
+        <v>0.001291609834879637</v>
       </c>
       <c r="B9" t="n">
-        <v>3.497337752733642e-09</v>
+        <v>0.02222754433751106</v>
       </c>
       <c r="C9" t="n">
-        <v>1.137487881663901e-09</v>
+        <v>0.001958622597157955</v>
       </c>
       <c r="D9" t="n">
-        <v>5.002005920573538e-09</v>
+        <v>0.01335079874843359</v>
       </c>
       <c r="E9" t="n">
-        <v>3.993488206788243e-09</v>
+        <v>0.008039191365242004</v>
       </c>
       <c r="F9" t="n">
-        <v>9.470511042053431e-10</v>
+        <v>0.002572095720097423</v>
       </c>
       <c r="G9" t="n">
-        <v>1.495491397385251e-09</v>
+        <v>0.002720803255215287</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3264324628135e-09</v>
+        <v>0.002710671396926045</v>
       </c>
       <c r="I9" t="n">
-        <v>5.871853003824867e-10</v>
+        <v>0.001185135450214148</v>
       </c>
       <c r="J9" t="n">
-        <v>6.968214893987579e-10</v>
+        <v>5.658692680299282e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.947072947316997e-09</v>
+        <v>0.01770141161978245</v>
       </c>
       <c r="L9" t="n">
-        <v>2.535348597731968e-10</v>
+        <v>0.002542002126574516</v>
       </c>
       <c r="M9" t="n">
-        <v>5.533986158212656e-09</v>
+        <v>0.01187936961650848</v>
       </c>
       <c r="N9" t="n">
-        <v>4.524520758053541e-09</v>
+        <v>0.01015020348131657</v>
       </c>
       <c r="O9" t="n">
-        <v>5.555552129443697e-10</v>
+        <v>0.002124871825799346</v>
       </c>
       <c r="P9" t="n">
-        <v>8.643253890383562e-10</v>
+        <v>0.001653512008488178</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.216215655437281e-09</v>
+        <v>0.0003403935406822711</v>
       </c>
       <c r="R9" t="n">
-        <v>8.742386259363855e-10</v>
+        <v>0.002109882421791553</v>
       </c>
       <c r="S9" t="n">
-        <v>7.414382996451252e-10</v>
+        <v>0.001386018935590982</v>
       </c>
       <c r="T9" t="n">
-        <v>1.265220567203684e-10</v>
+        <v>0.004847269970923662</v>
       </c>
       <c r="U9" t="n">
-        <v>3.727459729763183e-10</v>
+        <v>0.001815781812183559</v>
       </c>
       <c r="V9" t="n">
-        <v>1.03099906390014e-09</v>
+        <v>0.0009668317507021129</v>
       </c>
       <c r="W9" t="n">
-        <v>3.434492024112501e-09</v>
+        <v>0.002340723294764757</v>
       </c>
       <c r="X9" t="n">
-        <v>1.831965412701919e-10</v>
+        <v>0.003064674325287342</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.029513585493191e-09</v>
+        <v>0.003092522267252207</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.948661008225997e-10</v>
+        <v>0.001595029258169234</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.277796646270701e-09</v>
+        <v>0.0007170773460529745</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.172930641502035e-09</v>
+        <v>0.001614120323210955</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.766060796550619e-10</v>
+        <v>0.00464560417458415</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.050267317559417e-09</v>
+        <v>4.59391376352869e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.64846580830158e-09</v>
+        <v>0.001020978670567274</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.466935237841142e-11</v>
+        <v>0.001690839766524732</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.444812557573123e-12</v>
+        <v>0.0001959262881428003</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.162218654648939e-09</v>
+        <v>1.899432390928268e-06</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.712043450398994e-10</v>
+        <v>0.0001172457996290177</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.977257826003893e-10</v>
+        <v>0.0009110345272347331</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.70822944678406e-09</v>
+        <v>0.001600477029569447</v>
       </c>
       <c r="AL9" t="n">
-        <v>6.980713229687296e-11</v>
+        <v>0.001149432850070298</v>
       </c>
       <c r="AM9" t="n">
-        <v>7.269601587367447e-10</v>
+        <v>3.996381929027848e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.829208061745248e-10</v>
+        <v>0.0001472714066039771</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.336253774297802e-09</v>
+        <v>0.005273333750665188</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.669464677611643e-09</v>
+        <v>0.004258884117007256</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.448356127895181e-10</v>
+        <v>0.0009510594536550343</v>
       </c>
       <c r="AR9" t="n">
-        <v>6.734149904374931e-10</v>
+        <v>0.0006530788377858698</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.267962124185118e-10</v>
+        <v>0.0007323192548938096</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.362138706857309e-09</v>
+        <v>0.001613088417798281</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.167327872726332e-09</v>
+        <v>0.01568963751196861</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.887863865235317e-09</v>
+        <v>0.0014376116450876</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.535261029417256e-09</v>
+        <v>0.004330016206949949</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.394568682755448e-09</v>
+        <v>0.001674445578828454</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.869668198040131e-09</v>
+        <v>0.003600752679631114</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.012575800984905e-09</v>
+        <v>0.002063748193904757</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.068255066158599e-09</v>
+        <v>0.002777087036520243</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.917220382452456e-09</v>
+        <v>0.001836850424297154</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.445199681095801e-10</v>
+        <v>0.00268371868878603</v>
       </c>
       <c r="BD9" t="n">
-        <v>8.148152708109535e-10</v>
+        <v>0.004985250998288393</v>
       </c>
       <c r="BE9" t="n">
-        <v>9.590994665131802e-10</v>
+        <v>0.003775322809815407</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.182319214227846e-09</v>
+        <v>0.002140195807442069</v>
       </c>
       <c r="BG9" t="n">
-        <v>8.243274951524882e-10</v>
+        <v>0.005762489512562752</v>
       </c>
       <c r="BH9" t="n">
-        <v>9.889896679382559e-10</v>
+        <v>0.003870573360472918</v>
       </c>
       <c r="BI9" t="n">
-        <v>7.299352233758327e-10</v>
+        <v>0.003762937150895596</v>
       </c>
       <c r="BJ9" t="n">
-        <v>5.301666883283929e-10</v>
+        <v>0.0001686578034423292</v>
       </c>
       <c r="BK9" t="n">
-        <v>1.120403436694062e-09</v>
+        <v>0.002303913701325655</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.450771863753531e-10</v>
+        <v>0.001811211812309921</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.436545216115803e-09</v>
+        <v>0.007372317835688591</v>
       </c>
       <c r="BN9" t="n">
-        <v>5.487247323188171e-10</v>
+        <v>0.003716952633112669</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.508304814379358e-09</v>
+        <v>0.002305514644831419</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.364558022132201e-09</v>
+        <v>0.004615163430571556</v>
       </c>
       <c r="BQ9" t="n">
-        <v>7.879033536717372e-10</v>
+        <v>0.00294358073733747</v>
       </c>
       <c r="BR9" t="n">
-        <v>5.768907018754987e-10</v>
+        <v>0.0009068868821486831</v>
       </c>
       <c r="BS9" t="n">
-        <v>6.722177814388886e-10</v>
+        <v>0.000279638625215739</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.089749068761137e-09</v>
+        <v>0.0008665589848533273</v>
       </c>
       <c r="BU9" t="n">
-        <v>1.888867284804974e-09</v>
+        <v>0.001831729314289987</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.32729938151499e-12</v>
+        <v>0.00877719558775425</v>
       </c>
       <c r="BW9" t="n">
-        <v>4.732806924145905e-10</v>
+        <v>0.003995736129581928</v>
       </c>
       <c r="BX9" t="n">
-        <v>2.144403099535452e-09</v>
+        <v>0.002958848141133785</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.873780242078738e-09</v>
+        <v>8.155885734595358e-05</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.516877068397093e-09</v>
+        <v>0.002742526819929481</v>
       </c>
       <c r="CA9" t="n">
-        <v>1.134247362699625e-09</v>
+        <v>0.000286890339339152</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.011249861626595e-09</v>
+        <v>0.002842925488948822</v>
       </c>
       <c r="CC9" t="n">
-        <v>8.973271015122464e-10</v>
+        <v>0.0002042460255324841</v>
       </c>
       <c r="CD9" t="n">
-        <v>5.954874926494824e-10</v>
+        <v>2.613781543914229e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>7.922075773159065e-10</v>
+        <v>0.003780789440497756</v>
       </c>
       <c r="CF9" t="n">
-        <v>3.085937061442223e-10</v>
+        <v>0.00100606691557914</v>
       </c>
       <c r="CG9" t="n">
-        <v>1.229216617382178e-09</v>
+        <v>0.001132886973209679</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.097366641999997e-09</v>
+        <v>0.0001170010946225375</v>
       </c>
       <c r="CI9" t="n">
-        <v>2.826968659164208e-10</v>
+        <v>3.529898094711825e-05</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.85811560582394e-10</v>
+        <v>0.0006613582372665405</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.255574533232107e-09</v>
+        <v>0.0007158326916396618</v>
       </c>
       <c r="CL9" t="n">
-        <v>2.536038601341772e-10</v>
+        <v>0.0003173639415763319</v>
       </c>
       <c r="CM9" t="n">
-        <v>6.094240667664508e-10</v>
+        <v>0.005523236002773046</v>
       </c>
       <c r="CN9" t="n">
-        <v>3.463760944732996e-10</v>
+        <v>0.003753365948796272</v>
       </c>
       <c r="CO9" t="n">
-        <v>5.189285667839272e-10</v>
+        <v>0.0003555869916453958</v>
       </c>
       <c r="CP9" t="n">
-        <v>1.682536443503579e-09</v>
+        <v>0.004368127323687077</v>
       </c>
       <c r="CQ9" t="n">
-        <v>4.701099509674123e-10</v>
+        <v>0.005399603396654129</v>
       </c>
       <c r="CR9" t="n">
-        <v>2.288600864375212e-09</v>
+        <v>0.00107301480602473</v>
       </c>
       <c r="CS9" t="n">
-        <v>5.561396898556836e-10</v>
+        <v>0.00258774752728641</v>
       </c>
       <c r="CT9" t="n">
-        <v>7.142485491939965e-10</v>
+        <v>0.005458136554807425</v>
       </c>
       <c r="CU9" t="n">
-        <v>8.465600442875143e-10</v>
+        <v>0.0004760399460792542</v>
       </c>
       <c r="CV9" t="n">
-        <v>7.319236883240876e-10</v>
+        <v>8.705561776878312e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>1.040133090768336e-09</v>
+        <v>0.003170597599819303</v>
       </c>
       <c r="CX9" t="n">
-        <v>9.091964681129383e-11</v>
+        <v>0.002133123576641083</v>
       </c>
       <c r="CY9" t="n">
-        <v>1.034493712914752e-09</v>
+        <v>0.001856339629739523</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.13133780121899e-09</v>
+        <v>2.161847805837169e-05</v>
       </c>
       <c r="DA9" t="n">
-        <v>2.729809989165943e-10</v>
+        <v>0.0001733489480102435</v>
       </c>
       <c r="DB9" t="n">
-        <v>3.361965428272384e-10</v>
+        <v>0.0005313582369126379</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.072650968048094e-09</v>
+        <v>0.0008504829020239413</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.311207531440317e-10</v>
+        <v>1.281102595385164e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>1.767465507285237e-09</v>
+        <v>0.001753603923134506</v>
       </c>
       <c r="DF9" t="n">
-        <v>2.476307603416217e-09</v>
+        <v>0.006382538471370935</v>
       </c>
       <c r="DG9" t="n">
-        <v>2.656198594408465e-10</v>
+        <v>0.001582650351338089</v>
       </c>
       <c r="DH9" t="n">
-        <v>2.841704371814302e-10</v>
+        <v>0.005771972239017487</v>
       </c>
       <c r="DI9" t="n">
-        <v>3.960097250121919e-10</v>
+        <v>0.001975973602384329</v>
       </c>
       <c r="DJ9" t="n">
-        <v>1.920861802950924e-10</v>
+        <v>0.000345446722349152</v>
       </c>
       <c r="DK9" t="n">
-        <v>1.395708437712528e-09</v>
+        <v>0.002443328034132719</v>
       </c>
       <c r="DL9" t="n">
-        <v>3.265689496600999e-09</v>
+        <v>0.0004559031222015619</v>
       </c>
       <c r="DM9" t="n">
-        <v>4.412503418205205e-10</v>
+        <v>0.001067456556484103</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.962590923110241e-10</v>
+        <v>5.779857747256756e-05</v>
       </c>
       <c r="DO9" t="n">
-        <v>2.260077680560357e-10</v>
+        <v>0.002236701548099518</v>
       </c>
       <c r="DP9" t="n">
-        <v>2.536005849762546e-10</v>
+        <v>0.002421336248517036</v>
       </c>
       <c r="DQ9" t="n">
-        <v>5.86652726397574e-10</v>
+        <v>0.001105477102100849</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.554170792061882e-09</v>
+        <v>0.0009560909820720553</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.794044690583974e-09</v>
+        <v>6.939220475032926e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>4.844380452340147e-10</v>
+        <v>0.001584430923685431</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.949478134477545e-09</v>
+        <v>0.0001706351176835597</v>
       </c>
       <c r="DV9" t="n">
-        <v>4.607222936492406e-10</v>
+        <v>0.0008011175086721778</v>
       </c>
       <c r="DW9" t="n">
-        <v>7.582406924555585e-12</v>
+        <v>0.0009898177813738585</v>
       </c>
       <c r="DX9" t="n">
-        <v>5.942280001391964e-10</v>
+        <v>0.003371830796822906</v>
       </c>
       <c r="DY9" t="n">
-        <v>2.434925872041305e-10</v>
+        <v>0.0003309403255116194</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.255759385365707e-09</v>
+        <v>0.0004731296794489026</v>
       </c>
       <c r="EA9" t="n">
-        <v>2.564702339391545e-10</v>
+        <v>0.00208283425308764</v>
       </c>
       <c r="EB9" t="n">
-        <v>4.264701924938663e-10</v>
+        <v>0.001796030555851758</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.902095148054173e-11</v>
+        <v>0.001434589619748294</v>
       </c>
       <c r="ED9" t="n">
-        <v>2.902059703657756e-10</v>
+        <v>0.0006018639542162418</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.21125443008907e-09</v>
+        <v>0.0004331461386755109</v>
       </c>
       <c r="EF9" t="n">
-        <v>9.774792086858497e-10</v>
+        <v>7.187185110524297e-05</v>
       </c>
       <c r="EG9" t="n">
-        <v>3.01606295494139e-10</v>
+        <v>0.00129722198471427</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.932430604423274e-10</v>
+        <v>0.001443798188120127</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.365992874369226e-09</v>
+        <v>0.00273737171664834</v>
       </c>
       <c r="EJ9" t="n">
-        <v>4.554857879757179e-11</v>
+        <v>0.002160071628168225</v>
       </c>
       <c r="EK9" t="n">
-        <v>7.762356035723172e-11</v>
+        <v>8.844454714562744e-05</v>
       </c>
       <c r="EL9" t="n">
-        <v>3.911692358915531e-10</v>
+        <v>0.0006825875025242567</v>
       </c>
       <c r="EM9" t="n">
-        <v>4.623670890602227e-10</v>
+        <v>0.0004732718807645142</v>
       </c>
       <c r="EN9" t="n">
-        <v>6.72492728170937e-10</v>
+        <v>6.964392377994955e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>8.404799078931546e-11</v>
+        <v>0.000675581453833729</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.303125163332197e-09</v>
+        <v>0.003017583629116416</v>
       </c>
       <c r="EQ9" t="n">
-        <v>8.932193318322845e-10</v>
+        <v>0.002017868449911475</v>
       </c>
       <c r="ER9" t="n">
-        <v>5.913672884716448e-10</v>
+        <v>0.0006507295183837414</v>
       </c>
       <c r="ES9" t="n">
-        <v>1.100782909269071e-09</v>
+        <v>0.0005029067979194224</v>
       </c>
       <c r="ET9" t="n">
-        <v>4.953570886812031e-10</v>
+        <v>0.0003315011272206903</v>
       </c>
       <c r="EU9" t="n">
-        <v>6.446326805686908e-11</v>
+        <v>0.002018734579905868</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.769629998094047e-09</v>
+        <v>0.0006579480832442641</v>
       </c>
       <c r="EW9" t="n">
-        <v>4.004394871248707e-10</v>
+        <v>0.000961631303653121</v>
       </c>
       <c r="EX9" t="n">
-        <v>6.397886109787976e-10</v>
+        <v>0.0007852036505937576</v>
       </c>
       <c r="EY9" t="n">
-        <v>9.050611926575414e-10</v>
+        <v>0.003312960499897599</v>
       </c>
       <c r="EZ9" t="n">
-        <v>3.125041891927083e-11</v>
+        <v>0.001089439960196614</v>
       </c>
       <c r="FA9" t="n">
-        <v>6.474625280361579e-10</v>
+        <v>0.001599370967596769</v>
       </c>
       <c r="FB9" t="n">
-        <v>1.38233136048882e-09</v>
+        <v>0.0002890478644985706</v>
       </c>
       <c r="FC9" t="n">
-        <v>2.843903064431164e-11</v>
+        <v>0.0008249699603766203</v>
       </c>
       <c r="FD9" t="n">
-        <v>4.124074692857249e-10</v>
+        <v>0.0007291404181160033</v>
       </c>
       <c r="FE9" t="n">
-        <v>8.104291682187181e-10</v>
+        <v>0.0009642126387916505</v>
       </c>
       <c r="FF9" t="n">
-        <v>2.569588986034432e-11</v>
+        <v>0.0005319870542734861</v>
       </c>
       <c r="FG9" t="n">
-        <v>9.422682634152579e-10</v>
+        <v>0.0002429968444630504</v>
       </c>
       <c r="FH9" t="n">
-        <v>3.415787375171675e-10</v>
+        <v>0.002245986834168434</v>
       </c>
       <c r="FI9" t="n">
-        <v>5.411948666989019e-10</v>
+        <v>0.0008603374008089304</v>
       </c>
       <c r="FJ9" t="n">
-        <v>4.324025026924971e-10</v>
+        <v>0.002220087917521596</v>
       </c>
       <c r="FK9" t="n">
-        <v>8.072765234068413e-10</v>
+        <v>0.001092287129722536</v>
       </c>
       <c r="FL9" t="n">
-        <v>5.887337839460827e-10</v>
+        <v>0.001784227788448334</v>
       </c>
       <c r="FM9" t="n">
-        <v>4.056710523059337e-11</v>
+        <v>0.001615257817320526</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.601313164873886e-09</v>
+        <v>1.867092214524746e-05</v>
       </c>
       <c r="FO9" t="n">
-        <v>2.762591821969806e-10</v>
+        <v>4.682139842770994e-05</v>
       </c>
       <c r="FP9" t="n">
-        <v>7.259387535540895e-12</v>
+        <v>0.002250771503895521</v>
       </c>
       <c r="FQ9" t="n">
-        <v>9.71690949924664e-10</v>
+        <v>0.002708060666918755</v>
       </c>
       <c r="FR9" t="n">
-        <v>5.148809156807488e-10</v>
+        <v>0.0003804072039201856</v>
       </c>
       <c r="FS9" t="n">
-        <v>6.776026961752279e-10</v>
+        <v>0.001057911780662835</v>
       </c>
       <c r="FT9" t="n">
-        <v>1.359105716858267e-09</v>
+        <v>0.006131683476269245</v>
       </c>
       <c r="FU9" t="n">
-        <v>5.686026094409158e-10</v>
+        <v>0.002158486982807517</v>
       </c>
       <c r="FV9" t="n">
-        <v>4.349925419866452e-10</v>
+        <v>0.0001403755159117281</v>
       </c>
       <c r="FW9" t="n">
-        <v>1.377477909514369e-09</v>
+        <v>0.000482500356156379</v>
       </c>
       <c r="FX9" t="n">
-        <v>4.758088367751157e-10</v>
+        <v>0.0001145534624811262</v>
       </c>
       <c r="FY9" t="n">
-        <v>6.55503651358913e-10</v>
+        <v>0.003292895620688796</v>
       </c>
       <c r="FZ9" t="n">
-        <v>2.162130252614247e-09</v>
+        <v>0.0007673079962842166</v>
       </c>
       <c r="GA9" t="n">
-        <v>3.71372765872735e-10</v>
+        <v>0.0004213448264636099</v>
       </c>
       <c r="GB9" t="n">
-        <v>2.747954364057392e-10</v>
+        <v>0.0005963124567642808</v>
       </c>
       <c r="GC9" t="n">
-        <v>1.126779558546787e-09</v>
+        <v>5.856025381945074e-06</v>
       </c>
       <c r="GD9" t="n">
-        <v>3.342297549835394e-10</v>
+        <v>0.003371971659362316</v>
       </c>
       <c r="GE9" t="n">
-        <v>7.715443839373393e-10</v>
+        <v>0.003990497905761003</v>
       </c>
       <c r="GF9" t="n">
-        <v>1.498637325347829e-09</v>
+        <v>4.930788418278098e-05</v>
       </c>
       <c r="GG9" t="n">
-        <v>8.349532176765706e-10</v>
+        <v>0.001666521653532982</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.063922283606189e-07</v>
+        <v>0.03696444258093834</v>
       </c>
       <c r="B10" t="n">
-        <v>4.443863872438669e-07</v>
+        <v>0.2427522391080856</v>
       </c>
       <c r="C10" t="n">
-        <v>4.574166609927488e-07</v>
+        <v>0.02614753507077694</v>
       </c>
       <c r="D10" t="n">
-        <v>1.396974880663038e-06</v>
+        <v>0.06696204841136932</v>
       </c>
       <c r="E10" t="n">
-        <v>7.720331041127793e-07</v>
+        <v>0.002411645837128162</v>
       </c>
       <c r="F10" t="n">
-        <v>2.364651692232655e-07</v>
+        <v>0.03530226275324821</v>
       </c>
       <c r="G10" t="n">
-        <v>2.967846057799761e-08</v>
+        <v>0.01926810294389725</v>
       </c>
       <c r="H10" t="n">
-        <v>2.814525146277447e-08</v>
+        <v>0.00881834514439106</v>
       </c>
       <c r="I10" t="n">
-        <v>5.73824877392326e-07</v>
+        <v>0.002905456814914942</v>
       </c>
       <c r="J10" t="n">
-        <v>2.023958245445101e-08</v>
+        <v>0.04063446819782257</v>
       </c>
       <c r="K10" t="n">
-        <v>1.664837725456891e-07</v>
+        <v>0.1513701677322388</v>
       </c>
       <c r="L10" t="n">
-        <v>8.437432938990241e-07</v>
+        <v>0.003651106264442205</v>
       </c>
       <c r="M10" t="n">
-        <v>1.754949039423082e-06</v>
+        <v>0.09838427603244781</v>
       </c>
       <c r="N10" t="n">
-        <v>1.41610917125945e-06</v>
+        <v>0.04488104954361916</v>
       </c>
       <c r="O10" t="n">
-        <v>9.338962172478205e-07</v>
+        <v>0.066056028008461</v>
       </c>
       <c r="P10" t="n">
-        <v>2.969107981698471e-08</v>
+        <v>0.01703839935362339</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.734815999858256e-07</v>
+        <v>0.009131854400038719</v>
       </c>
       <c r="R10" t="n">
-        <v>8.445004482382501e-07</v>
+        <v>0.003745334688574076</v>
       </c>
       <c r="S10" t="n">
-        <v>6.28133875579806e-07</v>
+        <v>0.008463470265269279</v>
       </c>
       <c r="T10" t="n">
-        <v>8.884219937499438e-08</v>
+        <v>0.04042564705014229</v>
       </c>
       <c r="U10" t="n">
-        <v>1.502113065043886e-07</v>
+        <v>0.02250915393233299</v>
       </c>
       <c r="V10" t="n">
-        <v>4.531402169050125e-07</v>
+        <v>0.02401679940521717</v>
       </c>
       <c r="W10" t="n">
-        <v>9.030902106132999e-07</v>
+        <v>0.009522573091089725</v>
       </c>
       <c r="X10" t="n">
-        <v>1.180504867193122e-07</v>
+        <v>0.02739566750824451</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.018566078731965e-07</v>
+        <v>0.002209094818681479</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.903987533249165e-08</v>
+        <v>0.005415454041212797</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.72743250206986e-08</v>
+        <v>0.001494226162321866</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.851611131087338e-07</v>
+        <v>0.03022113814949989</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.490551764822158e-08</v>
+        <v>0.03962083160877228</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.699154038054985e-07</v>
+        <v>0.0164497010409832</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.276072308404764e-07</v>
+        <v>0.006669575814157724</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.460466473370616e-07</v>
+        <v>0.02243340387940407</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.480496944685001e-07</v>
+        <v>0.00339417508803308</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.13599741730286e-07</v>
+        <v>0.01857998967170715</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.274457019917463e-07</v>
+        <v>0.01422618329524994</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.662445067220688e-07</v>
+        <v>0.009932797402143478</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.139545560135957e-07</v>
+        <v>0.02970747835934162</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.268511991587729e-07</v>
+        <v>0.0134074417874217</v>
       </c>
       <c r="AM10" t="n">
-        <v>8.484484226300992e-10</v>
+        <v>0.02082314528524876</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.782644277336658e-07</v>
+        <v>0.02316681481897831</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.242339718350195e-07</v>
+        <v>0.02607635036110878</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.905383666984562e-07</v>
+        <v>0.02256869338452816</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.977939103260724e-08</v>
+        <v>0.006969815120100975</v>
       </c>
       <c r="AR10" t="n">
-        <v>5.316902829122228e-08</v>
+        <v>0.01801283471286297</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.371914149534859e-07</v>
+        <v>0.007057785522192717</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.415433192875071e-08</v>
+        <v>0.007951751351356506</v>
       </c>
       <c r="AU10" t="n">
-        <v>4.088018954462314e-07</v>
+        <v>0.2038003504276276</v>
       </c>
       <c r="AV10" t="n">
-        <v>8.17094516492034e-08</v>
+        <v>0.01672826334834099</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.238560672500171e-07</v>
+        <v>0.007818042300641537</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.77179117599735e-07</v>
+        <v>0.04617021977901459</v>
       </c>
       <c r="AY10" t="n">
-        <v>9.209539086896257e-08</v>
+        <v>0.02921556308865547</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3.677325821627164e-07</v>
+        <v>0.001693299738690257</v>
       </c>
       <c r="BA10" t="n">
-        <v>3.679338078654837e-08</v>
+        <v>0.01173708587884903</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.071733137791853e-07</v>
+        <v>0.009277801029384136</v>
       </c>
       <c r="BC10" t="n">
-        <v>4.680991949612689e-08</v>
+        <v>0.008599399589002132</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.491330235443456e-07</v>
+        <v>0.04832945391535759</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.372614850784885e-07</v>
+        <v>0.03390904143452644</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.045104909280781e-06</v>
+        <v>0.01378682069480419</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.071131464414066e-06</v>
+        <v>0.05578285083174706</v>
       </c>
       <c r="BH10" t="n">
-        <v>3.313655270176241e-07</v>
+        <v>0.0540473610162735</v>
       </c>
       <c r="BI10" t="n">
-        <v>5.744921054429142e-07</v>
+        <v>0.006186834070831537</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.280437740864727e-07</v>
+        <v>0.01178802736103535</v>
       </c>
       <c r="BK10" t="n">
-        <v>4.034879168557381e-07</v>
+        <v>0.0007682396098971367</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.516157155379005e-08</v>
+        <v>0.06219055131077766</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.923019254945757e-07</v>
+        <v>0.06564966589212418</v>
       </c>
       <c r="BN10" t="n">
-        <v>3.680686120333121e-07</v>
+        <v>0.0169014073908329</v>
       </c>
       <c r="BO10" t="n">
-        <v>4.315712089919543e-07</v>
+        <v>0.02423823624849319</v>
       </c>
       <c r="BP10" t="n">
-        <v>5.167177050680039e-07</v>
+        <v>0.04582008346915245</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.991244573673612e-07</v>
+        <v>0.009689235128462315</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.551438941760352e-07</v>
+        <v>0.000237317755818367</v>
       </c>
       <c r="BS10" t="n">
-        <v>4.918386053986978e-08</v>
+        <v>0.01881792210042477</v>
       </c>
       <c r="BT10" t="n">
-        <v>9.02478802800033e-09</v>
+        <v>0.01307220011949539</v>
       </c>
       <c r="BU10" t="n">
-        <v>5.589506812953005e-08</v>
+        <v>0.01341932825744152</v>
       </c>
       <c r="BV10" t="n">
-        <v>2.924458897268778e-07</v>
+        <v>0.09624051302671432</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.413411609973991e-07</v>
+        <v>0.001652801991440356</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.028937845148903e-06</v>
+        <v>0.01296680700033903</v>
       </c>
       <c r="BY10" t="n">
-        <v>3.742221466040974e-08</v>
+        <v>0.02185862511396408</v>
       </c>
       <c r="BZ10" t="n">
-        <v>7.701481763433549e-08</v>
+        <v>0.05922902375459671</v>
       </c>
       <c r="CA10" t="n">
-        <v>1.090926673441572e-07</v>
+        <v>0.01196956634521484</v>
       </c>
       <c r="CB10" t="n">
-        <v>7.804004553690902e-09</v>
+        <v>0.001315477304160595</v>
       </c>
       <c r="CC10" t="n">
-        <v>3.538971782290901e-07</v>
+        <v>0.001241632038727403</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.057881746646672e-07</v>
+        <v>0.01923852413892746</v>
       </c>
       <c r="CE10" t="n">
-        <v>3.16998196581153e-08</v>
+        <v>0.04362479224801064</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.252592483069748e-07</v>
+        <v>0.001744514680467546</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.646207437033809e-07</v>
+        <v>0.002018184401094913</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.228962046046945e-07</v>
+        <v>0.01565412059426308</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.38053238174507e-07</v>
+        <v>0.003040716983377934</v>
       </c>
       <c r="CJ10" t="n">
-        <v>5.00836883077227e-09</v>
+        <v>0.006908662617206573</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.89220834556636e-08</v>
+        <v>0.001706026960164309</v>
       </c>
       <c r="CL10" t="n">
-        <v>2.137412593583576e-07</v>
+        <v>0.001939332578331232</v>
       </c>
       <c r="CM10" t="n">
-        <v>4.52138237960753e-09</v>
+        <v>0.04361451044678688</v>
       </c>
       <c r="CN10" t="n">
-        <v>6.074147336221358e-07</v>
+        <v>0.05547341331839561</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.384967447393137e-07</v>
+        <v>0.02623300068080425</v>
       </c>
       <c r="CP10" t="n">
-        <v>9.703338719191379e-07</v>
+        <v>0.06113112345337868</v>
       </c>
       <c r="CQ10" t="n">
-        <v>6.462641977122985e-07</v>
+        <v>0.03004314005374908</v>
       </c>
       <c r="CR10" t="n">
-        <v>3.610639680573513e-07</v>
+        <v>0.04711710661649704</v>
       </c>
       <c r="CS10" t="n">
-        <v>2.306308033439564e-09</v>
+        <v>0.01511750370264053</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.651598466878568e-07</v>
+        <v>0.01242475770413876</v>
       </c>
       <c r="CU10" t="n">
-        <v>3.328357820464589e-07</v>
+        <v>0.00730087049305439</v>
       </c>
       <c r="CV10" t="n">
-        <v>6.144829711729471e-08</v>
+        <v>0.01987382769584656</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.062685382497875e-07</v>
+        <v>0.03376265615224838</v>
       </c>
       <c r="CX10" t="n">
-        <v>4.352191051992804e-09</v>
+        <v>0.005133287515491247</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.352122893649721e-07</v>
+        <v>0.009700185619294643</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.14872740653027e-07</v>
+        <v>0.01729426719248295</v>
       </c>
       <c r="DA10" t="n">
-        <v>7.691453163261031e-08</v>
+        <v>0.007242777850478888</v>
       </c>
       <c r="DB10" t="n">
-        <v>2.943041366165744e-08</v>
+        <v>0.004417507443577051</v>
       </c>
       <c r="DC10" t="n">
-        <v>7.482053376861586e-08</v>
+        <v>0.001405116287060082</v>
       </c>
       <c r="DD10" t="n">
-        <v>2.101283200772741e-07</v>
+        <v>0.001799629535526037</v>
       </c>
       <c r="DE10" t="n">
-        <v>3.991755761489912e-07</v>
+        <v>0.0039143031463027</v>
       </c>
       <c r="DF10" t="n">
-        <v>7.082420552251278e-07</v>
+        <v>0.02386229299008846</v>
       </c>
       <c r="DG10" t="n">
-        <v>3.902832190760819e-07</v>
+        <v>0.006423390470445156</v>
       </c>
       <c r="DH10" t="n">
-        <v>4.582620647397562e-07</v>
+        <v>0.007935442961752415</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.7104152877655e-07</v>
+        <v>0.004774047993123531</v>
       </c>
       <c r="DJ10" t="n">
-        <v>7.695115300521138e-07</v>
+        <v>0.02223556488752365</v>
       </c>
       <c r="DK10" t="n">
-        <v>3.041322145236336e-07</v>
+        <v>0.01175200752913952</v>
       </c>
       <c r="DL10" t="n">
-        <v>8.119106951198773e-07</v>
+        <v>0.001264994498342276</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.006411736170776e-07</v>
+        <v>0.001359728863462806</v>
       </c>
       <c r="DN10" t="n">
-        <v>6.770922311716276e-08</v>
+        <v>0.04081368073821068</v>
       </c>
       <c r="DO10" t="n">
-        <v>5.031305931879615e-07</v>
+        <v>0.01363515667617321</v>
       </c>
       <c r="DP10" t="n">
-        <v>2.356334505293489e-07</v>
+        <v>0.0235617607831955</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1.928550830143649e-07</v>
+        <v>0.003129258053377271</v>
       </c>
       <c r="DR10" t="n">
-        <v>2.550061424244632e-07</v>
+        <v>0.01551232300698757</v>
       </c>
       <c r="DS10" t="n">
-        <v>2.665156557668524e-07</v>
+        <v>0.02014343813061714</v>
       </c>
       <c r="DT10" t="n">
-        <v>8.326455258611531e-08</v>
+        <v>0.005916137713938951</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.455457550036954e-07</v>
+        <v>0.01195303723216057</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.340827111562248e-07</v>
+        <v>0.008380613289773464</v>
       </c>
       <c r="DW10" t="n">
-        <v>3.217821245016239e-07</v>
+        <v>0.00900446530431509</v>
       </c>
       <c r="DX10" t="n">
-        <v>4.535867219601641e-07</v>
+        <v>0.007768982090055943</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.273595273687533e-07</v>
+        <v>0.02954971417784691</v>
       </c>
       <c r="DZ10" t="n">
-        <v>2.107370846715639e-07</v>
+        <v>0.01532336603850126</v>
       </c>
       <c r="EA10" t="n">
-        <v>4.535567654784245e-07</v>
+        <v>0.0403805747628212</v>
       </c>
       <c r="EB10" t="n">
-        <v>4.093055565590475e-07</v>
+        <v>0.004521227441728115</v>
       </c>
       <c r="EC10" t="n">
-        <v>9.632800868075719e-08</v>
+        <v>0.00151742179878056</v>
       </c>
       <c r="ED10" t="n">
-        <v>8.223891256875504e-08</v>
+        <v>0.009816648438572884</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.991255338396059e-08</v>
+        <v>0.006285716313868761</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.746220235077089e-08</v>
+        <v>0.02315706387162209</v>
       </c>
       <c r="EG10" t="n">
-        <v>8.159819486763809e-08</v>
+        <v>0.03992755338549614</v>
       </c>
       <c r="EH10" t="n">
-        <v>8.91377993639253e-08</v>
+        <v>0.02018500678241253</v>
       </c>
       <c r="EI10" t="n">
-        <v>4.670463624734111e-07</v>
+        <v>0.006514766719192266</v>
       </c>
       <c r="EJ10" t="n">
-        <v>7.791740586071683e-10</v>
+        <v>0.006275380030274391</v>
       </c>
       <c r="EK10" t="n">
-        <v>8.874749823917227e-09</v>
+        <v>0.00565672991797328</v>
       </c>
       <c r="EL10" t="n">
-        <v>3.163187756172192e-08</v>
+        <v>0.0005222244071774185</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.355763146193567e-08</v>
+        <v>0.007382438518106937</v>
       </c>
       <c r="EN10" t="n">
-        <v>1.336074291202749e-07</v>
+        <v>0.001104508759453893</v>
       </c>
       <c r="EO10" t="n">
-        <v>3.560424133297602e-08</v>
+        <v>0.01937737129628658</v>
       </c>
       <c r="EP10" t="n">
-        <v>2.918567929555138e-07</v>
+        <v>0.02504956908524036</v>
       </c>
       <c r="EQ10" t="n">
-        <v>3.546647064922581e-07</v>
+        <v>0.02252486906945705</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.881202393860804e-07</v>
+        <v>0.01761276088654995</v>
       </c>
       <c r="ES10" t="n">
-        <v>2.355059933734083e-07</v>
+        <v>0.01671244017779827</v>
       </c>
       <c r="ET10" t="n">
-        <v>1.460907128603139e-07</v>
+        <v>0.04132980108261108</v>
       </c>
       <c r="EU10" t="n">
-        <v>8.525528016889439e-08</v>
+        <v>0.01154989376664162</v>
       </c>
       <c r="EV10" t="n">
-        <v>1.488406979888168e-07</v>
+        <v>0.01296834461390972</v>
       </c>
       <c r="EW10" t="n">
-        <v>1.743366873085961e-08</v>
+        <v>0.01130260899662971</v>
       </c>
       <c r="EX10" t="n">
-        <v>7.423958692243104e-08</v>
+        <v>0.015044204890728</v>
       </c>
       <c r="EY10" t="n">
-        <v>3.598035647200959e-08</v>
+        <v>0.03736789524555206</v>
       </c>
       <c r="EZ10" t="n">
-        <v>7.945963176325677e-08</v>
+        <v>0.002222268609330058</v>
       </c>
       <c r="FA10" t="n">
-        <v>3.008769056123128e-08</v>
+        <v>0.0004503648960962892</v>
       </c>
       <c r="FB10" t="n">
-        <v>2.109175056830281e-07</v>
+        <v>0.002617383375763893</v>
       </c>
       <c r="FC10" t="n">
-        <v>9.882224105695059e-08</v>
+        <v>0.01052932441234589</v>
       </c>
       <c r="FD10" t="n">
-        <v>6.103805105794891e-08</v>
+        <v>0.005678785964846611</v>
       </c>
       <c r="FE10" t="n">
-        <v>3.557146754928908e-08</v>
+        <v>0.00233086827211082</v>
       </c>
       <c r="FF10" t="n">
-        <v>7.143336233639275e-08</v>
+        <v>0.00174551410600543</v>
       </c>
       <c r="FG10" t="n">
-        <v>3.402209074465645e-07</v>
+        <v>0.01280849426984787</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.655535015743226e-07</v>
+        <v>0.009381609037518501</v>
       </c>
       <c r="FI10" t="n">
-        <v>2.620286920773651e-07</v>
+        <v>0.008876415900886059</v>
       </c>
       <c r="FJ10" t="n">
-        <v>1.319068303473614e-07</v>
+        <v>0.01134894508868456</v>
       </c>
       <c r="FK10" t="n">
-        <v>2.773096809960407e-07</v>
+        <v>0.02189917303621769</v>
       </c>
       <c r="FL10" t="n">
-        <v>2.369598064433376e-07</v>
+        <v>0.005976675543934107</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.611176116966817e-07</v>
+        <v>0.01145787257701159</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.541346108524522e-07</v>
+        <v>0.0006151739507913589</v>
       </c>
       <c r="FO10" t="n">
-        <v>4.287542196834693e-07</v>
+        <v>0.007359303534030914</v>
       </c>
       <c r="FP10" t="n">
-        <v>3.256948843954888e-07</v>
+        <v>0.01295578945428133</v>
       </c>
       <c r="FQ10" t="n">
-        <v>1.067262047627082e-07</v>
+        <v>0.04012582451105118</v>
       </c>
       <c r="FR10" t="n">
-        <v>2.20149644292178e-07</v>
+        <v>0.005019864067435265</v>
       </c>
       <c r="FS10" t="n">
-        <v>3.88959620067908e-07</v>
+        <v>0.05141428858041763</v>
       </c>
       <c r="FT10" t="n">
-        <v>8.123334396259452e-07</v>
+        <v>0.03677699342370033</v>
       </c>
       <c r="FU10" t="n">
-        <v>6.402883627742995e-07</v>
+        <v>0.02067713625729084</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.044193354005074e-07</v>
+        <v>0.01605271548032761</v>
       </c>
       <c r="FW10" t="n">
-        <v>1.056406020438772e-07</v>
+        <v>0.01300233416259289</v>
       </c>
       <c r="FX10" t="n">
-        <v>6.007804813634721e-07</v>
+        <v>0.003006411716341972</v>
       </c>
       <c r="FY10" t="n">
-        <v>1.445961572699161e-07</v>
+        <v>0.02649633400142193</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1.85331757052154e-07</v>
+        <v>0.02968334034085274</v>
       </c>
       <c r="GA10" t="n">
-        <v>2.085792658590435e-07</v>
+        <v>0.005743476562201977</v>
       </c>
       <c r="GB10" t="n">
-        <v>3.864552411414479e-07</v>
+        <v>0.01049993839114904</v>
       </c>
       <c r="GC10" t="n">
-        <v>9.602896398064331e-07</v>
+        <v>0.02013189904391766</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.551445561493892e-07</v>
+        <v>0.01911163702607155</v>
       </c>
       <c r="GE10" t="n">
-        <v>8.621051961199555e-08</v>
+        <v>0.02049378864467144</v>
       </c>
       <c r="GF10" t="n">
-        <v>1.683123826978772e-07</v>
+        <v>0.01362972799688578</v>
       </c>
       <c r="GG10" t="n">
-        <v>1.676990706300785e-07</v>
+        <v>0.0001352491672150791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.985433428248641e-11</v>
+        <v>0.001596813555806875</v>
       </c>
       <c r="B11" t="n">
-        <v>1.979916230965273e-12</v>
+        <v>0.01171424519270658</v>
       </c>
       <c r="C11" t="n">
-        <v>3.05579450632365e-11</v>
+        <v>0.001413624617271125</v>
       </c>
       <c r="D11" t="n">
-        <v>4.00436281355887e-11</v>
+        <v>0.003526831977069378</v>
       </c>
       <c r="E11" t="n">
-        <v>2.116591346634777e-10</v>
+        <v>0.007263709791004658</v>
       </c>
       <c r="F11" t="n">
-        <v>5.964455318530071e-11</v>
+        <v>0.0003590238047763705</v>
       </c>
       <c r="G11" t="n">
-        <v>1.434689259754984e-11</v>
+        <v>0.0008427085122093558</v>
       </c>
       <c r="H11" t="n">
-        <v>4.04685937538396e-11</v>
+        <v>0.003809357294812799</v>
       </c>
       <c r="I11" t="n">
-        <v>2.280375714647231e-11</v>
+        <v>0.001171751180663705</v>
       </c>
       <c r="J11" t="n">
-        <v>3.214843322107974e-11</v>
+        <v>0.001328551443293691</v>
       </c>
       <c r="K11" t="n">
-        <v>2.43042461156584e-11</v>
+        <v>0.009504225105047226</v>
       </c>
       <c r="L11" t="n">
-        <v>4.634886224819112e-11</v>
+        <v>0.0001958364446181804</v>
       </c>
       <c r="M11" t="n">
-        <v>5.704409861140292e-11</v>
+        <v>0.0006223588716238737</v>
       </c>
       <c r="N11" t="n">
-        <v>2.152439892988411e-10</v>
+        <v>0.003624770790338516</v>
       </c>
       <c r="O11" t="n">
-        <v>1.059312013107494e-11</v>
+        <v>0.000176630390342325</v>
       </c>
       <c r="P11" t="n">
-        <v>6.518720979675763e-11</v>
+        <v>1.842866186052561e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.082603191121523e-11</v>
+        <v>0.0008485972066409886</v>
       </c>
       <c r="R11" t="n">
-        <v>6.182825085243593e-12</v>
+        <v>0.002899063751101494</v>
       </c>
       <c r="S11" t="n">
-        <v>6.805268154552735e-13</v>
+        <v>0.0003794171207118779</v>
       </c>
       <c r="T11" t="n">
-        <v>3.031856016244561e-11</v>
+        <v>0.0006147990934550762</v>
       </c>
       <c r="U11" t="n">
-        <v>8.469161136281933e-12</v>
+        <v>0.0004547295393422246</v>
       </c>
       <c r="V11" t="n">
-        <v>5.731411178988566e-11</v>
+        <v>0.001576580805703998</v>
       </c>
       <c r="W11" t="n">
-        <v>9.831539055094041e-11</v>
+        <v>0.006440449040383101</v>
       </c>
       <c r="X11" t="n">
-        <v>1.504288360543171e-11</v>
+        <v>0.001006549573503435</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.440109308527894e-11</v>
+        <v>0.0004034311859868467</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.28160874810235e-11</v>
+        <v>0.003226657165214419</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.806591855280093e-11</v>
+        <v>0.0008637195569463074</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.259595264681341e-12</v>
+        <v>0.000286542228423059</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.712029642000125e-11</v>
+        <v>0.001493032905273139</v>
       </c>
       <c r="AD11" t="n">
-        <v>4.069907258430483e-11</v>
+        <v>5.264265928417444e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>4.171034698186027e-11</v>
+        <v>0.001101010479032993</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.231936849563578e-12</v>
+        <v>0.0004230243503116071</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.128482980146007e-11</v>
+        <v>0.0001207602326758206</v>
       </c>
       <c r="AH11" t="n">
-        <v>3.130976727883095e-11</v>
+        <v>2.396167838014662e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.409780262644048e-12</v>
+        <v>0.0001806276850402355</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.097999295651686e-11</v>
+        <v>0.0009116424480453134</v>
       </c>
       <c r="AK11" t="n">
-        <v>5.197785778177089e-12</v>
+        <v>0.001242373837158084</v>
       </c>
       <c r="AL11" t="n">
-        <v>5.558517882087166e-11</v>
+        <v>0.001666502212174237</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.166541342689786e-11</v>
+        <v>0.0009439195855520666</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.091602470867599e-11</v>
+        <v>0.0008261972106993198</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.316474789765266e-11</v>
+        <v>0.001895251916721463</v>
       </c>
       <c r="AP11" t="n">
-        <v>4.118205429448629e-11</v>
+        <v>0.002309350296854973</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.124318173284511e-11</v>
+        <v>0.0006608681287616491</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.493269909449204e-12</v>
+        <v>8.206057827919722e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.723573367362619e-11</v>
+        <v>0.0005312315770424902</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.599621823888953e-11</v>
+        <v>0.0004132073954679072</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.644768234589151e-11</v>
+        <v>0.007702998351305723</v>
       </c>
       <c r="AV11" t="n">
-        <v>8.217737254567758e-12</v>
+        <v>0.0003247282584197819</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.624011755773651e-11</v>
+        <v>0.001974695129320025</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.778704870365356e-11</v>
+        <v>0.00404562521725893</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.753888353994704e-11</v>
+        <v>0.003652294399216771</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2.367825900628784e-11</v>
+        <v>0.004931209143251181</v>
       </c>
       <c r="BA11" t="n">
-        <v>4.415234150512148e-11</v>
+        <v>0.001134865684434772</v>
       </c>
       <c r="BB11" t="n">
-        <v>6.482942654928436e-11</v>
+        <v>0.0005519299302250147</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.217879517876e-11</v>
+        <v>0.002416904084384441</v>
       </c>
       <c r="BD11" t="n">
-        <v>2.296708656590596e-11</v>
+        <v>0.004452326335012913</v>
       </c>
       <c r="BE11" t="n">
-        <v>2.246326041843716e-11</v>
+        <v>0.0010916693136096</v>
       </c>
       <c r="BF11" t="n">
-        <v>8.260048894870309e-11</v>
+        <v>0.000709717336576432</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.321725090486225e-10</v>
+        <v>0.001716520870104432</v>
       </c>
       <c r="BH11" t="n">
-        <v>2.147274372199526e-11</v>
+        <v>0.0002940949343610555</v>
       </c>
       <c r="BI11" t="n">
-        <v>3.641313986446626e-11</v>
+        <v>0.002915822435170412</v>
       </c>
       <c r="BJ11" t="n">
-        <v>4.352050317346645e-11</v>
+        <v>7.745582843199372e-05</v>
       </c>
       <c r="BK11" t="n">
-        <v>4.033772621481191e-11</v>
+        <v>0.0008745481027290225</v>
       </c>
       <c r="BL11" t="n">
-        <v>1.638451353758175e-11</v>
+        <v>0.002605873625725508</v>
       </c>
       <c r="BM11" t="n">
-        <v>2.983760807873104e-11</v>
+        <v>0.003307797713205218</v>
       </c>
       <c r="BN11" t="n">
-        <v>3.196296699536916e-11</v>
+        <v>0.0005959381815046072</v>
       </c>
       <c r="BO11" t="n">
-        <v>6.127796620819526e-12</v>
+        <v>0.003292622976005077</v>
       </c>
       <c r="BP11" t="n">
-        <v>9.362208924779125e-11</v>
+        <v>0.0005236042197793722</v>
       </c>
       <c r="BQ11" t="n">
-        <v>2.530611484252709e-11</v>
+        <v>0.001830838969908655</v>
       </c>
       <c r="BR11" t="n">
-        <v>6.271789337874978e-11</v>
+        <v>0.0007422063499689102</v>
       </c>
       <c r="BS11" t="n">
-        <v>8.972748238855743e-11</v>
+        <v>0.002287036273628473</v>
       </c>
       <c r="BT11" t="n">
-        <v>5.046050383095135e-12</v>
+        <v>0.001074338797479868</v>
       </c>
       <c r="BU11" t="n">
-        <v>4.836074943281865e-11</v>
+        <v>0.0001314638066105545</v>
       </c>
       <c r="BV11" t="n">
-        <v>2.476614746615979e-11</v>
+        <v>0.00532008521258831</v>
       </c>
       <c r="BW11" t="n">
-        <v>1.913181418844445e-12</v>
+        <v>0.002088294830173254</v>
       </c>
       <c r="BX11" t="n">
-        <v>7.886080677366181e-11</v>
+        <v>7.266981992870569e-05</v>
       </c>
       <c r="BY11" t="n">
-        <v>4.38183170303752e-11</v>
+        <v>0.0009923777543008327</v>
       </c>
       <c r="BZ11" t="n">
-        <v>2.549177535726699e-11</v>
+        <v>0.0009546208893880248</v>
       </c>
       <c r="CA11" t="n">
-        <v>3.729452857648141e-11</v>
+        <v>0.001215180149301887</v>
       </c>
       <c r="CB11" t="n">
-        <v>6.489714148016912e-12</v>
+        <v>0.001586763886734843</v>
       </c>
       <c r="CC11" t="n">
-        <v>4.34673963489729e-11</v>
+        <v>0.0001566713326610625</v>
       </c>
       <c r="CD11" t="n">
-        <v>4.26986267523799e-12</v>
+        <v>0.0002531936625018716</v>
       </c>
       <c r="CE11" t="n">
-        <v>7.00908948936263e-13</v>
+        <v>0.001481507904827595</v>
       </c>
       <c r="CF11" t="n">
-        <v>1.205714521279599e-11</v>
+        <v>6.508903607027605e-05</v>
       </c>
       <c r="CG11" t="n">
-        <v>8.25131716425398e-12</v>
+        <v>0.0001590994215803221</v>
       </c>
       <c r="CH11" t="n">
-        <v>5.534898581127656e-11</v>
+        <v>0.00111767603084445</v>
       </c>
       <c r="CI11" t="n">
-        <v>1.671939279732082e-12</v>
+        <v>0.0001361432368867099</v>
       </c>
       <c r="CJ11" t="n">
-        <v>7.867618882773098e-12</v>
+        <v>0.001074089435860515</v>
       </c>
       <c r="CK11" t="n">
-        <v>1.5874834433105e-11</v>
+        <v>0.001489582238718867</v>
       </c>
       <c r="CL11" t="n">
-        <v>8.595762122920458e-12</v>
+        <v>0.0005573011585511267</v>
       </c>
       <c r="CM11" t="n">
-        <v>4.842330009191542e-11</v>
+        <v>0.002017251448705792</v>
       </c>
       <c r="CN11" t="n">
-        <v>2.457393663557461e-12</v>
+        <v>0.002271316479891539</v>
       </c>
       <c r="CO11" t="n">
-        <v>1.897771436526474e-12</v>
+        <v>3.575056325644255e-05</v>
       </c>
       <c r="CP11" t="n">
-        <v>1.080349490423238e-10</v>
+        <v>0.003284364240244031</v>
       </c>
       <c r="CQ11" t="n">
-        <v>3.613479307440493e-12</v>
+        <v>0.001860988442786038</v>
       </c>
       <c r="CR11" t="n">
-        <v>7.3827152724526e-11</v>
+        <v>0.0001926526892930269</v>
       </c>
       <c r="CS11" t="n">
-        <v>7.412478270074629e-11</v>
+        <v>0.0028772356454283</v>
       </c>
       <c r="CT11" t="n">
-        <v>5.173757949838986e-11</v>
+        <v>0.001023621996864676</v>
       </c>
       <c r="CU11" t="n">
-        <v>5.143590414702359e-11</v>
+        <v>0.0013985859695822</v>
       </c>
       <c r="CV11" t="n">
-        <v>3.143054826820757e-12</v>
+        <v>2.56734638242051e-05</v>
       </c>
       <c r="CW11" t="n">
-        <v>1.342822381067421e-11</v>
+        <v>0.00112190458457917</v>
       </c>
       <c r="CX11" t="n">
-        <v>1.144083959514486e-12</v>
+        <v>0.0003762307169381529</v>
       </c>
       <c r="CY11" t="n">
-        <v>4.687320843965725e-12</v>
+        <v>0.0005880983080714941</v>
       </c>
       <c r="CZ11" t="n">
-        <v>5.157353363816064e-11</v>
+        <v>0.0002820236841216683</v>
       </c>
       <c r="DA11" t="n">
-        <v>6.896112587223557e-12</v>
+        <v>0.0005304284859448671</v>
       </c>
       <c r="DB11" t="n">
-        <v>2.032107121463511e-11</v>
+        <v>0.0006299938540905714</v>
       </c>
       <c r="DC11" t="n">
-        <v>1.862271621633216e-11</v>
+        <v>0.001393337734043598</v>
       </c>
       <c r="DD11" t="n">
-        <v>1.693770991517685e-12</v>
+        <v>0.0007501783547922969</v>
       </c>
       <c r="DE11" t="n">
-        <v>5.338925482267776e-11</v>
+        <v>0.002420478966087103</v>
       </c>
       <c r="DF11" t="n">
-        <v>3.255880634545072e-11</v>
+        <v>0.0009449327480979264</v>
       </c>
       <c r="DG11" t="n">
-        <v>2.533834687207248e-12</v>
+        <v>0.0007113237516023219</v>
       </c>
       <c r="DH11" t="n">
-        <v>7.699102466673935e-11</v>
+        <v>0.006814128719270229</v>
       </c>
       <c r="DI11" t="n">
-        <v>5.303641900655798e-11</v>
+        <v>0.004033717326819897</v>
       </c>
       <c r="DJ11" t="n">
-        <v>3.345460367065733e-11</v>
+        <v>0.004919940140098333</v>
       </c>
       <c r="DK11" t="n">
-        <v>2.070674361143165e-11</v>
+        <v>0.002233582083135843</v>
       </c>
       <c r="DL11" t="n">
-        <v>8.174166205021649e-11</v>
+        <v>0.0001933275489136577</v>
       </c>
       <c r="DM11" t="n">
-        <v>3.617720706339256e-11</v>
+        <v>0.004499836359173059</v>
       </c>
       <c r="DN11" t="n">
-        <v>2.580540295338274e-11</v>
+        <v>0.0002607733476907015</v>
       </c>
       <c r="DO11" t="n">
-        <v>1.965662702052562e-11</v>
+        <v>0.0006194089073687792</v>
       </c>
       <c r="DP11" t="n">
-        <v>1.749355695024324e-11</v>
+        <v>0.001160170999355614</v>
       </c>
       <c r="DQ11" t="n">
-        <v>3.47964261571132e-11</v>
+        <v>0.001446157926693559</v>
       </c>
       <c r="DR11" t="n">
-        <v>2.840620100252877e-11</v>
+        <v>0.002482602838426828</v>
       </c>
       <c r="DS11" t="n">
-        <v>5.557585988635871e-11</v>
+        <v>0.0007388483500108123</v>
       </c>
       <c r="DT11" t="n">
-        <v>2.649425297207575e-11</v>
+        <v>0.002031483221799135</v>
       </c>
       <c r="DU11" t="n">
-        <v>6.90100103797886e-13</v>
+        <v>0.0007706575561314821</v>
       </c>
       <c r="DV11" t="n">
-        <v>2.039252100516364e-11</v>
+        <v>0.001934430445544422</v>
       </c>
       <c r="DW11" t="n">
-        <v>1.118347602024894e-11</v>
+        <v>0.0004662536957766861</v>
       </c>
       <c r="DX11" t="n">
-        <v>3.675494630872578e-11</v>
+        <v>0.0008276054868474603</v>
       </c>
       <c r="DY11" t="n">
-        <v>1.696074357349087e-11</v>
+        <v>0.001003976329229772</v>
       </c>
       <c r="DZ11" t="n">
-        <v>7.823095470038677e-12</v>
+        <v>0.001766706467606127</v>
       </c>
       <c r="EA11" t="n">
-        <v>1.548476451229686e-11</v>
+        <v>0.001144936075434089</v>
       </c>
       <c r="EB11" t="n">
-        <v>2.507269392104661e-11</v>
+        <v>0.0006308764568530023</v>
       </c>
       <c r="EC11" t="n">
-        <v>1.445431274671449e-11</v>
+        <v>0.000400224031182006</v>
       </c>
       <c r="ED11" t="n">
-        <v>9.8523168789999e-12</v>
+        <v>0.0007815513527020812</v>
       </c>
       <c r="EE11" t="n">
-        <v>2.302463775194497e-13</v>
+        <v>0.002918141195550561</v>
       </c>
       <c r="EF11" t="n">
-        <v>1.80057045662263e-11</v>
+        <v>0.0002456779475323856</v>
       </c>
       <c r="EG11" t="n">
-        <v>2.870768726903616e-11</v>
+        <v>0.002103104488924146</v>
       </c>
       <c r="EH11" t="n">
-        <v>2.838827610485151e-11</v>
+        <v>2.284253423567861e-05</v>
       </c>
       <c r="EI11" t="n">
-        <v>5.654157697598805e-11</v>
+        <v>0.00095541583141312</v>
       </c>
       <c r="EJ11" t="n">
-        <v>5.759161897378462e-11</v>
+        <v>0.001146750641055405</v>
       </c>
       <c r="EK11" t="n">
-        <v>1.231991331868132e-11</v>
+        <v>0.002545284107327461</v>
       </c>
       <c r="EL11" t="n">
-        <v>3.313100835344862e-11</v>
+        <v>0.000935823773033917</v>
       </c>
       <c r="EM11" t="n">
-        <v>1.140018027895318e-11</v>
+        <v>0.001449424307793379</v>
       </c>
       <c r="EN11" t="n">
-        <v>3.345390631181999e-11</v>
+        <v>0.0005184239707887173</v>
       </c>
       <c r="EO11" t="n">
-        <v>4.664846980917403e-11</v>
+        <v>0.0008969617774710059</v>
       </c>
       <c r="EP11" t="n">
-        <v>2.926588832385946e-11</v>
+        <v>0.0001031300780596212</v>
       </c>
       <c r="EQ11" t="n">
-        <v>1.399505511479049e-12</v>
+        <v>0.001335575361736119</v>
       </c>
       <c r="ER11" t="n">
-        <v>1.386695619443046e-11</v>
+        <v>0.001847436768002808</v>
       </c>
       <c r="ES11" t="n">
-        <v>3.989136798665527e-11</v>
+        <v>0.0004751500091515481</v>
       </c>
       <c r="ET11" t="n">
-        <v>2.587642426721271e-11</v>
+        <v>0.001085978001356125</v>
       </c>
       <c r="EU11" t="n">
-        <v>3.610277007903839e-11</v>
+        <v>0.001849342021159828</v>
       </c>
       <c r="EV11" t="n">
-        <v>4.012704404865453e-11</v>
+        <v>0.003019218798726797</v>
       </c>
       <c r="EW11" t="n">
-        <v>1.904263725871491e-11</v>
+        <v>0.0009659380884841084</v>
       </c>
       <c r="EX11" t="n">
-        <v>3.288473226364941e-12</v>
+        <v>0.0001887803664430976</v>
       </c>
       <c r="EY11" t="n">
-        <v>6.091406892783091e-12</v>
+        <v>0.0009558813762851059</v>
       </c>
       <c r="EZ11" t="n">
-        <v>1.505236907339835e-12</v>
+        <v>0.0001279408897971734</v>
       </c>
       <c r="FA11" t="n">
-        <v>3.723613431483308e-12</v>
+        <v>0.0001462245709262788</v>
       </c>
       <c r="FB11" t="n">
-        <v>5.770413313843648e-11</v>
+        <v>0.0006979441968724132</v>
       </c>
       <c r="FC11" t="n">
-        <v>1.161023534257399e-11</v>
+        <v>0.0001630338956601918</v>
       </c>
       <c r="FD11" t="n">
-        <v>1.608382697859678e-11</v>
+        <v>0.001559758791700006</v>
       </c>
       <c r="FE11" t="n">
-        <v>2.898925717531586e-11</v>
+        <v>0.001929800026118755</v>
       </c>
       <c r="FF11" t="n">
-        <v>1.987923367585687e-11</v>
+        <v>0.001251068199053407</v>
       </c>
       <c r="FG11" t="n">
-        <v>4.980620429972937e-11</v>
+        <v>0.0009427057229913771</v>
       </c>
       <c r="FH11" t="n">
-        <v>1.452295575465889e-11</v>
+        <v>0.0007954261382110417</v>
       </c>
       <c r="FI11" t="n">
-        <v>3.831490680283878e-12</v>
+        <v>0.0001918741036206484</v>
       </c>
       <c r="FJ11" t="n">
-        <v>4.274910980761604e-11</v>
+        <v>0.003001077799126506</v>
       </c>
       <c r="FK11" t="n">
-        <v>5.459244861727441e-11</v>
+        <v>0.000767122081015259</v>
       </c>
       <c r="FL11" t="n">
-        <v>2.440520441987504e-12</v>
+        <v>0.0001571149914525449</v>
       </c>
       <c r="FM11" t="n">
-        <v>1.286800527244836e-13</v>
+        <v>0.00245130923576653</v>
       </c>
       <c r="FN11" t="n">
-        <v>6.585355871724374e-11</v>
+        <v>0.0008643123437650502</v>
       </c>
       <c r="FO11" t="n">
-        <v>1.961267519917653e-12</v>
+        <v>0.0004644480650313199</v>
       </c>
       <c r="FP11" t="n">
-        <v>1.188176293465126e-11</v>
+        <v>0.002258219756186008</v>
       </c>
       <c r="FQ11" t="n">
-        <v>2.908658383593554e-11</v>
+        <v>0.0001662043505348265</v>
       </c>
       <c r="FR11" t="n">
-        <v>1.48587912807141e-11</v>
+        <v>0.001139263738878071</v>
       </c>
       <c r="FS11" t="n">
-        <v>1.214995465348423e-11</v>
+        <v>0.00204917648807168</v>
       </c>
       <c r="FT11" t="n">
-        <v>8.141536056438525e-11</v>
+        <v>0.008446363732218742</v>
       </c>
       <c r="FU11" t="n">
-        <v>1.402560446256418e-11</v>
+        <v>0.002414369024336338</v>
       </c>
       <c r="FV11" t="n">
-        <v>3.041594753838694e-12</v>
+        <v>0.002667389577254653</v>
       </c>
       <c r="FW11" t="n">
-        <v>4.286340379855424e-11</v>
+        <v>0.0003807379980571568</v>
       </c>
       <c r="FX11" t="n">
-        <v>3.500966530567418e-11</v>
+        <v>0.001619589631445706</v>
       </c>
       <c r="FY11" t="n">
-        <v>6.834918915565869e-12</v>
+        <v>0.001746501424349844</v>
       </c>
       <c r="FZ11" t="n">
-        <v>3.398359718631561e-11</v>
+        <v>6.682051753159612e-05</v>
       </c>
       <c r="GA11" t="n">
-        <v>6.157765269909632e-13</v>
+        <v>0.001590198138728738</v>
       </c>
       <c r="GB11" t="n">
-        <v>7.403875429412565e-11</v>
+        <v>0.002496897941455245</v>
       </c>
       <c r="GC11" t="n">
-        <v>1.08491736428018e-10</v>
+        <v>0.0007730286451987922</v>
       </c>
       <c r="GD11" t="n">
-        <v>3.39538397398087e-11</v>
+        <v>0.002642599167302251</v>
       </c>
       <c r="GE11" t="n">
-        <v>1.138652540311202e-11</v>
+        <v>0.00109953002538532</v>
       </c>
       <c r="GF11" t="n">
-        <v>5.585081008785409e-12</v>
+        <v>0.002107535023242235</v>
       </c>
       <c r="GG11" t="n">
-        <v>4.118802087588191e-12</v>
+        <v>0.001659813802689314</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.528525639393763e-10</v>
+        <v>0.0006989692337810993</v>
       </c>
       <c r="B12" t="n">
-        <v>4.815106646738343e-10</v>
+        <v>0.009226294234395027</v>
       </c>
       <c r="C12" t="n">
-        <v>2.603735560491316e-10</v>
+        <v>0.0007140214438550174</v>
       </c>
       <c r="D12" t="n">
-        <v>7.485339015289583e-10</v>
+        <v>0.00582248717546463</v>
       </c>
       <c r="E12" t="n">
-        <v>4.398409414463345e-10</v>
+        <v>0.001542775542475283</v>
       </c>
       <c r="F12" t="n">
-        <v>2.180641500704183e-10</v>
+        <v>0.001232482027262449</v>
       </c>
       <c r="G12" t="n">
-        <v>5.350793419456323e-11</v>
+        <v>0.0009125530486926436</v>
       </c>
       <c r="H12" t="n">
-        <v>3.922272784340208e-10</v>
+        <v>0.001154612982645631</v>
       </c>
       <c r="I12" t="n">
-        <v>6.684722220207107e-13</v>
+        <v>0.0002062175481114537</v>
       </c>
       <c r="J12" t="n">
-        <v>8.685584196310714e-11</v>
+        <v>0.00117176934145391</v>
       </c>
       <c r="K12" t="n">
-        <v>3.944232995767294e-10</v>
+        <v>0.006148694083094597</v>
       </c>
       <c r="L12" t="n">
-        <v>3.366604772736537e-10</v>
+        <v>0.0002607068745419383</v>
       </c>
       <c r="M12" t="n">
-        <v>8.520800731659506e-10</v>
+        <v>0.005549207795411348</v>
       </c>
       <c r="N12" t="n">
-        <v>6.834376398145992e-10</v>
+        <v>0.002741928678005934</v>
       </c>
       <c r="O12" t="n">
-        <v>4.319673785335709e-11</v>
+        <v>0.002778361085802317</v>
       </c>
       <c r="P12" t="n">
-        <v>6.756092213455744e-12</v>
+        <v>3.540335455909371e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.135202180677311e-10</v>
+        <v>0.0007126774871721864</v>
       </c>
       <c r="R12" t="n">
-        <v>1.456000459088003e-10</v>
+        <v>0.0006480295560322702</v>
       </c>
       <c r="S12" t="n">
-        <v>9.305504977685786e-11</v>
+        <v>0.0001415265287505463</v>
       </c>
       <c r="T12" t="n">
-        <v>3.607825149742894e-11</v>
+        <v>0.001602254807949066</v>
       </c>
       <c r="U12" t="n">
-        <v>2.008943358888793e-11</v>
+        <v>0.0004066269029863179</v>
       </c>
       <c r="V12" t="n">
-        <v>1.015619116584432e-10</v>
+        <v>0.0008173953392542899</v>
       </c>
       <c r="W12" t="n">
-        <v>4.521013008407238e-10</v>
+        <v>7.280464342329651e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>8.281970248491533e-11</v>
+        <v>0.0009988001547753811</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.384342443073066e-11</v>
+        <v>0.001093658385798335</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.018195666668831e-10</v>
+        <v>0.0002038793318206444</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.486142013426786e-11</v>
+        <v>0.0006463974714279175</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.767847535028011e-10</v>
+        <v>0.0006642099469900131</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.583808167422319e-12</v>
+        <v>0.002131331246346235</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.501021876237907e-11</v>
+        <v>6.965669308556244e-05</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.708819557550868e-10</v>
+        <v>0.0005335377645678818</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.179294578657064e-10</v>
+        <v>0.0004677998367697001</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.034998961535472e-10</v>
+        <v>0.0003025155747309327</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.830347067828143e-11</v>
+        <v>0.0009486065246164799</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.317666974478328e-11</v>
+        <v>0.0003062270407099277</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.157294828886158e-11</v>
+        <v>0.0001192480849567801</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.11697534502342e-10</v>
+        <v>0.0005458472296595573</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.465519786225116e-11</v>
+        <v>0.0008980257553048432</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.942632497202283e-11</v>
+        <v>0.000382826488930732</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.300519497122622e-11</v>
+        <v>0.0004272355581633747</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.36491717506982e-11</v>
+        <v>0.001102529582567513</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.639973517570837e-10</v>
+        <v>0.001036478439345956</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.796574083419046e-11</v>
+        <v>0.0004128387372475117</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.984020752190176e-11</v>
+        <v>0.000585025642067194</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.18157671147312e-11</v>
+        <v>0.0002193879772676155</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.890286066037362e-10</v>
+        <v>0.0008168036583811045</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.999879789022941e-10</v>
+        <v>0.006888722069561481</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.682755961824768e-10</v>
+        <v>0.0001576065842527896</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.355431877847479e-10</v>
+        <v>0.0003635702305473387</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.861465981356503e-10</v>
+        <v>0.0007826011278666556</v>
       </c>
       <c r="AY12" t="n">
-        <v>6.219887105363142e-11</v>
+        <v>0.0002952939830720425</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1.151426350098905e-11</v>
+        <v>0.0003302490222267807</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.7947100189607e-10</v>
+        <v>0.0006167604587972164</v>
       </c>
       <c r="BB12" t="n">
-        <v>7.05425995395359e-12</v>
+        <v>2.921500708907843e-06</v>
       </c>
       <c r="BC12" t="n">
-        <v>5.799042669674126e-12</v>
+        <v>0.0001387812226312235</v>
       </c>
       <c r="BD12" t="n">
-        <v>9.410233009488067e-11</v>
+        <v>0.001527835614979267</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.171593932980386e-10</v>
+        <v>0.001668585347943008</v>
       </c>
       <c r="BF12" t="n">
-        <v>3.589619435029334e-10</v>
+        <v>0.001243049511685967</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.31750332865721e-10</v>
+        <v>0.003002310404554009</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.166798463403396e-10</v>
+        <v>0.0008654291741549969</v>
       </c>
       <c r="BI12" t="n">
-        <v>6.44254649628806e-11</v>
+        <v>0.001526081701740623</v>
       </c>
       <c r="BJ12" t="n">
-        <v>8.49629221144621e-12</v>
+        <v>0.0006731722969561815</v>
       </c>
       <c r="BK12" t="n">
-        <v>3.66361732617726e-11</v>
+        <v>0.0007523162639699876</v>
       </c>
       <c r="BL12" t="n">
-        <v>2.148097845433572e-11</v>
+        <v>0.001353282015770674</v>
       </c>
       <c r="BM12" t="n">
-        <v>2.448640457064499e-10</v>
+        <v>0.00172824424225837</v>
       </c>
       <c r="BN12" t="n">
-        <v>4.336331294041429e-11</v>
+        <v>0.0007741301669739187</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.721067455218162e-10</v>
+        <v>5.406397394835949e-05</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.822570844245419e-10</v>
+        <v>0.001270269392989576</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.65159760867617e-11</v>
+        <v>0.0007580583915114403</v>
       </c>
       <c r="BR12" t="n">
-        <v>8.01257810101319e-11</v>
+        <v>0.001235696487128735</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.783214548245482e-10</v>
+        <v>0.001175423851236701</v>
       </c>
       <c r="BT12" t="n">
-        <v>7.620834518995423e-11</v>
+        <v>1.745573899825104e-05</v>
       </c>
       <c r="BU12" t="n">
-        <v>3.113481417127417e-10</v>
+        <v>0.0005194622790440917</v>
       </c>
       <c r="BV12" t="n">
-        <v>4.978043671721721e-11</v>
+        <v>0.003515108488500118</v>
       </c>
       <c r="BW12" t="n">
-        <v>4.917871665455209e-13</v>
+        <v>0.0006395488162524998</v>
       </c>
       <c r="BX12" t="n">
-        <v>3.77503139858959e-10</v>
+        <v>0.0006562807830050588</v>
       </c>
       <c r="BY12" t="n">
-        <v>1.943605831833395e-10</v>
+        <v>0.0003537091834004968</v>
       </c>
       <c r="BZ12" t="n">
-        <v>2.397241294360697e-10</v>
+        <v>0.001461514388211071</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.02843150662224e-11</v>
+        <v>0.0002634600969031453</v>
       </c>
       <c r="CB12" t="n">
-        <v>6.277337677440542e-11</v>
+        <v>8.30933713587001e-05</v>
       </c>
       <c r="CC12" t="n">
-        <v>1.152692941097655e-10</v>
+        <v>0.0005813585012219846</v>
       </c>
       <c r="CD12" t="n">
-        <v>7.646275973494099e-11</v>
+        <v>0.0004487426485866308</v>
       </c>
       <c r="CE12" t="n">
-        <v>8.923144168004882e-11</v>
+        <v>0.00162563577760011</v>
       </c>
       <c r="CF12" t="n">
-        <v>7.816210872979568e-11</v>
+        <v>0.0004430122207850218</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.363899132522661e-10</v>
+        <v>0.0003248611174058169</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.555800072106095e-10</v>
+        <v>0.0004712497757282108</v>
       </c>
       <c r="CI12" t="n">
-        <v>7.15511400128932e-11</v>
+        <v>0.0003151818818878382</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.344976907624584e-11</v>
+        <v>0.0006178950425237417</v>
       </c>
       <c r="CK12" t="n">
-        <v>1.091544979403558e-10</v>
+        <v>6.088045483920723e-05</v>
       </c>
       <c r="CL12" t="n">
-        <v>5.280880593927506e-11</v>
+        <v>0.0003508150693960488</v>
       </c>
       <c r="CM12" t="n">
-        <v>3.358633163252911e-11</v>
+        <v>0.001389622688293457</v>
       </c>
       <c r="CN12" t="n">
-        <v>6.777126776436049e-11</v>
+        <v>0.001029359409585595</v>
       </c>
       <c r="CO12" t="n">
-        <v>1.240360869569912e-10</v>
+        <v>0.0004653812502510846</v>
       </c>
       <c r="CP12" t="n">
-        <v>2.01062680393882e-10</v>
+        <v>0.002596603473648429</v>
       </c>
       <c r="CQ12" t="n">
-        <v>8.414721697214134e-11</v>
+        <v>0.001210420508868992</v>
       </c>
       <c r="CR12" t="n">
-        <v>2.779302343824952e-10</v>
+        <v>0.001515459967777133</v>
       </c>
       <c r="CS12" t="n">
-        <v>3.596864125987587e-11</v>
+        <v>0.001080835703760386</v>
       </c>
       <c r="CT12" t="n">
-        <v>8.537876655667631e-11</v>
+        <v>0.001213500625453889</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.767854265755098e-11</v>
+        <v>3.513351839501411e-05</v>
       </c>
       <c r="CV12" t="n">
-        <v>8.417892077838829e-11</v>
+        <v>0.0004416158772073686</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.406584571039815e-10</v>
+        <v>0.001224587205797434</v>
       </c>
       <c r="CX12" t="n">
-        <v>3.661954420253188e-11</v>
+        <v>0.0005930960178375244</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.223062207067471e-10</v>
+        <v>0.0007395243155770004</v>
       </c>
       <c r="CZ12" t="n">
-        <v>1.330308224689603e-10</v>
+        <v>0.0004948124405927956</v>
       </c>
       <c r="DA12" t="n">
-        <v>4.966316594079423e-11</v>
+        <v>0.0004473754088394344</v>
       </c>
       <c r="DB12" t="n">
-        <v>2.466895784869472e-11</v>
+        <v>0.0007029549451544881</v>
       </c>
       <c r="DC12" t="n">
-        <v>9.71796740301123e-11</v>
+        <v>0.0001176403893623501</v>
       </c>
       <c r="DD12" t="n">
-        <v>6.397824631187987e-11</v>
+        <v>0.0001826300867833197</v>
       </c>
       <c r="DE12" t="n">
-        <v>2.391939146750843e-10</v>
+        <v>0.0005524876760318875</v>
       </c>
       <c r="DF12" t="n">
-        <v>2.243362717813113e-10</v>
+        <v>0.001792659400962293</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.549759764962744e-10</v>
+        <v>0.0001651353668421507</v>
       </c>
       <c r="DH12" t="n">
-        <v>5.349090094475262e-12</v>
+        <v>0.002382725942879915</v>
       </c>
       <c r="DI12" t="n">
-        <v>3.950117316575685e-11</v>
+        <v>9.187134855892509e-05</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1.548091377312488e-10</v>
+        <v>0.0007717520347796381</v>
       </c>
       <c r="DK12" t="n">
-        <v>1.162964793910426e-10</v>
+        <v>0.0009029615321196616</v>
       </c>
       <c r="DL12" t="n">
-        <v>2.926167086414466e-10</v>
+        <v>6.242634844966233e-05</v>
       </c>
       <c r="DM12" t="n">
-        <v>8.96624233193144e-11</v>
+        <v>0.0002924124128185213</v>
       </c>
       <c r="DN12" t="n">
-        <v>5.053962890549935e-13</v>
+        <v>0.0008530020713806152</v>
       </c>
       <c r="DO12" t="n">
-        <v>1.534378006595727e-11</v>
+        <v>0.000648122513666749</v>
       </c>
       <c r="DP12" t="n">
-        <v>2.345464447661705e-11</v>
+        <v>0.0007941269432194531</v>
       </c>
       <c r="DQ12" t="n">
-        <v>1.756036427380536e-10</v>
+        <v>0.0008935398072935641</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.044481931500307e-10</v>
+        <v>0.001447067479602993</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.566304308475708e-10</v>
+        <v>0.0006498487782664597</v>
       </c>
       <c r="DT12" t="n">
-        <v>2.6806544831115e-11</v>
+        <v>0.00023607250477653</v>
       </c>
       <c r="DU12" t="n">
-        <v>4.118701213418063e-11</v>
+        <v>3.513009869493544e-05</v>
       </c>
       <c r="DV12" t="n">
-        <v>8.820534580511463e-11</v>
+        <v>0.0004677042888943106</v>
       </c>
       <c r="DW12" t="n">
-        <v>8.08791228434913e-12</v>
+        <v>0.0001934727770276368</v>
       </c>
       <c r="DX12" t="n">
-        <v>8.137360230087154e-11</v>
+        <v>0.0002600661828182638</v>
       </c>
       <c r="DY12" t="n">
-        <v>5.417195164669764e-11</v>
+        <v>0.001023119664750993</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.161546067662833e-10</v>
+        <v>0.0008443128899671137</v>
       </c>
       <c r="EA12" t="n">
-        <v>8.899193881806156e-11</v>
+        <v>0.0009857567492872477</v>
       </c>
       <c r="EB12" t="n">
-        <v>5.50373809027338e-11</v>
+        <v>0.0004645442822948098</v>
       </c>
       <c r="EC12" t="n">
-        <v>7.661634521261007e-11</v>
+        <v>0.0004521984665188938</v>
       </c>
       <c r="ED12" t="n">
-        <v>3.316805163855463e-11</v>
+        <v>0.0002334083401365206</v>
       </c>
       <c r="EE12" t="n">
-        <v>1.24080440366825e-10</v>
+        <v>3.607679536798969e-05</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.472620636544519e-10</v>
+        <v>0.0001347138022538275</v>
       </c>
       <c r="EG12" t="n">
-        <v>6.543106334522264e-11</v>
+        <v>0.0007523916428908706</v>
       </c>
       <c r="EH12" t="n">
-        <v>3.243333379643332e-11</v>
+        <v>0.0001326356141362339</v>
       </c>
       <c r="EI12" t="n">
-        <v>2.163779433406177e-10</v>
+        <v>0.0004268220509402454</v>
       </c>
       <c r="EJ12" t="n">
-        <v>8.510530821737028e-12</v>
+        <v>0.001119663938879967</v>
       </c>
       <c r="EK12" t="n">
-        <v>6.769019372798724e-11</v>
+        <v>0.0002527464530430734</v>
       </c>
       <c r="EL12" t="n">
-        <v>3.223739331037478e-11</v>
+        <v>0.001170510076917708</v>
       </c>
       <c r="EM12" t="n">
-        <v>7.209224883730769e-11</v>
+        <v>0.0003425769973546267</v>
       </c>
       <c r="EN12" t="n">
-        <v>4.557092550538933e-11</v>
+        <v>0.0001587755104992539</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.887868333882992e-12</v>
+        <v>0.000637699558865279</v>
       </c>
       <c r="EP12" t="n">
-        <v>4.354079596868843e-11</v>
+        <v>0.001198132173158228</v>
       </c>
       <c r="EQ12" t="n">
-        <v>4.998884639562107e-11</v>
+        <v>0.0001690247445367277</v>
       </c>
       <c r="ER12" t="n">
-        <v>5.056497581756858e-11</v>
+        <v>0.0006382724968716502</v>
       </c>
       <c r="ES12" t="n">
-        <v>5.290790028311676e-11</v>
+        <v>6.735114584444091e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>2.889829001095912e-11</v>
+        <v>0.001648156205192208</v>
       </c>
       <c r="EU12" t="n">
-        <v>5.415536422082035e-11</v>
+        <v>0.00115307979285717</v>
       </c>
       <c r="EV12" t="n">
-        <v>2.789554698345853e-11</v>
+        <v>0.0003164882946293801</v>
       </c>
       <c r="EW12" t="n">
-        <v>2.57025130345756e-12</v>
+        <v>0.0001399538305122405</v>
       </c>
       <c r="EX12" t="n">
-        <v>7.285953784741395e-11</v>
+        <v>0.0002286451635882258</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.091480447690252e-10</v>
+        <v>0.001264983555302024</v>
       </c>
       <c r="EZ12" t="n">
-        <v>4.388471877558864e-11</v>
+        <v>0.0002460602554492652</v>
       </c>
       <c r="FA12" t="n">
-        <v>9.437992748440038e-11</v>
+        <v>0.0007041941862553358</v>
       </c>
       <c r="FB12" t="n">
-        <v>1.487597545146713e-10</v>
+        <v>0.0002548884658608586</v>
       </c>
       <c r="FC12" t="n">
-        <v>5.240824788033116e-11</v>
+        <v>0.0006539850728586316</v>
       </c>
       <c r="FD12" t="n">
-        <v>1.039635044719489e-11</v>
+        <v>0.000732446787878871</v>
       </c>
       <c r="FE12" t="n">
-        <v>8.76572356367511e-11</v>
+        <v>4.55762492492795e-05</v>
       </c>
       <c r="FF12" t="n">
-        <v>4.110674994839414e-11</v>
+        <v>0.000346070621162653</v>
       </c>
       <c r="FG12" t="n">
-        <v>1.32394165075489e-10</v>
+        <v>0.0001002150238491595</v>
       </c>
       <c r="FH12" t="n">
-        <v>1.126750012736544e-10</v>
+        <v>0.0001535755873192102</v>
       </c>
       <c r="FI12" t="n">
-        <v>3.585547483919704e-11</v>
+        <v>0.0004330612136982381</v>
       </c>
       <c r="FJ12" t="n">
-        <v>3.167137732629222e-11</v>
+        <v>0.001304011093452573</v>
       </c>
       <c r="FK12" t="n">
-        <v>1.953642109198128e-10</v>
+        <v>0.0006424051243811846</v>
       </c>
       <c r="FL12" t="n">
-        <v>2.650450969809981e-10</v>
+        <v>0.0004331038217060268</v>
       </c>
       <c r="FM12" t="n">
-        <v>4.10288157615124e-11</v>
+        <v>0.0005288374377414584</v>
       </c>
       <c r="FN12" t="n">
-        <v>2.320528907917563e-10</v>
+        <v>0.0001051258441293612</v>
       </c>
       <c r="FO12" t="n">
-        <v>1.577679653586017e-10</v>
+        <v>0.0002674772695172578</v>
       </c>
       <c r="FP12" t="n">
-        <v>9.709049536565928e-12</v>
+        <v>0.0003571242559701204</v>
       </c>
       <c r="FQ12" t="n">
-        <v>6.53947590523174e-11</v>
+        <v>0.0005395807093009353</v>
       </c>
       <c r="FR12" t="n">
-        <v>1.134296406801738e-10</v>
+        <v>2.798876812448725e-05</v>
       </c>
       <c r="FS12" t="n">
-        <v>2.05737649139337e-11</v>
+        <v>0.001148442155681551</v>
       </c>
       <c r="FT12" t="n">
-        <v>4.220359617335134e-10</v>
+        <v>0.001194417010992765</v>
       </c>
       <c r="FU12" t="n">
-        <v>1.877857452869947e-10</v>
+        <v>0.0001695644168648869</v>
       </c>
       <c r="FV12" t="n">
-        <v>6.119842826945998e-11</v>
+        <v>0.001498902216553688</v>
       </c>
       <c r="FW12" t="n">
-        <v>1.199892685210813e-10</v>
+        <v>0.0006542821647599339</v>
       </c>
       <c r="FX12" t="n">
-        <v>5.592562524192601e-11</v>
+        <v>0.0002799475332722068</v>
       </c>
       <c r="FY12" t="n">
-        <v>7.477719832227336e-11</v>
+        <v>0.001236445736140013</v>
       </c>
       <c r="FZ12" t="n">
-        <v>3.160859074480271e-10</v>
+        <v>0.0004428458050824702</v>
       </c>
       <c r="GA12" t="n">
-        <v>2.078905797509023e-11</v>
+        <v>0.0001663663570070639</v>
       </c>
       <c r="GB12" t="n">
-        <v>1.279689895716807e-11</v>
+        <v>0.0001624542928766459</v>
       </c>
       <c r="GC12" t="n">
-        <v>1.883153494253165e-10</v>
+        <v>0.001046076416969299</v>
       </c>
       <c r="GD12" t="n">
-        <v>7.683911840139501e-11</v>
+        <v>0.0009668123675510287</v>
       </c>
       <c r="GE12" t="n">
-        <v>6.78478245808023e-11</v>
+        <v>0.002265438437461853</v>
       </c>
       <c r="GF12" t="n">
-        <v>1.599976262589564e-10</v>
+        <v>0.0004421182384248823</v>
       </c>
       <c r="GG12" t="n">
-        <v>6.844533273486775e-11</v>
+        <v>6.308688898570836e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.842042706812208e-06</v>
+        <v>0.006668403744697571</v>
       </c>
       <c r="B13" t="n">
-        <v>1.304973102378426e-05</v>
+        <v>0.07436509430408478</v>
       </c>
       <c r="C13" t="n">
-        <v>1.139651317316748e-06</v>
+        <v>0.005545240361243486</v>
       </c>
       <c r="D13" t="n">
-        <v>1.155244444817072e-05</v>
+        <v>0.02564850822091103</v>
       </c>
       <c r="E13" t="n">
-        <v>5.042205430072499e-06</v>
+        <v>0.008024401031434536</v>
       </c>
       <c r="F13" t="n">
-        <v>2.173050290821266e-07</v>
+        <v>0.06869199872016907</v>
       </c>
       <c r="G13" t="n">
-        <v>5.848437467648182e-07</v>
+        <v>0.012015325948596</v>
       </c>
       <c r="H13" t="n">
-        <v>1.867102014330158e-06</v>
+        <v>0.04403389990329742</v>
       </c>
       <c r="I13" t="n">
-        <v>8.427122111243079e-08</v>
+        <v>0.0105522945523262</v>
       </c>
       <c r="J13" t="n">
-        <v>8.438307759206509e-07</v>
+        <v>0.01711656153202057</v>
       </c>
       <c r="K13" t="n">
-        <v>1.268228152184747e-05</v>
+        <v>0.07432322949171066</v>
       </c>
       <c r="L13" t="n">
-        <v>3.529165155669034e-07</v>
+        <v>0.006251698359847069</v>
       </c>
       <c r="M13" t="n">
-        <v>1.069012614607345e-05</v>
+        <v>0.01290363539010286</v>
       </c>
       <c r="N13" t="n">
-        <v>2.881806040022639e-06</v>
+        <v>0.02920936420559883</v>
       </c>
       <c r="O13" t="n">
-        <v>1.299071641369665e-06</v>
+        <v>0.05327323824167252</v>
       </c>
       <c r="P13" t="n">
-        <v>5.636895821226062e-07</v>
+        <v>0.006893556099385023</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.552653313614428e-06</v>
+        <v>0.02018610388040543</v>
       </c>
       <c r="R13" t="n">
-        <v>1.908921149151865e-06</v>
+        <v>0.02128804475069046</v>
       </c>
       <c r="S13" t="n">
-        <v>7.383300726360176e-07</v>
+        <v>0.0006555116269737482</v>
       </c>
       <c r="T13" t="n">
-        <v>1.156810753855098e-06</v>
+        <v>0.007700306829065084</v>
       </c>
       <c r="U13" t="n">
-        <v>3.50391246684012e-07</v>
+        <v>0.004270361736416817</v>
       </c>
       <c r="V13" t="n">
-        <v>1.522639877293841e-06</v>
+        <v>0.01232142653316259</v>
       </c>
       <c r="W13" t="n">
-        <v>6.099696292949375e-06</v>
+        <v>0.03304211795330048</v>
       </c>
       <c r="X13" t="n">
-        <v>6.215413606014408e-08</v>
+        <v>0.01899095252156258</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.161532850346703e-06</v>
+        <v>0.002821171656250954</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.339619863458211e-07</v>
+        <v>0.01663496159017086</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.877085863583488e-07</v>
+        <v>0.01138002332299948</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.212039933307096e-06</v>
+        <v>0.002255072351545095</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.119215085054748e-06</v>
+        <v>0.002244188450276852</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.405070122473262e-07</v>
+        <v>0.006509889848530293</v>
       </c>
       <c r="AE13" t="n">
-        <v>4.28504745286773e-06</v>
+        <v>0.006402214057743549</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.51530616171658e-07</v>
+        <v>0.01057419180870056</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.879567093965306e-06</v>
+        <v>0.01262411847710609</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.440087301802123e-07</v>
+        <v>0.003411320503801107</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.443141854906571e-07</v>
+        <v>0.00962268840521574</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.88039621207281e-07</v>
+        <v>0.001101217581890523</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.495902438364283e-06</v>
+        <v>0.009303547441959381</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.970861603695084e-06</v>
+        <v>0.001157974009402096</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.253182290383847e-06</v>
+        <v>0.003892143722623587</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.321430525233154e-07</v>
+        <v>0.009653338231146336</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.097680689734261e-08</v>
+        <v>0.00120632559992373</v>
       </c>
       <c r="AP13" t="n">
-        <v>5.485825340656447e-07</v>
+        <v>0.009874818846583366</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.822791316248185e-07</v>
+        <v>0.003935265354812145</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.11944415140897e-07</v>
+        <v>0.005948964506387711</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.420015451003565e-06</v>
+        <v>0.006686959881335497</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.62667344941292e-06</v>
+        <v>0.006955159828066826</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.0297322710976e-06</v>
+        <v>0.0317300409078598</v>
       </c>
       <c r="AV13" t="n">
-        <v>9.376958587381523e-08</v>
+        <v>0.001418474363163114</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.745695271893055e-06</v>
+        <v>0.01615012623369694</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.707600910729525e-07</v>
+        <v>0.01191804651170969</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.191785258924938e-06</v>
+        <v>0.04088202491402626</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.017440010604332e-06</v>
+        <v>0.02675803937017918</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.325954255866236e-07</v>
+        <v>0.001873257104307413</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.018335408138228e-06</v>
+        <v>0.01847634464502335</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.011572067000088e-06</v>
+        <v>0.0002895854413509369</v>
       </c>
       <c r="BD13" t="n">
-        <v>2.346003157072118e-06</v>
+        <v>0.03080883994698524</v>
       </c>
       <c r="BE13" t="n">
-        <v>2.54436912427991e-07</v>
+        <v>0.01706183701753616</v>
       </c>
       <c r="BF13" t="n">
-        <v>5.796822279080516e-06</v>
+        <v>0.005131551064550877</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.022012952489604e-06</v>
+        <v>0.01016821153461933</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.66528934641974e-06</v>
+        <v>0.007661852985620499</v>
       </c>
       <c r="BI13" t="n">
-        <v>2.10248776966182e-06</v>
+        <v>0.01169611513614655</v>
       </c>
       <c r="BJ13" t="n">
-        <v>3.236345094137505e-07</v>
+        <v>0.00677183223888278</v>
       </c>
       <c r="BK13" t="n">
-        <v>3.864327027258696e-06</v>
+        <v>0.01683790795505047</v>
       </c>
       <c r="BL13" t="n">
-        <v>1.085964186131605e-06</v>
+        <v>0.009502079337835312</v>
       </c>
       <c r="BM13" t="n">
-        <v>2.773277401502128e-06</v>
+        <v>0.01106343697756529</v>
       </c>
       <c r="BN13" t="n">
-        <v>1.044938244376681e-06</v>
+        <v>0.009215742349624634</v>
       </c>
       <c r="BO13" t="n">
-        <v>1.612228857084119e-07</v>
+        <v>0.01517121680080891</v>
       </c>
       <c r="BP13" t="n">
-        <v>9.683932375992299e-07</v>
+        <v>0.001837381161749363</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.925477818076615e-06</v>
+        <v>0.00109958543907851</v>
       </c>
       <c r="BR13" t="n">
-        <v>1.187239604405477e-06</v>
+        <v>0.002075224183499813</v>
       </c>
       <c r="BS13" t="n">
-        <v>5.65442462630017e-07</v>
+        <v>0.01092466805130243</v>
       </c>
       <c r="BT13" t="n">
-        <v>3.138550823678088e-07</v>
+        <v>0.004042309708893299</v>
       </c>
       <c r="BU13" t="n">
-        <v>2.347225972698652e-06</v>
+        <v>0.002270722528919578</v>
       </c>
       <c r="BV13" t="n">
-        <v>2.840955858118832e-06</v>
+        <v>0.02620181813836098</v>
       </c>
       <c r="BW13" t="n">
-        <v>1.276195348509646e-06</v>
+        <v>0.004009724128991365</v>
       </c>
       <c r="BX13" t="n">
-        <v>3.564940925571136e-06</v>
+        <v>0.005787181667983532</v>
       </c>
       <c r="BY13" t="n">
-        <v>6.421874445550202e-07</v>
+        <v>0.002322605345398188</v>
       </c>
       <c r="BZ13" t="n">
-        <v>2.043545066499064e-07</v>
+        <v>0.02224892191588879</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.957403128471924e-06</v>
+        <v>0.007556440308690071</v>
       </c>
       <c r="CB13" t="n">
-        <v>4.967395739186031e-07</v>
+        <v>0.002239118330180645</v>
       </c>
       <c r="CC13" t="n">
-        <v>2.180111096095061e-06</v>
+        <v>0.008973110467195511</v>
       </c>
       <c r="CD13" t="n">
-        <v>1.120758611250494e-06</v>
+        <v>0.001413051155395806</v>
       </c>
       <c r="CE13" t="n">
-        <v>2.855972525139805e-06</v>
+        <v>0.01151694264262915</v>
       </c>
       <c r="CF13" t="n">
-        <v>9.327685575044597e-07</v>
+        <v>0.007893618196249008</v>
       </c>
       <c r="CG13" t="n">
-        <v>1.959311248356244e-06</v>
+        <v>0.0007891132845543325</v>
       </c>
       <c r="CH13" t="n">
-        <v>5.296305971569382e-07</v>
+        <v>0.0004229092737659812</v>
       </c>
       <c r="CI13" t="n">
-        <v>6.518546342704212e-07</v>
+        <v>0.0109174195677042</v>
       </c>
       <c r="CJ13" t="n">
-        <v>6.366997240547789e-08</v>
+        <v>0.006090897601097822</v>
       </c>
       <c r="CK13" t="n">
-        <v>3.101831680396572e-07</v>
+        <v>0.00745122879743576</v>
       </c>
       <c r="CL13" t="n">
-        <v>6.718900635860336e-08</v>
+        <v>0.008168548345565796</v>
       </c>
       <c r="CM13" t="n">
-        <v>4.874596015724819e-07</v>
+        <v>0.008044414222240448</v>
       </c>
       <c r="CN13" t="n">
-        <v>5.634075250782189e-07</v>
+        <v>0.009129186160862446</v>
       </c>
       <c r="CO13" t="n">
-        <v>8.700537250661e-07</v>
+        <v>0.001618812326341867</v>
       </c>
       <c r="CP13" t="n">
-        <v>1.274962755815068e-06</v>
+        <v>0.0231110155582428</v>
       </c>
       <c r="CQ13" t="n">
-        <v>3.623211796366377e-06</v>
+        <v>0.002726251259446144</v>
       </c>
       <c r="CR13" t="n">
-        <v>2.391702309978427e-06</v>
+        <v>0.006487168837338686</v>
       </c>
       <c r="CS13" t="n">
-        <v>2.496842057553295e-07</v>
+        <v>0.02073783241212368</v>
       </c>
       <c r="CT13" t="n">
-        <v>1.560854002491396e-06</v>
+        <v>0.01193671859800816</v>
       </c>
       <c r="CU13" t="n">
-        <v>4.311855548166932e-07</v>
+        <v>0.008274518884718418</v>
       </c>
       <c r="CV13" t="n">
-        <v>1.237751575899892e-06</v>
+        <v>0.001535897143185139</v>
       </c>
       <c r="CW13" t="n">
-        <v>2.80504536931403e-06</v>
+        <v>0.01090605743229389</v>
       </c>
       <c r="CX13" t="n">
-        <v>8.523081191924575e-07</v>
+        <v>0.006893571931868792</v>
       </c>
       <c r="CY13" t="n">
-        <v>2.162973942176905e-06</v>
+        <v>0.001925122807733715</v>
       </c>
       <c r="CZ13" t="n">
-        <v>6.11247742199339e-07</v>
+        <v>0.002620539627969265</v>
       </c>
       <c r="DA13" t="n">
-        <v>1.222456376126502e-07</v>
+        <v>0.009740764275193214</v>
       </c>
       <c r="DB13" t="n">
-        <v>7.957930847624084e-08</v>
+        <v>0.005668783560395241</v>
       </c>
       <c r="DC13" t="n">
-        <v>6.960820542190049e-07</v>
+        <v>0.01022195816040039</v>
       </c>
       <c r="DD13" t="n">
-        <v>3.107159329829301e-07</v>
+        <v>0.005974418018013239</v>
       </c>
       <c r="DE13" t="n">
-        <v>2.675512178029749e-06</v>
+        <v>0.007460814900696278</v>
       </c>
       <c r="DF13" t="n">
-        <v>2.547749318182468e-06</v>
+        <v>0.006765902042388916</v>
       </c>
       <c r="DG13" t="n">
-        <v>2.34521121456055e-06</v>
+        <v>0.001731354859657586</v>
       </c>
       <c r="DH13" t="n">
-        <v>1.46862930705538e-07</v>
+        <v>0.03922417759895325</v>
       </c>
       <c r="DI13" t="n">
-        <v>2.201349616370862e-06</v>
+        <v>0.01586618646979332</v>
       </c>
       <c r="DJ13" t="n">
-        <v>1.671820200499496e-06</v>
+        <v>0.03595505282282829</v>
       </c>
       <c r="DK13" t="n">
-        <v>1.986456481972709e-06</v>
+        <v>0.003504113294184208</v>
       </c>
       <c r="DL13" t="n">
-        <v>3.282657417003065e-06</v>
+        <v>0.01437319256365299</v>
       </c>
       <c r="DM13" t="n">
-        <v>1.636911122204765e-07</v>
+        <v>0.02080123126506805</v>
       </c>
       <c r="DN13" t="n">
-        <v>8.291708581964485e-07</v>
+        <v>0.002856663893908262</v>
       </c>
       <c r="DO13" t="n">
-        <v>4.986989665667352e-07</v>
+        <v>0.001231912756338716</v>
       </c>
       <c r="DP13" t="n">
-        <v>6.984906804063939e-07</v>
+        <v>0.01355362124741077</v>
       </c>
       <c r="DQ13" t="n">
-        <v>1.382329628540901e-08</v>
+        <v>0.006637908983975649</v>
       </c>
       <c r="DR13" t="n">
-        <v>8.54958329910005e-07</v>
+        <v>0.01414972171187401</v>
       </c>
       <c r="DS13" t="n">
-        <v>6.459270025516162e-07</v>
+        <v>0.007881633937358856</v>
       </c>
       <c r="DT13" t="n">
-        <v>1.606231023743021e-07</v>
+        <v>0.005905959755182266</v>
       </c>
       <c r="DU13" t="n">
-        <v>3.524112344166497e-07</v>
+        <v>0.002085826359689236</v>
       </c>
       <c r="DV13" t="n">
-        <v>9.869580708254944e-07</v>
+        <v>0.0008369003189727664</v>
       </c>
       <c r="DW13" t="n">
-        <v>1.864533913931155e-07</v>
+        <v>0.00282186409458518</v>
       </c>
       <c r="DX13" t="n">
-        <v>1.546143039377057e-06</v>
+        <v>0.004146930761635303</v>
       </c>
       <c r="DY13" t="n">
-        <v>6.1323612499109e-07</v>
+        <v>0.002978825941681862</v>
       </c>
       <c r="DZ13" t="n">
-        <v>1.679337970017514e-06</v>
+        <v>0.007447374984622002</v>
       </c>
       <c r="EA13" t="n">
-        <v>3.362847564858384e-07</v>
+        <v>0.009036692790687084</v>
       </c>
       <c r="EB13" t="n">
-        <v>1.485526354372269e-06</v>
+        <v>0.01994596421718597</v>
       </c>
       <c r="EC13" t="n">
-        <v>4.271647924269928e-07</v>
+        <v>0.002632936928421259</v>
       </c>
       <c r="ED13" t="n">
-        <v>1.6163872942343e-06</v>
+        <v>0.008120124228298664</v>
       </c>
       <c r="EE13" t="n">
-        <v>9.1034138449686e-07</v>
+        <v>0.02032203786075115</v>
       </c>
       <c r="EF13" t="n">
-        <v>9.584697409081855e-07</v>
+        <v>0.002674086717888713</v>
       </c>
       <c r="EG13" t="n">
-        <v>3.758541424758732e-06</v>
+        <v>0.01745259761810303</v>
       </c>
       <c r="EH13" t="n">
-        <v>5.958344218015554e-07</v>
+        <v>0.006596813444048166</v>
       </c>
       <c r="EI13" t="n">
-        <v>3.815605850832071e-06</v>
+        <v>0.0106451129540801</v>
       </c>
       <c r="EJ13" t="n">
-        <v>3.746201400645077e-06</v>
+        <v>0.003485932946205139</v>
       </c>
       <c r="EK13" t="n">
-        <v>8.93556887149316e-07</v>
+        <v>0.003170066978782415</v>
       </c>
       <c r="EL13" t="n">
-        <v>1.023076663386746e-07</v>
+        <v>0.003686295123770833</v>
       </c>
       <c r="EM13" t="n">
-        <v>4.388322736303962e-07</v>
+        <v>0.004979482851922512</v>
       </c>
       <c r="EN13" t="n">
-        <v>1.462739078306186e-06</v>
+        <v>0.004491479136049747</v>
       </c>
       <c r="EO13" t="n">
-        <v>1.49638208313263e-06</v>
+        <v>0.001662431750446558</v>
       </c>
       <c r="EP13" t="n">
-        <v>2.122538489857106e-06</v>
+        <v>0.008004847913980484</v>
       </c>
       <c r="EQ13" t="n">
-        <v>1.841452217377082e-07</v>
+        <v>0.000109698623418808</v>
       </c>
       <c r="ER13" t="n">
-        <v>3.423561452109425e-07</v>
+        <v>0.005570976994931698</v>
       </c>
       <c r="ES13" t="n">
-        <v>7.010497711235075e-07</v>
+        <v>0.0009377645910717547</v>
       </c>
       <c r="ET13" t="n">
-        <v>2.742996230153949e-07</v>
+        <v>0.01255292259156704</v>
       </c>
       <c r="EU13" t="n">
-        <v>7.868096076890652e-07</v>
+        <v>0.01549369283020496</v>
       </c>
       <c r="EV13" t="n">
-        <v>4.032061156067357e-07</v>
+        <v>0.03090780600905418</v>
       </c>
       <c r="EW13" t="n">
-        <v>6.98392227604927e-07</v>
+        <v>0.004261529073119164</v>
       </c>
       <c r="EX13" t="n">
-        <v>9.979768265111488e-07</v>
+        <v>0.0008755797753110528</v>
       </c>
       <c r="EY13" t="n">
-        <v>2.51618075708393e-06</v>
+        <v>0.008123734034597874</v>
       </c>
       <c r="EZ13" t="n">
-        <v>7.423753913826658e-07</v>
+        <v>0.004141787067055702</v>
       </c>
       <c r="FA13" t="n">
-        <v>2.145342023140984e-06</v>
+        <v>0.001812382834032178</v>
       </c>
       <c r="FB13" t="n">
-        <v>7.04863651890264e-08</v>
+        <v>0.0004472598666325212</v>
       </c>
       <c r="FC13" t="n">
-        <v>1.683918355865899e-07</v>
+        <v>0.008538141846656799</v>
       </c>
       <c r="FD13" t="n">
-        <v>1.126414872487658e-07</v>
+        <v>0.01103303581476212</v>
       </c>
       <c r="FE13" t="n">
-        <v>4.212075737086707e-07</v>
+        <v>0.01034278981387615</v>
       </c>
       <c r="FF13" t="n">
-        <v>4.458426303699525e-07</v>
+        <v>0.008483957499265671</v>
       </c>
       <c r="FG13" t="n">
-        <v>5.111828116355355e-08</v>
+        <v>0.008727069012820721</v>
       </c>
       <c r="FH13" t="n">
-        <v>1.261950615116803e-06</v>
+        <v>0.005636177957057953</v>
       </c>
       <c r="FI13" t="n">
-        <v>3.590688493204652e-07</v>
+        <v>0.005406943149864674</v>
       </c>
       <c r="FJ13" t="n">
-        <v>1.75376453626086e-06</v>
+        <v>0.01629508659243584</v>
       </c>
       <c r="FK13" t="n">
-        <v>1.190876901091542e-06</v>
+        <v>0.0006384670850820839</v>
       </c>
       <c r="FL13" t="n">
-        <v>1.35597008465993e-06</v>
+        <v>0.007650021463632584</v>
       </c>
       <c r="FM13" t="n">
-        <v>2.045095470748493e-08</v>
+        <v>0.01019397657364607</v>
       </c>
       <c r="FN13" t="n">
-        <v>4.266687199105945e-07</v>
+        <v>0.005154778249561787</v>
       </c>
       <c r="FO13" t="n">
-        <v>2.154801222786773e-06</v>
+        <v>0.002884628949686885</v>
       </c>
       <c r="FP13" t="n">
-        <v>1.077531010196253e-06</v>
+        <v>0.005010892637073994</v>
       </c>
       <c r="FQ13" t="n">
-        <v>1.206521005769901e-06</v>
+        <v>0.01303553581237793</v>
       </c>
       <c r="FR13" t="n">
-        <v>7.116847200450138e-08</v>
+        <v>0.01254836563020945</v>
       </c>
       <c r="FS13" t="n">
-        <v>1.984938080568099e-07</v>
+        <v>0.0137470243498683</v>
       </c>
       <c r="FT13" t="n">
-        <v>1.349300077890803e-06</v>
+        <v>0.03122126497328281</v>
       </c>
       <c r="FU13" t="n">
-        <v>1.069948211807059e-06</v>
+        <v>0.02048872411251068</v>
       </c>
       <c r="FV13" t="n">
-        <v>9.106274774239864e-07</v>
+        <v>0.01612201519310474</v>
       </c>
       <c r="FW13" t="n">
-        <v>6.272193786571734e-07</v>
+        <v>0.008819630369544029</v>
       </c>
       <c r="FX13" t="n">
-        <v>1.618440933270904e-06</v>
+        <v>0.01146269403398037</v>
       </c>
       <c r="FY13" t="n">
-        <v>9.546793080517091e-07</v>
+        <v>0.0136419702321291</v>
       </c>
       <c r="FZ13" t="n">
-        <v>1.78519030669122e-07</v>
+        <v>0.01364538446068764</v>
       </c>
       <c r="GA13" t="n">
-        <v>8.037964107643347e-07</v>
+        <v>0.006375325843691826</v>
       </c>
       <c r="GB13" t="n">
-        <v>2.408684622423607e-06</v>
+        <v>0.01394394133239985</v>
       </c>
       <c r="GC13" t="n">
-        <v>1.625454160603113e-06</v>
+        <v>0.003387378994375467</v>
       </c>
       <c r="GD13" t="n">
-        <v>5.128532052367518e-07</v>
+        <v>0.001469827257096767</v>
       </c>
       <c r="GE13" t="n">
-        <v>1.223092908730905e-06</v>
+        <v>0.02155507355928421</v>
       </c>
       <c r="GF13" t="n">
-        <v>1.405602688464569e-06</v>
+        <v>0.01296724565327168</v>
       </c>
       <c r="GG13" t="n">
-        <v>5.352916900847049e-07</v>
+        <v>0.0001101999878301285</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.466238821114302e-11</v>
+        <v>7.186830043792725e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>1.414837830227e-10</v>
+        <v>0.002481010043993592</v>
       </c>
       <c r="C14" t="n">
-        <v>1.393167872731915e-11</v>
+        <v>0.0002437015791656449</v>
       </c>
       <c r="D14" t="n">
-        <v>2.48217058018696e-10</v>
+        <v>0.001217464217916131</v>
       </c>
       <c r="E14" t="n">
-        <v>1.746122135770634e-10</v>
+        <v>0.0006086996290832758</v>
       </c>
       <c r="F14" t="n">
-        <v>1.754432189804422e-11</v>
+        <v>0.000397117662942037</v>
       </c>
       <c r="G14" t="n">
-        <v>4.087632315963319e-11</v>
+        <v>0.0002081471320707351</v>
       </c>
       <c r="H14" t="n">
-        <v>7.889510572622882e-11</v>
+        <v>8.485892612952739e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>5.291417304320589e-11</v>
+        <v>0.0001154811689048074</v>
       </c>
       <c r="J14" t="n">
-        <v>6.430395105283537e-11</v>
+        <v>0.000154979556100443</v>
       </c>
       <c r="K14" t="n">
-        <v>1.310653807706785e-10</v>
+        <v>0.00184846471529454</v>
       </c>
       <c r="L14" t="n">
-        <v>1.391349535584396e-11</v>
+        <v>2.100211349898018e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>2.479403349298082e-10</v>
+        <v>0.0009916622657328844</v>
       </c>
       <c r="N14" t="n">
-        <v>1.693911122480074e-10</v>
+        <v>0.0006590236444026232</v>
       </c>
       <c r="O14" t="n">
-        <v>9.985690746505682e-11</v>
+        <v>0.000405360187869519</v>
       </c>
       <c r="P14" t="n">
-        <v>3.59298979457634e-11</v>
+        <v>0.0001804762578103691</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.810316728276476e-11</v>
+        <v>0.0004517233173828572</v>
       </c>
       <c r="R14" t="n">
-        <v>1.113593245394284e-10</v>
+        <v>3.629446655395441e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>2.522796208048739e-11</v>
+        <v>0.0001235109230037779</v>
       </c>
       <c r="T14" t="n">
-        <v>5.499854044410668e-12</v>
+        <v>0.0003590112901292741</v>
       </c>
       <c r="U14" t="n">
-        <v>1.728561738190137e-11</v>
+        <v>0.0001279896241612732</v>
       </c>
       <c r="V14" t="n">
-        <v>7.252787259659499e-11</v>
+        <v>0.000335317658027634</v>
       </c>
       <c r="W14" t="n">
-        <v>1.470960020455436e-10</v>
+        <v>0.000254015700193122</v>
       </c>
       <c r="X14" t="n">
-        <v>3.383934625567075e-12</v>
+        <v>0.000232056831009686</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.036383912716987e-11</v>
+        <v>0.0001877755421446636</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.010505122442609e-11</v>
+        <v>0.00030669872649014</v>
       </c>
       <c r="AA14" t="n">
-        <v>4.609800388633012e-12</v>
+        <v>0.0001674376835580915</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.669585717045123e-11</v>
+        <v>3.940906026400626e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.465850523243219e-11</v>
+        <v>8.763539881329052e-06</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.434941311080241e-11</v>
+        <v>0.0001985357521334663</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.338648913939977e-10</v>
+        <v>4.10049433412496e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.370367534725414e-11</v>
+        <v>3.224550891900435e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>3.577843923907587e-11</v>
+        <v>3.933133848477155e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.491606293652531e-12</v>
+        <v>1.886650534288492e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.573052617666939e-11</v>
+        <v>0.0002561740693636239</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3.897980549449898e-11</v>
+        <v>6.442561425501481e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>6.633287669144394e-11</v>
+        <v>0.000295779318548739</v>
       </c>
       <c r="AL14" t="n">
-        <v>2.029391411861869e-11</v>
+        <v>0.0001253417867701501</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.495535639772783e-11</v>
+        <v>6.855349511170061e-06</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.121148281110436e-12</v>
+        <v>0.0002205092459917068</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.073313214503216e-11</v>
+        <v>0.0002692256821319461</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.211597307539726e-11</v>
+        <v>0.0002957182296086103</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.210830910703843e-12</v>
+        <v>0.0001088646895368584</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.276177948039692e-12</v>
+        <v>0.0002268785901833326</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.666305288194891e-11</v>
+        <v>0.0001287666236748919</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.30717076052278e-10</v>
+        <v>2.425470302114263e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.043528954531197e-11</v>
+        <v>0.001529453322291374</v>
       </c>
       <c r="AV14" t="n">
-        <v>2.233288207142969e-11</v>
+        <v>5.280888581182808e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.335592467321405e-11</v>
+        <v>0.000169945924426429</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.939481099812241e-11</v>
+        <v>2.299908192071598e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>1.266706878277901e-11</v>
+        <v>6.113734707469121e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1.214100001090124e-11</v>
+        <v>0.0001794114359654486</v>
       </c>
       <c r="BA14" t="n">
-        <v>5.097505056950169e-11</v>
+        <v>0.000347068184055388</v>
       </c>
       <c r="BB14" t="n">
-        <v>5.354924142997319e-11</v>
+        <v>6.150759872980416e-06</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.131214132782388e-11</v>
+        <v>8.081166015472263e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>3.780405155584532e-11</v>
+        <v>0.0003862145822495222</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.708151931873903e-11</v>
+        <v>0.0005343317752704024</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.228026430544205e-10</v>
+        <v>0.0003622743533924222</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.428854142428222e-11</v>
+        <v>0.0008368472335860133</v>
       </c>
       <c r="BH14" t="n">
-        <v>3.967434714091667e-11</v>
+        <v>0.0001965823030332103</v>
       </c>
       <c r="BI14" t="n">
-        <v>2.16307007028238e-11</v>
+        <v>2.561243491072673e-05</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1.435020158258027e-11</v>
+        <v>0.0003853073867503554</v>
       </c>
       <c r="BK14" t="n">
-        <v>6.75508954328663e-11</v>
+        <v>6.447872146964073e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>1.394660949227688e-11</v>
+        <v>0.0002253632701467723</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.025432100343338e-10</v>
+        <v>0.0005001314566470683</v>
       </c>
       <c r="BN14" t="n">
-        <v>7.483584064937876e-13</v>
+        <v>0.0001921637303894386</v>
       </c>
       <c r="BO14" t="n">
-        <v>5.532595909185645e-11</v>
+        <v>3.615158493630588e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>5.601099792307274e-11</v>
+        <v>0.0003008687635883689</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.22222501217073e-11</v>
+        <v>0.0002281210327055305</v>
       </c>
       <c r="BR14" t="n">
-        <v>6.227362375765821e-12</v>
+        <v>6.128691165940836e-05</v>
       </c>
       <c r="BS14" t="n">
-        <v>2.988691932825915e-11</v>
+        <v>0.0001289154897676781</v>
       </c>
       <c r="BT14" t="n">
-        <v>1.580088837549454e-11</v>
+        <v>6.300761015154421e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>1.190433168707372e-10</v>
+        <v>0.0001355862332275137</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.140918522851697e-11</v>
+        <v>0.0008500214898958802</v>
       </c>
       <c r="BW14" t="n">
-        <v>2.425968627373098e-11</v>
+        <v>0.0002427196741336957</v>
       </c>
       <c r="BX14" t="n">
-        <v>9.937668743464911e-11</v>
+        <v>0.0001153073681052774</v>
       </c>
       <c r="BY14" t="n">
-        <v>7.147500646897953e-11</v>
+        <v>1.009389507089509e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>4.970660688607964e-11</v>
+        <v>0.0003164646914228797</v>
       </c>
       <c r="CA14" t="n">
-        <v>5.917164761642946e-12</v>
+        <v>0.0002399394870735705</v>
       </c>
       <c r="CB14" t="n">
-        <v>3.798781428310249e-11</v>
+        <v>6.049740477465093e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>4.908991962926379e-11</v>
+        <v>5.265139407129027e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>1.858228848572452e-11</v>
+        <v>2.47861444222508e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>4.171891304638464e-11</v>
+        <v>0.0004027122631669044</v>
       </c>
       <c r="CF14" t="n">
-        <v>1.435849442815718e-11</v>
+        <v>0.0001499673089710996</v>
       </c>
       <c r="CG14" t="n">
-        <v>4.315232199347818e-11</v>
+        <v>0.0001773824624251574</v>
       </c>
       <c r="CH14" t="n">
-        <v>5.453631990448571e-11</v>
+        <v>0.0001030880666803569</v>
       </c>
       <c r="CI14" t="n">
-        <v>9.172683446134755e-12</v>
+        <v>0.0001034447268466465</v>
       </c>
       <c r="CJ14" t="n">
-        <v>5.594558670496408e-12</v>
+        <v>8.63411114551127e-05</v>
       </c>
       <c r="CK14" t="n">
-        <v>2.776056468034582e-11</v>
+        <v>6.497497815871611e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>2.012019370556395e-11</v>
+        <v>0.0001166548172477633</v>
       </c>
       <c r="CM14" t="n">
-        <v>1.407784826212843e-11</v>
+        <v>0.0004504342505242676</v>
       </c>
       <c r="CN14" t="n">
-        <v>1.755765671740406e-13</v>
+        <v>5.54505386389792e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>2.238765596518366e-11</v>
+        <v>0.0001525196566944942</v>
       </c>
       <c r="CP14" t="n">
-        <v>6.777498007259908e-11</v>
+        <v>0.0002524934243410826</v>
       </c>
       <c r="CQ14" t="n">
-        <v>7.035954457945692e-11</v>
+        <v>0.0002101718855556101</v>
       </c>
       <c r="CR14" t="n">
-        <v>6.817441056128359e-11</v>
+        <v>0.0005194675177335739</v>
       </c>
       <c r="CS14" t="n">
-        <v>1.843293920278377e-11</v>
+        <v>0.0002849406737368554</v>
       </c>
       <c r="CT14" t="n">
-        <v>5.526376925524268e-11</v>
+        <v>0.000213114355574362</v>
       </c>
       <c r="CU14" t="n">
-        <v>3.182462279816001e-11</v>
+        <v>0.0002288326213601977</v>
       </c>
       <c r="CV14" t="n">
-        <v>2.084597425233703e-11</v>
+        <v>8.39889526105253e-06</v>
       </c>
       <c r="CW14" t="n">
-        <v>4.848199272600162e-11</v>
+        <v>0.0003623165539465845</v>
       </c>
       <c r="CX14" t="n">
-        <v>5.533147724723353e-12</v>
+        <v>0.000178887537913397</v>
       </c>
       <c r="CY14" t="n">
-        <v>2.764760469176064e-11</v>
+        <v>0.0002549429482314736</v>
       </c>
       <c r="CZ14" t="n">
-        <v>4.306839607171042e-11</v>
+        <v>9.024923929246143e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>3.762383633809652e-12</v>
+        <v>8.961529238149524e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>3.796831772595599e-12</v>
+        <v>0.0001063620584318414</v>
       </c>
       <c r="DC14" t="n">
-        <v>2.766590082026177e-11</v>
+        <v>0.000130934568005614</v>
       </c>
       <c r="DD14" t="n">
-        <v>1.729686532891961e-11</v>
+        <v>7.08260340616107e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>9.064168166039721e-11</v>
+        <v>0.0001152786499005742</v>
       </c>
       <c r="DF14" t="n">
-        <v>1.004620345246288e-10</v>
+        <v>0.0006948456866666675</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.361362151480749e-11</v>
+        <v>0.000205543648917228</v>
       </c>
       <c r="DH14" t="n">
-        <v>2.81607636515302e-11</v>
+        <v>0.0007546317065134645</v>
       </c>
       <c r="DI14" t="n">
-        <v>3.180219629306258e-11</v>
+        <v>9.563310413795989e-06</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1.378356873082964e-10</v>
+        <v>8.854025509208441e-05</v>
       </c>
       <c r="DK14" t="n">
-        <v>6.891278346576879e-12</v>
+        <v>0.0001438938779756427</v>
       </c>
       <c r="DL14" t="n">
-        <v>1.064014987228745e-10</v>
+        <v>6.887003837618977e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>6.413488490286667e-11</v>
+        <v>0.0001130578457377851</v>
       </c>
       <c r="DN14" t="n">
-        <v>1.118492971852181e-11</v>
+        <v>0.0002596263366285712</v>
       </c>
       <c r="DO14" t="n">
-        <v>1.835598730307031e-12</v>
+        <v>0.0001665833260631189</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.005493344835573e-11</v>
+        <v>4.184233694104478e-05</v>
       </c>
       <c r="DQ14" t="n">
-        <v>3.288127409240005e-11</v>
+        <v>7.655239460291341e-05</v>
       </c>
       <c r="DR14" t="n">
-        <v>2.554118722075671e-11</v>
+        <v>8.490984328091145e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>1.307291861568638e-11</v>
+        <v>0.0001471775758545846</v>
       </c>
       <c r="DT14" t="n">
-        <v>1.502489105353888e-12</v>
+        <v>0.0001344443298876286</v>
       </c>
       <c r="DU14" t="n">
-        <v>8.263487116799695e-12</v>
+        <v>0.0001251649082405493</v>
       </c>
       <c r="DV14" t="n">
-        <v>5.072598591171484e-12</v>
+        <v>0.0001203196152346209</v>
       </c>
       <c r="DW14" t="n">
-        <v>5.503348211172154e-12</v>
+        <v>2.552799742261413e-06</v>
       </c>
       <c r="DX14" t="n">
-        <v>2.294496884158725e-11</v>
+        <v>0.0001600225223228335</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.791183000532381e-11</v>
+        <v>0.0002053782081929967</v>
       </c>
       <c r="DZ14" t="n">
-        <v>2.20320602040136e-11</v>
+        <v>9.526270878268406e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>1.950082456625424e-12</v>
+        <v>0.0002697698073461652</v>
       </c>
       <c r="EB14" t="n">
-        <v>5.805856490015415e-11</v>
+        <v>2.08703349926509e-05</v>
       </c>
       <c r="EC14" t="n">
-        <v>1.797477618137311e-11</v>
+        <v>0.0001699290587566793</v>
       </c>
       <c r="ED14" t="n">
-        <v>8.947342866605368e-12</v>
+        <v>7.855660805944353e-05</v>
       </c>
       <c r="EE14" t="n">
-        <v>4.239625317481455e-11</v>
+        <v>0.0002228770172223449</v>
       </c>
       <c r="EF14" t="n">
-        <v>5.023100338452657e-11</v>
+        <v>0.000280308595392853</v>
       </c>
       <c r="EG14" t="n">
-        <v>2.322977574187313e-11</v>
+        <v>0.0003867956984322518</v>
       </c>
       <c r="EH14" t="n">
-        <v>9.181112467504526e-12</v>
+        <v>0.0002132609079126269</v>
       </c>
       <c r="EI14" t="n">
-        <v>6.557054205158508e-11</v>
+        <v>0.0001339002483291551</v>
       </c>
       <c r="EJ14" t="n">
-        <v>5.985176243505919e-11</v>
+        <v>0.000103991333162412</v>
       </c>
       <c r="EK14" t="n">
-        <v>5.364749009612035e-12</v>
+        <v>8.392406743951142e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>1.24920247757121e-11</v>
+        <v>9.933138790074736e-05</v>
       </c>
       <c r="EM14" t="n">
-        <v>1.828307644169413e-11</v>
+        <v>6.726442370563745e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>2.09080704138831e-11</v>
+        <v>5.153051824891008e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>1.760428608443831e-11</v>
+        <v>4.826007352676243e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>3.745335291904794e-11</v>
+        <v>0.0001673225779086351</v>
       </c>
       <c r="EQ14" t="n">
-        <v>4.658790714318073e-12</v>
+        <v>0.0001710941578494385</v>
       </c>
       <c r="ER14" t="n">
-        <v>2.894156051966301e-12</v>
+        <v>0.0001577964139869437</v>
       </c>
       <c r="ES14" t="n">
-        <v>7.028398696373728e-11</v>
+        <v>0.0001050617865985259</v>
       </c>
       <c r="ET14" t="n">
-        <v>1.196677566067672e-11</v>
+        <v>0.0001467749825678766</v>
       </c>
       <c r="EU14" t="n">
-        <v>9.284769134088044e-12</v>
+        <v>0.0002479362883605063</v>
       </c>
       <c r="EV14" t="n">
-        <v>6.75459774918119e-12</v>
+        <v>4.835941581404768e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>9.639094210311949e-12</v>
+        <v>8.741155033931136e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>1.775993935249076e-11</v>
+        <v>5.622821481665596e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>4.209336004756814e-11</v>
+        <v>0.0003713404003065079</v>
       </c>
       <c r="EZ14" t="n">
-        <v>9.224338307078916e-12</v>
+        <v>0.0001525192783446983</v>
       </c>
       <c r="FA14" t="n">
-        <v>3.182651364674882e-11</v>
+        <v>0.0002068110479740426</v>
       </c>
       <c r="FB14" t="n">
-        <v>5.257050697538013e-11</v>
+        <v>4.162540790275671e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>6.631943258450512e-13</v>
+        <v>0.0001076703265425749</v>
       </c>
       <c r="FD14" t="n">
-        <v>3.060570893942405e-12</v>
+        <v>0.000129389125504531</v>
       </c>
       <c r="FE14" t="n">
-        <v>1.948799628614939e-11</v>
+        <v>8.451172470813617e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>5.095985265712866e-12</v>
+        <v>0.0001338661822956055</v>
       </c>
       <c r="FG14" t="n">
-        <v>3.102917228714475e-11</v>
+        <v>0.0001571277098264545</v>
       </c>
       <c r="FH14" t="n">
-        <v>3.663577774482007e-11</v>
+        <v>9.030581713886932e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>8.893158778833232e-12</v>
+        <v>8.376884943572804e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>3.807860277094122e-11</v>
+        <v>0.0002446958387736231</v>
       </c>
       <c r="FK14" t="n">
-        <v>1.03903996517829e-10</v>
+        <v>0.0002680802426766604</v>
       </c>
       <c r="FL14" t="n">
-        <v>1.121729306663433e-10</v>
+        <v>0.0002201407478423789</v>
       </c>
       <c r="FM14" t="n">
-        <v>1.85376713979224e-11</v>
+        <v>9.737888467498124e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>4.932612998609365e-11</v>
+        <v>8.055307989707217e-05</v>
       </c>
       <c r="FO14" t="n">
-        <v>5.464718955128234e-11</v>
+        <v>3.983333954238333e-05</v>
       </c>
       <c r="FP14" t="n">
-        <v>1.889972726931699e-11</v>
+        <v>0.0001667289761826396</v>
       </c>
       <c r="FQ14" t="n">
-        <v>4.321074748014908e-11</v>
+        <v>3.056040077353828e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>6.700510979396057e-11</v>
+        <v>0.0005453897756524384</v>
       </c>
       <c r="FS14" t="n">
-        <v>7.497606702155934e-11</v>
+        <v>3.019539144588634e-05</v>
       </c>
       <c r="FT14" t="n">
-        <v>1.098174398639351e-10</v>
+        <v>0.0002942952851299196</v>
       </c>
       <c r="FU14" t="n">
-        <v>1.689096605639318e-11</v>
+        <v>6.864154420327395e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>4.886353040939317e-12</v>
+        <v>0.0001129079755628482</v>
       </c>
       <c r="FW14" t="n">
-        <v>5.484864298854752e-11</v>
+        <v>7.167589501477778e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>2.914663996267386e-11</v>
+        <v>0.0002818943466991186</v>
       </c>
       <c r="FY14" t="n">
-        <v>2.560339960877567e-11</v>
+        <v>0.0002951411297544837</v>
       </c>
       <c r="FZ14" t="n">
-        <v>1.031581972621431e-10</v>
+        <v>5.616593261947855e-05</v>
       </c>
       <c r="GA14" t="n">
-        <v>1.855180592480465e-11</v>
+        <v>4.459324918570928e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>1.676789436466652e-11</v>
+        <v>3.466659836703911e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>1.028289883797662e-10</v>
+        <v>0.0001251421490451321</v>
       </c>
       <c r="GD14" t="n">
-        <v>2.991028258403361e-11</v>
+        <v>0.000237721498706378</v>
       </c>
       <c r="GE14" t="n">
-        <v>3.855278596365252e-11</v>
+        <v>0.0004431411798577756</v>
       </c>
       <c r="GF14" t="n">
-        <v>4.701563444120538e-11</v>
+        <v>0.0001861512137111276</v>
       </c>
       <c r="GG14" t="n">
-        <v>8.106727095169575e-13</v>
+        <v>0.0002503120340406895</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.351057901250897e-06</v>
+        <v>3.634628956206143e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>3.070159436902031e-05</v>
+        <v>0.002608494367450476</v>
       </c>
       <c r="C15" t="n">
-        <v>1.590657666383777e-05</v>
+        <v>0.0005199973820708692</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001044513628585264</v>
+        <v>0.001895896624773741</v>
       </c>
       <c r="E15" t="n">
-        <v>4.587990042637102e-05</v>
+        <v>0.001134403981268406</v>
       </c>
       <c r="F15" t="n">
-        <v>1.742598942655604e-05</v>
+        <v>0.0002978367265313864</v>
       </c>
       <c r="G15" t="n">
-        <v>1.637639797991142e-06</v>
+        <v>0.0007149247103370726</v>
       </c>
       <c r="H15" t="n">
-        <v>1.344540123682236e-05</v>
+        <v>0.0003871928784064949</v>
       </c>
       <c r="I15" t="n">
-        <v>3.813885268755257e-05</v>
+        <v>6.856965774204582e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>7.076895599311683e-06</v>
+        <v>0.000265271810349077</v>
       </c>
       <c r="K15" t="n">
-        <v>2.917435085691977e-05</v>
+        <v>0.001932693761773407</v>
       </c>
       <c r="L15" t="n">
-        <v>2.169631261494942e-05</v>
+        <v>0.0002464304561726749</v>
       </c>
       <c r="M15" t="n">
-        <v>9.983282507164404e-05</v>
+        <v>0.001846997067332268</v>
       </c>
       <c r="N15" t="n">
-        <v>7.483412628062069e-05</v>
+        <v>0.001355327549390495</v>
       </c>
       <c r="O15" t="n">
-        <v>1.334609078185167e-05</v>
+        <v>0.0008395555196329951</v>
       </c>
       <c r="P15" t="n">
-        <v>1.119684657169273e-05</v>
+        <v>0.0005502479034475982</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.851020665024407e-05</v>
+        <v>0.000104337086668238</v>
       </c>
       <c r="R15" t="n">
-        <v>2.606083944556303e-05</v>
+        <v>0.0002454334462527186</v>
       </c>
       <c r="S15" t="n">
-        <v>1.469026301492704e-05</v>
+        <v>0.0001336298591922969</v>
       </c>
       <c r="T15" t="n">
-        <v>8.8075275925803e-06</v>
+        <v>0.0005662179319187999</v>
       </c>
       <c r="U15" t="n">
-        <v>1.113890448323218e-05</v>
+        <v>2.925269291154109e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>7.097102752595674e-06</v>
+        <v>0.0003562513156794012</v>
       </c>
       <c r="W15" t="n">
-        <v>7.068361446727067e-05</v>
+        <v>8.496432565152645e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>1.570635868120007e-05</v>
+        <v>0.0002499350230209529</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.701525985088665e-06</v>
+        <v>0.0003943046031054109</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.271474502573255e-05</v>
+        <v>0.0002949054178316146</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.139086816692725e-05</v>
+        <v>0.0003199341590516269</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.345119198958855e-05</v>
+        <v>8.268712554126978e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.439430530415848e-06</v>
+        <v>0.0005825919797644019</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.23867621368845e-05</v>
+        <v>9.570464317221195e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.239098441554233e-05</v>
+        <v>0.0001337566791335121</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.659656118135899e-05</v>
+        <v>2.915116783697158e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.040632534772158e-05</v>
+        <v>0.0002452752087265253</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.973914994683582e-06</v>
+        <v>0.0003493879630696028</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.478777812735643e-05</v>
+        <v>0.0002813077881000936</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.419979616912315e-05</v>
+        <v>0.000109214372059796</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.948570934473537e-05</v>
+        <v>6.012019730405882e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.270760342071299e-05</v>
+        <v>0.0005505739245563745</v>
       </c>
       <c r="AM15" t="n">
-        <v>8.592555786890443e-07</v>
+        <v>1.75164605025202e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.304304143763147e-05</v>
+        <v>3.558578464435413e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.348951718682656e-05</v>
+        <v>0.0001030698476824909</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.658020639501046e-05</v>
+        <v>0.0002107392792822793</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.610934527387144e-06</v>
+        <v>0.0003019198775291443</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.983656693482772e-05</v>
+        <v>0.0001489626156399027</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.596561555241351e-06</v>
+        <v>0.0001382565242238343</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.211517519550398e-05</v>
+        <v>0.0003035722183994949</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.009627794701373e-06</v>
+        <v>0.002002831315621734</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.397987216478214e-05</v>
+        <v>0.0001349854865111411</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.734152753371745e-05</v>
+        <v>0.000554863247089088</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.841958904464263e-06</v>
+        <v>0.0004117642238270491</v>
       </c>
       <c r="AY15" t="n">
-        <v>3.521596227074042e-05</v>
+        <v>2.968117223645095e-05</v>
       </c>
       <c r="AZ15" t="n">
-        <v>1.358044391963631e-05</v>
+        <v>0.0002820775262080133</v>
       </c>
       <c r="BA15" t="n">
-        <v>8.118850928440224e-06</v>
+        <v>4.611301483237185e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>1.430931752111064e-05</v>
+        <v>3.170990748913027e-05</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.991089902730891e-06</v>
+        <v>1.119790249504149e-05</v>
       </c>
       <c r="BD15" t="n">
-        <v>2.277826024510432e-05</v>
+        <v>0.0002532155194785446</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.426715425623115e-05</v>
+        <v>0.0005154047394171357</v>
       </c>
       <c r="BF15" t="n">
-        <v>4.521875962382182e-05</v>
+        <v>0.0006923216860741377</v>
       </c>
       <c r="BG15" t="n">
-        <v>2.380865225859452e-05</v>
+        <v>0.0009626045357435942</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.139160667662509e-05</v>
+        <v>0.0002588712959550321</v>
       </c>
       <c r="BI15" t="n">
-        <v>2.347712870687246e-05</v>
+        <v>0.0004108736175112426</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5.228394002187997e-06</v>
+        <v>0.0001255953684449196</v>
       </c>
       <c r="BK15" t="n">
-        <v>1.13645255623851e-05</v>
+        <v>0.0002604893525131047</v>
       </c>
       <c r="BL15" t="n">
-        <v>4.606767106452025e-06</v>
+        <v>0.0002230977261206135</v>
       </c>
       <c r="BM15" t="n">
-        <v>2.090849375235848e-05</v>
+        <v>0.0003228166024200618</v>
       </c>
       <c r="BN15" t="n">
-        <v>1.241567315446446e-05</v>
+        <v>0.0002746355021372437</v>
       </c>
       <c r="BO15" t="n">
-        <v>6.098797257436672e-06</v>
+        <v>4.827661905437708e-05</v>
       </c>
       <c r="BP15" t="n">
-        <v>7.494691544707166e-06</v>
+        <v>0.0001085417461581528</v>
       </c>
       <c r="BQ15" t="n">
-        <v>1.621072556190484e-06</v>
+        <v>0.0003665206022560596</v>
       </c>
       <c r="BR15" t="n">
-        <v>1.18626940093236e-05</v>
+        <v>2.240887079096865e-05</v>
       </c>
       <c r="BS15" t="n">
-        <v>2.34659637499135e-05</v>
+        <v>6.486843631137162e-05</v>
       </c>
       <c r="BT15" t="n">
-        <v>4.35529636888532e-06</v>
+        <v>0.0001417645835317671</v>
       </c>
       <c r="BU15" t="n">
-        <v>2.013026460190304e-05</v>
+        <v>0.0002575903781689703</v>
       </c>
       <c r="BV15" t="n">
-        <v>1.166961374110542e-05</v>
+        <v>0.001168442657217383</v>
       </c>
       <c r="BW15" t="n">
-        <v>1.33061439555604e-05</v>
+        <v>0.0005587156629189849</v>
       </c>
       <c r="BX15" t="n">
-        <v>3.580062912078574e-05</v>
+        <v>0.0004444321675691754</v>
       </c>
       <c r="BY15" t="n">
-        <v>2.742953438428231e-05</v>
+        <v>0.0001440835767425597</v>
       </c>
       <c r="BZ15" t="n">
-        <v>1.601776966708712e-05</v>
+        <v>0.0001883415097836405</v>
       </c>
       <c r="CA15" t="n">
-        <v>1.045445605996065e-05</v>
+        <v>0.0002080834965454414</v>
       </c>
       <c r="CB15" t="n">
-        <v>4.87342686028569e-06</v>
+        <v>0.0001295791880693287</v>
       </c>
       <c r="CC15" t="n">
-        <v>3.230062065995298e-05</v>
+        <v>0.0002281019405927509</v>
       </c>
       <c r="CD15" t="n">
-        <v>1.031645115290303e-05</v>
+        <v>4.990689194528386e-05</v>
       </c>
       <c r="CE15" t="n">
-        <v>7.707407348789275e-06</v>
+        <v>0.0004483958764467388</v>
       </c>
       <c r="CF15" t="n">
-        <v>7.680976523261052e-06</v>
+        <v>0.0001691402867436409</v>
       </c>
       <c r="CG15" t="n">
-        <v>2.450258034514263e-05</v>
+        <v>0.0002623296168167144</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.103920749301324e-05</v>
+        <v>6.809288606746122e-05</v>
       </c>
       <c r="CI15" t="n">
-        <v>5.704396812689083e-07</v>
+        <v>0.0002250914403703064</v>
       </c>
       <c r="CJ15" t="n">
-        <v>7.967045689838415e-07</v>
+        <v>6.302641122601926e-05</v>
       </c>
       <c r="CK15" t="n">
-        <v>6.32558385404991e-06</v>
+        <v>7.137686770875007e-05</v>
       </c>
       <c r="CL15" t="n">
-        <v>9.374575711262878e-07</v>
+        <v>0.0001335237466264516</v>
       </c>
       <c r="CM15" t="n">
-        <v>7.303111487999558e-06</v>
+        <v>0.0004693402734119445</v>
       </c>
       <c r="CN15" t="n">
-        <v>7.137270586099476e-06</v>
+        <v>0.0001835917355492711</v>
       </c>
       <c r="CO15" t="n">
-        <v>1.72342606674647e-06</v>
+        <v>5.281283301883377e-05</v>
       </c>
       <c r="CP15" t="n">
-        <v>2.417316682112869e-05</v>
+        <v>5.941881681792438e-05</v>
       </c>
       <c r="CQ15" t="n">
-        <v>2.376935663050972e-05</v>
+        <v>0.0001242310827365145</v>
       </c>
       <c r="CR15" t="n">
-        <v>2.592317287053447e-05</v>
+        <v>0.000268239266006276</v>
       </c>
       <c r="CS15" t="n">
-        <v>3.895812596965698e-07</v>
+        <v>0.0003817706601694226</v>
       </c>
       <c r="CT15" t="n">
-        <v>7.496549187635537e-06</v>
+        <v>0.0005023548728786409</v>
       </c>
       <c r="CU15" t="n">
-        <v>3.454714487816091e-06</v>
+        <v>7.949907740112394e-05</v>
       </c>
       <c r="CV15" t="n">
-        <v>1.071502538252389e-05</v>
+        <v>3.638752241386101e-05</v>
       </c>
       <c r="CW15" t="n">
-        <v>1.428450650564628e-05</v>
+        <v>0.0003360213595442474</v>
       </c>
       <c r="CX15" t="n">
-        <v>8.105836059257854e-06</v>
+        <v>0.0002119405689882115</v>
       </c>
       <c r="CY15" t="n">
-        <v>2.007382136071101e-05</v>
+        <v>0.0003094547428190708</v>
       </c>
       <c r="CZ15" t="n">
-        <v>1.236992829944938e-05</v>
+        <v>3.862645098706707e-05</v>
       </c>
       <c r="DA15" t="n">
-        <v>5.892052286071703e-06</v>
+        <v>0.0003304770507384092</v>
       </c>
       <c r="DB15" t="n">
-        <v>1.176779278466711e-07</v>
+        <v>5.415413397713564e-05</v>
       </c>
       <c r="DC15" t="n">
-        <v>4.691827143687988e-06</v>
+        <v>5.904877252760343e-05</v>
       </c>
       <c r="DD15" t="n">
-        <v>1.362430566587136e-06</v>
+        <v>2.761166251730174e-05</v>
       </c>
       <c r="DE15" t="n">
-        <v>2.549254168116022e-05</v>
+        <v>0.000200869602849707</v>
       </c>
       <c r="DF15" t="n">
-        <v>1.169742517959094e-05</v>
+        <v>0.0002900200197473168</v>
       </c>
       <c r="DG15" t="n">
-        <v>2.57159390457673e-05</v>
+        <v>0.0001608243910595775</v>
       </c>
       <c r="DH15" t="n">
-        <v>2.75404418061953e-05</v>
+        <v>0.000709807442035526</v>
       </c>
       <c r="DI15" t="n">
-        <v>2.576638871687464e-05</v>
+        <v>0.0002090376219712198</v>
       </c>
       <c r="DJ15" t="n">
-        <v>5.746926944993902e-06</v>
+        <v>0.0003891498490702361</v>
       </c>
       <c r="DK15" t="n">
-        <v>1.881677781057078e-05</v>
+        <v>0.0001842447236413136</v>
       </c>
       <c r="DL15" t="n">
-        <v>1.306141166423913e-05</v>
+        <v>0.0002654551062732935</v>
       </c>
       <c r="DM15" t="n">
-        <v>1.684701965132263e-05</v>
+        <v>0.0002365119435125962</v>
       </c>
       <c r="DN15" t="n">
-        <v>2.21278037315642e-06</v>
+        <v>0.0001705701579339802</v>
       </c>
       <c r="DO15" t="n">
-        <v>1.009665538731497e-06</v>
+        <v>9.585206862539053e-05</v>
       </c>
       <c r="DP15" t="n">
-        <v>4.041036390844965e-06</v>
+        <v>0.0001421109773218632</v>
       </c>
       <c r="DQ15" t="n">
-        <v>5.980177775199991e-06</v>
+        <v>0.0001003311626845971</v>
       </c>
       <c r="DR15" t="n">
-        <v>4.947187335346825e-06</v>
+        <v>0.0001792967523215339</v>
       </c>
       <c r="DS15" t="n">
-        <v>9.743084774527233e-06</v>
+        <v>2.03652489290107e-05</v>
       </c>
       <c r="DT15" t="n">
-        <v>2.612888238218147e-06</v>
+        <v>0.0002717166789807379</v>
       </c>
       <c r="DU15" t="n">
-        <v>5.548522494791541e-06</v>
+        <v>0.0002396295894868672</v>
       </c>
       <c r="DV15" t="n">
-        <v>1.184491702588275e-05</v>
+        <v>0.0003149759722873569</v>
       </c>
       <c r="DW15" t="n">
-        <v>7.186883067333838e-06</v>
+        <v>0.0001143056942964904</v>
       </c>
       <c r="DX15" t="n">
-        <v>1.729644645820372e-05</v>
+        <v>1.15024695332977e-05</v>
       </c>
       <c r="DY15" t="n">
-        <v>4.529592843027785e-07</v>
+        <v>0.000432567932875827</v>
       </c>
       <c r="DZ15" t="n">
-        <v>2.249649696750566e-05</v>
+        <v>0.0003162955981679261</v>
       </c>
       <c r="EA15" t="n">
-        <v>3.048492089874344e-06</v>
+        <v>0.0002695945440791547</v>
       </c>
       <c r="EB15" t="n">
-        <v>1.099835117202019e-05</v>
+        <v>0.000191182378330268</v>
       </c>
       <c r="EC15" t="n">
-        <v>8.382660325878533e-07</v>
+        <v>0.000136750633828342</v>
       </c>
       <c r="ED15" t="n">
-        <v>2.406306293778471e-06</v>
+        <v>0.0001269933709409088</v>
       </c>
       <c r="EE15" t="n">
-        <v>2.175720874220133e-05</v>
+        <v>0.0001110048542614095</v>
       </c>
       <c r="EF15" t="n">
-        <v>1.222471200890141e-05</v>
+        <v>5.882511322852224e-05</v>
       </c>
       <c r="EG15" t="n">
-        <v>1.032121599564562e-05</v>
+        <v>0.0003701180103234947</v>
       </c>
       <c r="EH15" t="n">
-        <v>6.117244993220083e-06</v>
+        <v>0.0002208701625932008</v>
       </c>
       <c r="EI15" t="n">
-        <v>1.287965369556332e-05</v>
+        <v>0.0003035559784621</v>
       </c>
       <c r="EJ15" t="n">
-        <v>4.086231911060167e-06</v>
+        <v>0.0002461847616359591</v>
       </c>
       <c r="EK15" t="n">
-        <v>3.957642547902651e-06</v>
+        <v>0.0003714339691214263</v>
       </c>
       <c r="EL15" t="n">
-        <v>1.704847363726003e-06</v>
+        <v>7.190500036813319e-05</v>
       </c>
       <c r="EM15" t="n">
-        <v>1.493943182140356e-05</v>
+        <v>2.496499473636504e-05</v>
       </c>
       <c r="EN15" t="n">
-        <v>3.963145445595728e-06</v>
+        <v>3.751670010387897e-05</v>
       </c>
       <c r="EO15" t="n">
-        <v>1.843029349402059e-05</v>
+        <v>2.835361374309286e-05</v>
       </c>
       <c r="EP15" t="n">
-        <v>5.090686499897856e-06</v>
+        <v>0.0002035859070019796</v>
       </c>
       <c r="EQ15" t="n">
-        <v>2.187147401855327e-05</v>
+        <v>0.0004338131402619183</v>
       </c>
       <c r="ER15" t="n">
-        <v>1.008080016617896e-05</v>
+        <v>8.387409616261721e-05</v>
       </c>
       <c r="ES15" t="n">
-        <v>1.955449079105165e-05</v>
+        <v>1.297994640481193e-05</v>
       </c>
       <c r="ET15" t="n">
-        <v>8.705351319804322e-06</v>
+        <v>0.0003806943714153022</v>
       </c>
       <c r="EU15" t="n">
-        <v>5.685342785000103e-06</v>
+        <v>6.077605939935893e-05</v>
       </c>
       <c r="EV15" t="n">
-        <v>1.209776746691205e-05</v>
+        <v>0.000225348339881748</v>
       </c>
       <c r="EW15" t="n">
-        <v>9.906411833071616e-06</v>
+        <v>1.49810039147269e-05</v>
       </c>
       <c r="EX15" t="n">
-        <v>8.320871529576834e-06</v>
+        <v>4.440909106051549e-05</v>
       </c>
       <c r="EY15" t="n">
-        <v>1.281157437915681e-05</v>
+        <v>0.0003711025347001851</v>
       </c>
       <c r="EZ15" t="n">
-        <v>9.660127034294419e-06</v>
+        <v>0.0001406221563229337</v>
       </c>
       <c r="FA15" t="n">
-        <v>1.594707464391831e-05</v>
+        <v>0.0003819955454673618</v>
       </c>
       <c r="FB15" t="n">
-        <v>1.337553658231627e-05</v>
+        <v>4.992288086214103e-05</v>
       </c>
       <c r="FC15" t="n">
-        <v>1.100211761695391e-07</v>
+        <v>0.0002982441510539502</v>
       </c>
       <c r="FD15" t="n">
-        <v>3.138109150313539e-08</v>
+        <v>6.313278572633862e-05</v>
       </c>
       <c r="FE15" t="n">
-        <v>7.832315532141365e-06</v>
+        <v>5.399917063186876e-05</v>
       </c>
       <c r="FF15" t="n">
-        <v>3.827786713372916e-06</v>
+        <v>0.0001152690383605659</v>
       </c>
       <c r="FG15" t="n">
-        <v>4.249345693096984e-06</v>
+        <v>6.004177703289315e-05</v>
       </c>
       <c r="FH15" t="n">
-        <v>1.966999889191356e-06</v>
+        <v>0.0002662054030224681</v>
       </c>
       <c r="FI15" t="n">
-        <v>6.980365469644312e-06</v>
+        <v>0.0002995317045133561</v>
       </c>
       <c r="FJ15" t="n">
-        <v>1.660890120547265e-05</v>
+        <v>0.0001576596696395427</v>
       </c>
       <c r="FK15" t="n">
-        <v>1.329446513409493e-05</v>
+        <v>7.031449058558792e-05</v>
       </c>
       <c r="FL15" t="n">
-        <v>1.193632397189504e-05</v>
+        <v>0.0002716209855861962</v>
       </c>
       <c r="FM15" t="n">
-        <v>3.995530732936459e-06</v>
+        <v>6.044444307917729e-05</v>
       </c>
       <c r="FN15" t="n">
-        <v>1.532745227450505e-05</v>
+        <v>1.240504752786364e-05</v>
       </c>
       <c r="FO15" t="n">
-        <v>4.389440164231928e-06</v>
+        <v>3.703223410411738e-05</v>
       </c>
       <c r="FP15" t="n">
-        <v>7.883412763476372e-06</v>
+        <v>1.17002782644704e-05</v>
       </c>
       <c r="FQ15" t="n">
-        <v>3.79984121536836e-05</v>
+        <v>0.0004552056489046663</v>
       </c>
       <c r="FR15" t="n">
-        <v>8.329093361680862e-06</v>
+        <v>0.0003408289339859039</v>
       </c>
       <c r="FS15" t="n">
-        <v>2.842655339918565e-05</v>
+        <v>0.0006961087929084897</v>
       </c>
       <c r="FT15" t="n">
-        <v>7.051905413391069e-06</v>
+        <v>0.0001688291522441432</v>
       </c>
       <c r="FU15" t="n">
-        <v>5.052499545854516e-06</v>
+        <v>0.0002246964868390933</v>
       </c>
       <c r="FV15" t="n">
-        <v>7.284340426849667e-06</v>
+        <v>0.0001387989323120564</v>
       </c>
       <c r="FW15" t="n">
-        <v>1.873979999800213e-05</v>
+        <v>0.0002906531153712422</v>
       </c>
       <c r="FX15" t="n">
-        <v>1.680197419773322e-05</v>
+        <v>7.852303679101169e-05</v>
       </c>
       <c r="FY15" t="n">
-        <v>8.775984497333411e-06</v>
+        <v>0.0004502948140725493</v>
       </c>
       <c r="FZ15" t="n">
-        <v>5.526385393750388e-08</v>
+        <v>9.33715928113088e-05</v>
       </c>
       <c r="GA15" t="n">
-        <v>1.017047543427907e-05</v>
+        <v>6.175979069666937e-05</v>
       </c>
       <c r="GB15" t="n">
-        <v>8.186966624634806e-06</v>
+        <v>3.093508712481707e-05</v>
       </c>
       <c r="GC15" t="n">
-        <v>3.370130070834421e-05</v>
+        <v>1.641143899178132e-05</v>
       </c>
       <c r="GD15" t="n">
-        <v>4.445978447620291e-06</v>
+        <v>0.0002238446177216247</v>
       </c>
       <c r="GE15" t="n">
-        <v>2.844772097887471e-07</v>
+        <v>0.001025233301334083</v>
       </c>
       <c r="GF15" t="n">
-        <v>1.804944758987403e-06</v>
+        <v>0.0001683114096522331</v>
       </c>
       <c r="GG15" t="n">
-        <v>8.209454790630843e-06</v>
+        <v>0.0002537359250709414</v>
       </c>
     </row>
   </sheetData>
